--- a/Rozklad_3zaizd.xlsx
+++ b/Rozklad_3zaizd.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="60">
   <si>
     <t>І</t>
   </si>
@@ -141,22 +141,64 @@
     <t>Субота, 11 березня</t>
   </si>
   <si>
-    <t>Неділя, 11 березня</t>
+    <t>13.05-19.05</t>
   </si>
   <si>
-    <t>Понеділок, 11 березня</t>
+    <t>11.03-19.03</t>
   </si>
   <si>
-    <t xml:space="preserve"> Вівторок, 11 березня</t>
+    <t>Неділя, 12 березня</t>
   </si>
   <si>
-    <t>Середа, 11 березня</t>
+    <t>Понеділок, 13 березня</t>
   </si>
   <si>
-    <t>Четвер, 11 березня</t>
+    <t xml:space="preserve"> Вівторок, 14 березня</t>
   </si>
   <si>
-    <t>П'ятниця, 11 березня</t>
+    <t>Середа, 15 березня</t>
+  </si>
+  <si>
+    <t>Четвер, 16 березня</t>
+  </si>
+  <si>
+    <t>П'ятниця, 17 березня</t>
+  </si>
+  <si>
+    <t>Субота, 18 березня</t>
+  </si>
+  <si>
+    <t>Неділя, 19 березня</t>
+  </si>
+  <si>
+    <t>11-19.03</t>
+  </si>
+  <si>
+    <t>13-19.05</t>
+  </si>
+  <si>
+    <t>11-22.03 (10)</t>
+  </si>
+  <si>
+    <t>13-24.05 (10)</t>
+  </si>
+  <si>
+    <t>06.02-25.02 (20)</t>
+  </si>
+  <si>
+    <t>05-24.12 (20 днів)</t>
+  </si>
+  <si>
+    <t>04-17.03 (10)</t>
+  </si>
+  <si>
+    <t>11.03-19.03 (20 днів)</t>
+  </si>
+  <si>
+    <t>11.03-27.03 (15)</t>
+  </si>
+  <si>
+    <t>13.05-24.05(10)</t>
   </si>
 </sst>
 </file>
@@ -178,15 +220,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -376,11 +424,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,42 +509,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -586,6 +607,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -646,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -681,7 +756,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -866,13 +941,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT90"/>
+  <dimension ref="A1:BT92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="BD22" sqref="BD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,712 +1028,786 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="31" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="31" t="s">
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="31" t="s">
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="31" t="s">
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="32" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="33"/>
-    </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="60"/>
+      <c r="BN1" s="61"/>
+    </row>
+    <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="34" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="34" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="27" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="34" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="27" t="s">
+      <c r="T2" s="63"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29" t="s">
+      <c r="W2" s="63"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="34" t="s">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="27" t="s">
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29" t="s">
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="34" t="s">
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="27" t="s">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="34" t="s">
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="27" t="s">
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="29" t="s">
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="34" t="s">
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="63"/>
+      <c r="BD2" s="63"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="27" t="s">
+      <c r="BG2" s="63"/>
+      <c r="BH2" s="63"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="66"/>
+      <c r="BL2" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="28"/>
+      <c r="BM2" s="63"/>
+      <c r="BN2" s="68"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="29"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="29" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="27" t="s">
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="34" t="s">
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="27"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="27" t="s">
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="27" t="s">
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="27"/>
-      <c r="BN3" s="28"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="37"/>
-    </row>
-    <row r="4" spans="1:72" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="68"/>
+      <c r="BO3" s="65"/>
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65"/>
+      <c r="BR3" s="65"/>
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="65"/>
+    </row>
+    <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="63"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="63"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="63"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25"/>
+      <c r="BT4" s="25"/>
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="D5" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="63"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="63"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="67"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="68"/>
+      <c r="AZ5" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="66"/>
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="70"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM5" s="63"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="25"/>
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="25"/>
+      <c r="BR5" s="25"/>
+      <c r="BS5" s="25"/>
+      <c r="BT5" s="25"/>
+    </row>
+    <row r="6" spans="1:72" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Y6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="21" t="s">
+      <c r="Z6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AB4" s="24" t="s">
+      <c r="AB6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AC6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AD6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AE6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AF6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="22" t="s">
+      <c r="AG6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AH4" s="20" t="s">
+      <c r="AH6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AI6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AJ4" s="23" t="s">
+      <c r="AJ6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AK4" s="24" t="s">
+      <c r="AK6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="21" t="s">
+      <c r="AL6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AM4" s="23" t="s">
+      <c r="AM6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="21" t="s">
+      <c r="AN6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AO4" s="21" t="s">
+      <c r="AO6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="22" t="s">
+      <c r="AP6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="20" t="s">
+      <c r="AQ6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="21" t="s">
+      <c r="AR6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="23" t="s">
+      <c r="AS6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AT4" s="24" t="s">
+      <c r="AT6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AU4" s="21" t="s">
+      <c r="AU6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AV4" s="23" t="s">
+      <c r="AV6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AW4" s="21" t="s">
+      <c r="AW6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="21" t="s">
+      <c r="AX6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="22" t="s">
+      <c r="AY6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AZ4" s="20" t="s">
+      <c r="AZ6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="BA4" s="21" t="s">
+      <c r="BA6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="12" t="s">
+      <c r="BB6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BC4" s="21" t="s">
+      <c r="BC6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="BD4" s="21" t="s">
+      <c r="BD6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BE4" s="23" t="s">
+      <c r="BE6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="24" t="s">
+      <c r="BF6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="BG4" s="21" t="s">
+      <c r="BG6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BH4" s="12" t="s">
+      <c r="BH6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BI4" s="21" t="s">
+      <c r="BI6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="BJ4" s="21" t="s">
+      <c r="BJ6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="23" t="s">
+      <c r="BK6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BL4" s="2" t="s">
+      <c r="BL6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BM4" s="2" t="s">
+      <c r="BM6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BN4" s="11" t="s">
+      <c r="BN6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-    </row>
-    <row r="5" spans="1:72" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:72" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="63"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="55"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="67"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="60"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="67"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="58"/>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49"/>
-      <c r="BN5" s="51"/>
-    </row>
-    <row r="6" spans="1:72" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="23"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="43"/>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="68"/>
-      <c r="BI6" s="41"/>
-      <c r="BJ6" s="41"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="6"/>
-      <c r="BM6" s="6"/>
-      <c r="BN6" s="9"/>
-    </row>
-    <row r="7" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="23"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
-      <c r="BK7" s="42"/>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="9"/>
-    </row>
-    <row r="8" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="55"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="48"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="55"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="39"/>
+    </row>
+    <row r="8" spans="1:72" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="23"/>
       <c r="S8" s="24"/>
       <c r="T8" s="21"/>
@@ -1666,7 +1815,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
       <c r="X8" s="22"/>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="23"/>
       <c r="AB8" s="24"/>
@@ -1682,180 +1831,178 @@
       <c r="AL8" s="21"/>
       <c r="AM8" s="23"/>
       <c r="AN8" s="21"/>
-      <c r="AO8" s="6"/>
+      <c r="AO8" s="21"/>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="20"/>
       <c r="AR8" s="21"/>
       <c r="AS8" s="23"/>
-      <c r="AT8" s="24"/>
+      <c r="AT8" s="10"/>
       <c r="AU8" s="21"/>
       <c r="AV8" s="23"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
       <c r="AY8" s="22"/>
-      <c r="AZ8" s="40"/>
-      <c r="BA8" s="41"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="43"/>
-      <c r="BG8" s="41"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="41"/>
-      <c r="BJ8" s="41"/>
-      <c r="BK8" s="42"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29"/>
+      <c r="BE8" s="30"/>
+      <c r="BF8" s="31"/>
+      <c r="BG8" s="29"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="29"/>
+      <c r="BJ8" s="29"/>
+      <c r="BK8" s="30"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
       <c r="BN8" s="9"/>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
+    <row r="9" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="9"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="22"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="8"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="23"/>
       <c r="AT9" s="10"/>
-      <c r="AU9" s="6"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="13"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="6"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="8"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="56"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29"/>
+      <c r="BK9" s="30"/>
       <c r="BL9" s="6"/>
       <c r="BM9" s="6"/>
       <c r="BN9" s="9"/>
     </row>
-    <row r="10" spans="1:72" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="10" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="22"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="6"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="21"/>
       <c r="AO10" s="6"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="43"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="68"/>
-      <c r="BI10" s="41"/>
-      <c r="BJ10" s="41"/>
-      <c r="BK10" s="42"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="29"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29"/>
+      <c r="BE10" s="30"/>
+      <c r="BF10" s="31"/>
+      <c r="BG10" s="29"/>
+      <c r="BH10" s="56"/>
+      <c r="BI10" s="29"/>
+      <c r="BJ10" s="29"/>
+      <c r="BK10" s="30"/>
       <c r="BL10" s="6"/>
       <c r="BM10" s="6"/>
       <c r="BN10" s="9"/>
     </row>
-    <row r="11" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="8"/>
@@ -1910,23 +2057,25 @@
       <c r="BC11" s="6"/>
       <c r="BD11" s="6"/>
       <c r="BE11" s="8"/>
-      <c r="BF11" s="43"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="68"/>
-      <c r="BI11" s="41"/>
-      <c r="BJ11" s="41"/>
-      <c r="BK11" s="42"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="8"/>
       <c r="BL11" s="6"/>
       <c r="BM11" s="6"/>
       <c r="BN11" s="9"/>
     </row>
-    <row r="12" spans="1:72" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:72" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -1976,29 +2125,29 @@
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
       <c r="AY12" s="9"/>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="8"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="56"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="29"/>
+      <c r="BK12" s="30"/>
       <c r="BL12" s="6"/>
       <c r="BM12" s="6"/>
       <c r="BN12" s="9"/>
     </row>
-    <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -2018,7 +2167,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="6"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="21"/>
+      <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="7"/>
@@ -2048,25 +2197,29 @@
       <c r="AW13" s="6"/>
       <c r="AX13" s="6"/>
       <c r="AY13" s="9"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="10"/>
-      <c r="BG13" s="6"/>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="8"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="56"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="29"/>
+      <c r="BK13" s="30"/>
       <c r="BL13" s="6"/>
       <c r="BM13" s="6"/>
       <c r="BN13" s="9"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>37</v>
+    <row r="14" spans="1:72" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -2089,8 +2242,8 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="9"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="21"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="6"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="6"/>
@@ -2116,12 +2269,12 @@
       <c r="AW14" s="6"/>
       <c r="AX14" s="6"/>
       <c r="AY14" s="9"/>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="13"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="8"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="56"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="30"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="6"/>
       <c r="BH14" s="13"/>
@@ -2132,15 +2285,13 @@
       <c r="BM14" s="6"/>
       <c r="BN14" s="9"/>
     </row>
-    <row r="15" spans="1:72" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
@@ -2160,11 +2311,11 @@
       <c r="S15" s="10"/>
       <c r="T15" s="6"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="6"/>
+      <c r="V15" s="21"/>
       <c r="W15" s="6"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="21"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="6"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="6"/>
@@ -2190,12 +2341,12 @@
       <c r="AW15" s="6"/>
       <c r="AX15" s="6"/>
       <c r="AY15" s="9"/>
-      <c r="AZ15" s="7"/>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="13"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="8"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="29"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="29"/>
+      <c r="BE15" s="30"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="6"/>
       <c r="BH15" s="13"/>
@@ -2206,13 +2357,9 @@
       <c r="BM15" s="6"/>
       <c r="BN15" s="9"/>
     </row>
-    <row r="16" spans="1:72" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -2236,7 +2383,7 @@
       <c r="W16" s="6"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="20"/>
-      <c r="Z16" s="6"/>
+      <c r="Z16" s="21"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="6"/>
@@ -2278,13 +2425,15 @@
       <c r="BM16" s="6"/>
       <c r="BN16" s="9"/>
     </row>
-    <row r="17" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:66" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -2307,8 +2456,8 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="9"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="6"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="21"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="6"/>
@@ -2350,13 +2499,13 @@
       <c r="BM17" s="6"/>
       <c r="BN17" s="9"/>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -2379,7 +2528,7 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="20"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="10"/>
@@ -2422,9 +2571,13 @@
       <c r="BM18" s="6"/>
       <c r="BN18" s="9"/>
     </row>
-    <row r="19" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
@@ -2490,15 +2643,13 @@
       <c r="BM19" s="6"/>
       <c r="BN19" s="9"/>
     </row>
-    <row r="20" spans="1:66" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
@@ -2564,13 +2715,9 @@
       <c r="BM20" s="6"/>
       <c r="BN20" s="9"/>
     </row>
-    <row r="21" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="21" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
@@ -2636,13 +2783,15 @@
       <c r="BM21" s="6"/>
       <c r="BN21" s="9"/>
     </row>
-    <row r="22" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
@@ -2708,13 +2857,13 @@
       <c r="BM22" s="6"/>
       <c r="BN22" s="9"/>
     </row>
-    <row r="23" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
@@ -2753,7 +2902,7 @@
       <c r="AL23" s="6"/>
       <c r="AM23" s="8"/>
       <c r="AN23" s="6"/>
-      <c r="AO23" s="21"/>
+      <c r="AO23" s="6"/>
       <c r="AP23" s="9"/>
       <c r="AQ23" s="7"/>
       <c r="AR23" s="6"/>
@@ -2780,9 +2929,13 @@
       <c r="BM23" s="6"/>
       <c r="BN23" s="9"/>
     </row>
-    <row r="24" spans="1:66" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>37</v>
+    <row r="24" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
@@ -2848,15 +3001,13 @@
       <c r="BM24" s="6"/>
       <c r="BN24" s="9"/>
     </row>
-    <row r="25" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="25" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
@@ -2895,7 +3046,7 @@
       <c r="AL25" s="6"/>
       <c r="AM25" s="8"/>
       <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
+      <c r="AO25" s="21"/>
       <c r="AP25" s="9"/>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="6"/>
@@ -2922,13 +3073,9 @@
       <c r="BM25" s="6"/>
       <c r="BN25" s="9"/>
     </row>
-    <row r="26" spans="1:66" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>21</v>
+    <row r="26" spans="1:66" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
@@ -2994,13 +3141,15 @@
       <c r="BM26" s="6"/>
       <c r="BN26" s="9"/>
     </row>
-    <row r="27" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
@@ -3066,13 +3215,13 @@
       <c r="BM27" s="6"/>
       <c r="BN27" s="9"/>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
@@ -3138,13 +3287,20 @@
       <c r="BM28" s="6"/>
       <c r="BN28" s="9"/>
     </row>
-    <row r="29" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="52"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
+    <row r="29" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="10"/>
       <c r="K29" s="6"/>
       <c r="L29" s="8"/>
@@ -3203,15 +3359,13 @@
       <c r="BM29" s="6"/>
       <c r="BN29" s="9"/>
     </row>
-    <row r="30" spans="1:66" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
@@ -3277,20 +3431,13 @@
       <c r="BM30" s="6"/>
       <c r="BN30" s="9"/>
     </row>
-    <row r="31" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="8"/>
+    <row r="31" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="40"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="10"/>
       <c r="K31" s="6"/>
       <c r="L31" s="8"/>
@@ -3306,7 +3453,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="9"/>
-      <c r="Y31" s="20"/>
+      <c r="Y31" s="7"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="10"/>
@@ -3349,13 +3496,15 @@
       <c r="BM31" s="6"/>
       <c r="BN31" s="9"/>
     </row>
-    <row r="32" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
@@ -3421,13 +3570,13 @@
       <c r="BM32" s="6"/>
       <c r="BN32" s="9"/>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
@@ -3450,7 +3599,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="9"/>
-      <c r="Y33" s="7"/>
+      <c r="Y33" s="20"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="10"/>
@@ -3493,9 +3642,13 @@
       <c r="BM33" s="6"/>
       <c r="BN33" s="9"/>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
-        <v>36</v>
+    <row r="34" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
@@ -3561,15 +3714,13 @@
       <c r="BM34" s="6"/>
       <c r="BN34" s="9"/>
     </row>
-    <row r="35" spans="1:66" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
@@ -3635,13 +3786,9 @@
       <c r="BM35" s="6"/>
       <c r="BN35" s="9"/>
     </row>
-    <row r="36" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>21</v>
+    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
@@ -3707,13 +3854,15 @@
       <c r="BM36" s="6"/>
       <c r="BN36" s="9"/>
     </row>
-    <row r="37" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
@@ -3751,8 +3900,8 @@
       <c r="AK37" s="10"/>
       <c r="AL37" s="6"/>
       <c r="AM37" s="8"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
       <c r="AP37" s="9"/>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="6"/>
@@ -3779,13 +3928,13 @@
       <c r="BM37" s="6"/>
       <c r="BN37" s="9"/>
     </row>
-    <row r="38" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
@@ -3823,8 +3972,8 @@
       <c r="AK38" s="10"/>
       <c r="AL38" s="6"/>
       <c r="AM38" s="8"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="21"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
       <c r="AP38" s="9"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="6"/>
@@ -3851,7 +4000,14 @@
       <c r="BM38" s="6"/>
       <c r="BN38" s="9"/>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6"/>
       <c r="F39" s="8"/>
@@ -3888,8 +4044,8 @@
       <c r="AK39" s="10"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="8"/>
-      <c r="AN39" s="6"/>
-      <c r="AO39" s="6"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
       <c r="AP39" s="9"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="6"/>
@@ -3916,28 +4072,26 @@
       <c r="BM39" s="6"/>
       <c r="BN39" s="9"/>
     </row>
-    <row r="40" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="40" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="8"/>
@@ -3962,8 +4116,8 @@
       <c r="AK40" s="10"/>
       <c r="AL40" s="6"/>
       <c r="AM40" s="8"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
       <c r="AP40" s="9"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="6"/>
@@ -3980,36 +4134,29 @@
       <c r="BC40" s="6"/>
       <c r="BD40" s="6"/>
       <c r="BE40" s="8"/>
-      <c r="BF40" s="43"/>
-      <c r="BG40" s="41"/>
-      <c r="BH40" s="68"/>
-      <c r="BI40" s="41"/>
-      <c r="BJ40" s="41"/>
-      <c r="BK40" s="42"/>
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="13"/>
+      <c r="BI40" s="6"/>
+      <c r="BJ40" s="6"/>
+      <c r="BK40" s="8"/>
       <c r="BL40" s="6"/>
       <c r="BM40" s="6"/>
       <c r="BN40" s="9"/>
     </row>
-    <row r="41" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="44"/>
+    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="8"/>
@@ -4046,12 +4193,12 @@
       <c r="AW41" s="6"/>
       <c r="AX41" s="6"/>
       <c r="AY41" s="9"/>
-      <c r="AZ41" s="40"/>
-      <c r="BA41" s="41"/>
-      <c r="BB41" s="68"/>
-      <c r="BC41" s="41"/>
-      <c r="BD41" s="41"/>
-      <c r="BE41" s="42"/>
+      <c r="AZ41" s="7"/>
+      <c r="BA41" s="6"/>
+      <c r="BB41" s="13"/>
+      <c r="BC41" s="6"/>
+      <c r="BD41" s="6"/>
+      <c r="BE41" s="8"/>
       <c r="BF41" s="10"/>
       <c r="BG41" s="6"/>
       <c r="BH41" s="13"/>
@@ -4062,26 +4209,28 @@
       <c r="BM41" s="6"/>
       <c r="BN41" s="9"/>
     </row>
-    <row r="42" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="32"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="8"/>
@@ -4124,36 +4273,36 @@
       <c r="BC42" s="6"/>
       <c r="BD42" s="6"/>
       <c r="BE42" s="8"/>
-      <c r="BF42" s="43"/>
-      <c r="BG42" s="41"/>
-      <c r="BH42" s="68"/>
-      <c r="BI42" s="41"/>
-      <c r="BJ42" s="41"/>
-      <c r="BK42" s="42"/>
+      <c r="BF42" s="31"/>
+      <c r="BG42" s="29"/>
+      <c r="BH42" s="56"/>
+      <c r="BI42" s="29"/>
+      <c r="BJ42" s="29"/>
+      <c r="BK42" s="30"/>
       <c r="BL42" s="6"/>
       <c r="BM42" s="6"/>
       <c r="BN42" s="9"/>
     </row>
-    <row r="43" spans="1:66" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="32"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="8"/>
@@ -4190,23 +4339,30 @@
       <c r="AW43" s="6"/>
       <c r="AX43" s="6"/>
       <c r="AY43" s="9"/>
-      <c r="AZ43" s="7"/>
-      <c r="BA43" s="6"/>
-      <c r="BB43" s="13"/>
-      <c r="BC43" s="6"/>
-      <c r="BD43" s="6"/>
-      <c r="BE43" s="8"/>
-      <c r="BF43" s="43"/>
-      <c r="BG43" s="41"/>
-      <c r="BH43" s="68"/>
-      <c r="BI43" s="41"/>
-      <c r="BJ43" s="41"/>
-      <c r="BK43" s="42"/>
+      <c r="AZ43" s="28"/>
+      <c r="BA43" s="29"/>
+      <c r="BB43" s="56"/>
+      <c r="BC43" s="29"/>
+      <c r="BD43" s="29"/>
+      <c r="BE43" s="30"/>
+      <c r="BF43" s="10"/>
+      <c r="BG43" s="6"/>
+      <c r="BH43" s="13"/>
+      <c r="BI43" s="6"/>
+      <c r="BJ43" s="6"/>
+      <c r="BK43" s="8"/>
       <c r="BL43" s="6"/>
       <c r="BM43" s="6"/>
       <c r="BN43" s="9"/>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="6"/>
       <c r="F44" s="8"/>
@@ -4261,32 +4417,30 @@
       <c r="BC44" s="6"/>
       <c r="BD44" s="6"/>
       <c r="BE44" s="8"/>
-      <c r="BF44" s="10"/>
-      <c r="BG44" s="6"/>
-      <c r="BH44" s="13"/>
-      <c r="BI44" s="6"/>
-      <c r="BJ44" s="6"/>
-      <c r="BK44" s="8"/>
+      <c r="BF44" s="31"/>
+      <c r="BG44" s="29"/>
+      <c r="BH44" s="56"/>
+      <c r="BI44" s="29"/>
+      <c r="BJ44" s="29"/>
+      <c r="BK44" s="30"/>
       <c r="BL44" s="6"/>
       <c r="BM44" s="6"/>
       <c r="BN44" s="9"/>
     </row>
-    <row r="45" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="45" spans="1:66" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="46"/>
+        <v>7</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="10"/>
       <c r="K45" s="6"/>
       <c r="L45" s="8"/>
@@ -4335,30 +4489,23 @@
       <c r="BC45" s="6"/>
       <c r="BD45" s="6"/>
       <c r="BE45" s="8"/>
-      <c r="BF45" s="10"/>
-      <c r="BG45" s="6"/>
-      <c r="BH45" s="13"/>
-      <c r="BI45" s="6"/>
-      <c r="BJ45" s="6"/>
-      <c r="BK45" s="8"/>
+      <c r="BF45" s="31"/>
+      <c r="BG45" s="29"/>
+      <c r="BH45" s="56"/>
+      <c r="BI45" s="29"/>
+      <c r="BJ45" s="29"/>
+      <c r="BK45" s="30"/>
       <c r="BL45" s="6"/>
       <c r="BM45" s="6"/>
       <c r="BN45" s="9"/>
     </row>
-    <row r="46" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="46"/>
+    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="10"/>
       <c r="K46" s="6"/>
       <c r="L46" s="8"/>
@@ -4401,12 +4548,12 @@
       <c r="AW46" s="6"/>
       <c r="AX46" s="6"/>
       <c r="AY46" s="9"/>
-      <c r="AZ46" s="40"/>
-      <c r="BA46" s="41"/>
-      <c r="BB46" s="68"/>
-      <c r="BC46" s="41"/>
-      <c r="BD46" s="41"/>
-      <c r="BE46" s="42"/>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="6"/>
+      <c r="BB46" s="13"/>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="8"/>
       <c r="BF46" s="10"/>
       <c r="BG46" s="6"/>
       <c r="BH46" s="13"/>
@@ -4417,20 +4564,22 @@
       <c r="BM46" s="6"/>
       <c r="BN46" s="9"/>
     </row>
-    <row r="47" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B47" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
+        <v>5</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
       <c r="J47" s="10"/>
       <c r="K47" s="6"/>
       <c r="L47" s="8"/>
@@ -4489,227 +4638,235 @@
       <c r="BM47" s="6"/>
       <c r="BN47" s="9"/>
     </row>
-    <row r="48" spans="1:66" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="65"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="16"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="16"/>
-      <c r="AF48" s="16"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="16"/>
-      <c r="AJ48" s="17"/>
-      <c r="AK48" s="65"/>
-      <c r="AL48" s="16"/>
-      <c r="AM48" s="17"/>
-      <c r="AN48" s="16"/>
-      <c r="AO48" s="16"/>
-      <c r="AP48" s="18"/>
-      <c r="AQ48" s="15"/>
-      <c r="AR48" s="16"/>
-      <c r="AS48" s="17"/>
-      <c r="AT48" s="65"/>
-      <c r="AU48" s="16"/>
-      <c r="AV48" s="17"/>
-      <c r="AW48" s="16"/>
-      <c r="AX48" s="16"/>
-      <c r="AY48" s="18"/>
-      <c r="AZ48" s="15"/>
-      <c r="BA48" s="16"/>
-      <c r="BB48" s="19"/>
-      <c r="BC48" s="16"/>
-      <c r="BD48" s="16"/>
-      <c r="BE48" s="17"/>
-      <c r="BF48" s="65"/>
-      <c r="BG48" s="16"/>
-      <c r="BH48" s="19"/>
-      <c r="BI48" s="16"/>
-      <c r="BJ48" s="16"/>
-      <c r="BK48" s="17"/>
-      <c r="BL48" s="16"/>
-      <c r="BM48" s="16"/>
-      <c r="BN48" s="18"/>
-    </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="8"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="6"/>
+      <c r="AV48" s="8"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="9"/>
+      <c r="AZ48" s="28"/>
+      <c r="BA48" s="29"/>
+      <c r="BB48" s="56"/>
+      <c r="BC48" s="29"/>
+      <c r="BD48" s="29"/>
+      <c r="BE48" s="30"/>
+      <c r="BF48" s="10"/>
+      <c r="BG48" s="6"/>
+      <c r="BH48" s="13"/>
+      <c r="BI48" s="6"/>
+      <c r="BJ48" s="6"/>
+      <c r="BK48" s="8"/>
+      <c r="BL48" s="6"/>
+      <c r="BM48" s="6"/>
+      <c r="BN48" s="9"/>
+    </row>
+    <row r="49" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="L49" s="8"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="7"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="10"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
+      <c r="U49" s="8"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="7"/>
       <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="10"/>
       <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
+      <c r="AD49" s="8"/>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="7"/>
       <c r="AI49" s="6"/>
-      <c r="AJ49" s="6"/>
-      <c r="AK49" s="6"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="10"/>
       <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
+      <c r="AM49" s="8"/>
       <c r="AN49" s="6"/>
       <c r="AO49" s="6"/>
-      <c r="AP49" s="6"/>
-      <c r="AQ49" s="6"/>
+      <c r="AP49" s="9"/>
+      <c r="AQ49" s="7"/>
       <c r="AR49" s="6"/>
-      <c r="AS49" s="6"/>
-      <c r="AT49" s="6"/>
+      <c r="AS49" s="8"/>
+      <c r="AT49" s="10"/>
       <c r="AU49" s="6"/>
-      <c r="AV49" s="6"/>
+      <c r="AV49" s="8"/>
       <c r="AW49" s="6"/>
       <c r="AX49" s="6"/>
-      <c r="AY49" s="6"/>
-      <c r="AZ49" s="6"/>
+      <c r="AY49" s="9"/>
+      <c r="AZ49" s="7"/>
       <c r="BA49" s="6"/>
-      <c r="BB49" s="6"/>
+      <c r="BB49" s="13"/>
       <c r="BC49" s="6"/>
       <c r="BD49" s="6"/>
-      <c r="BE49" s="6"/>
-      <c r="BF49" s="6"/>
+      <c r="BE49" s="8"/>
+      <c r="BF49" s="10"/>
       <c r="BG49" s="6"/>
-      <c r="BH49" s="6"/>
+      <c r="BH49" s="13"/>
       <c r="BI49" s="6"/>
       <c r="BJ49" s="6"/>
-      <c r="BK49" s="6"/>
+      <c r="BK49" s="8"/>
       <c r="BL49" s="6"/>
       <c r="BM49" s="6"/>
-      <c r="BN49" s="6"/>
-    </row>
-    <row r="50" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6"/>
-      <c r="AO50" s="6"/>
-      <c r="AP50" s="6"/>
-      <c r="AQ50" s="6"/>
-      <c r="AR50" s="6"/>
-      <c r="AS50" s="6"/>
-      <c r="AT50" s="6"/>
-      <c r="AU50" s="6"/>
-      <c r="AV50" s="6"/>
-      <c r="AW50" s="6"/>
-      <c r="AX50" s="6"/>
-      <c r="AY50" s="6"/>
-      <c r="AZ50" s="25"/>
-      <c r="BA50" s="25"/>
-      <c r="BB50" s="25"/>
-      <c r="BC50" s="25"/>
-      <c r="BD50" s="25"/>
-      <c r="BE50" s="25"/>
-      <c r="BF50" s="25"/>
-      <c r="BG50" s="25"/>
-      <c r="BH50" s="25"/>
-      <c r="BI50" s="25"/>
-      <c r="BJ50" s="25"/>
-      <c r="BK50" s="25"/>
-      <c r="BL50" s="6"/>
-      <c r="BM50" s="6"/>
-      <c r="BN50" s="6"/>
-    </row>
-    <row r="51" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="BN49" s="9"/>
+    </row>
+    <row r="50" spans="1:66" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="16"/>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="53"/>
+      <c r="AL50" s="16"/>
+      <c r="AM50" s="17"/>
+      <c r="AN50" s="16"/>
+      <c r="AO50" s="16"/>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="15"/>
+      <c r="AR50" s="16"/>
+      <c r="AS50" s="17"/>
+      <c r="AT50" s="53"/>
+      <c r="AU50" s="16"/>
+      <c r="AV50" s="17"/>
+      <c r="AW50" s="16"/>
+      <c r="AX50" s="16"/>
+      <c r="AY50" s="18"/>
+      <c r="AZ50" s="15"/>
+      <c r="BA50" s="16"/>
+      <c r="BB50" s="19"/>
+      <c r="BC50" s="16"/>
+      <c r="BD50" s="16"/>
+      <c r="BE50" s="17"/>
+      <c r="BF50" s="53"/>
+      <c r="BG50" s="16"/>
+      <c r="BH50" s="19"/>
+      <c r="BI50" s="16"/>
+      <c r="BJ50" s="16"/>
+      <c r="BK50" s="17"/>
+      <c r="BL50" s="16"/>
+      <c r="BM50" s="16"/>
+      <c r="BN50" s="18"/>
+    </row>
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -4728,18 +4885,18 @@
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="21"/>
+      <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
-      <c r="AK51" s="25"/>
-      <c r="AL51" s="25"/>
-      <c r="AM51" s="25"/>
-      <c r="AN51" s="25"/>
-      <c r="AO51" s="25"/>
-      <c r="AP51" s="25"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="6"/>
+      <c r="AO51" s="6"/>
+      <c r="AP51" s="6"/>
       <c r="AQ51" s="6"/>
       <c r="AR51" s="6"/>
       <c r="AS51" s="6"/>
@@ -4755,37 +4912,37 @@
       <c r="BC51" s="6"/>
       <c r="BD51" s="6"/>
       <c r="BE51" s="6"/>
-      <c r="BF51" s="25"/>
-      <c r="BG51" s="25"/>
-      <c r="BH51" s="25"/>
-      <c r="BI51" s="25"/>
-      <c r="BJ51" s="25"/>
-      <c r="BK51" s="25"/>
+      <c r="BF51" s="6"/>
+      <c r="BG51" s="6"/>
+      <c r="BH51" s="6"/>
+      <c r="BI51" s="6"/>
+      <c r="BJ51" s="6"/>
+      <c r="BK51" s="6"/>
       <c r="BL51" s="6"/>
       <c r="BM51" s="6"/>
       <c r="BN51" s="6"/>
     </row>
-    <row r="52" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
@@ -4817,35 +4974,35 @@
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
       <c r="AY52" s="6"/>
-      <c r="AZ52" s="6"/>
-      <c r="BA52" s="6"/>
-      <c r="BB52" s="6"/>
-      <c r="BC52" s="6"/>
-      <c r="BD52" s="6"/>
-      <c r="BE52" s="6"/>
-      <c r="BF52" s="25"/>
-      <c r="BG52" s="25"/>
-      <c r="BH52" s="25"/>
-      <c r="BI52" s="25"/>
-      <c r="BJ52" s="25"/>
-      <c r="BK52" s="25"/>
+      <c r="AZ52" s="58"/>
+      <c r="BA52" s="58"/>
+      <c r="BB52" s="58"/>
+      <c r="BC52" s="58"/>
+      <c r="BD52" s="58"/>
+      <c r="BE52" s="58"/>
+      <c r="BF52" s="58"/>
+      <c r="BG52" s="58"/>
+      <c r="BH52" s="58"/>
+      <c r="BI52" s="58"/>
+      <c r="BJ52" s="58"/>
+      <c r="BK52" s="58"/>
       <c r="BL52" s="6"/>
       <c r="BM52" s="6"/>
       <c r="BN52" s="6"/>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -4864,18 +5021,18 @@
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
+      <c r="AE53" s="21"/>
       <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
-      <c r="AL53" s="6"/>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="6"/>
-      <c r="AO53" s="6"/>
-      <c r="AP53" s="6"/>
+      <c r="AK53" s="58"/>
+      <c r="AL53" s="58"/>
+      <c r="AM53" s="58"/>
+      <c r="AN53" s="58"/>
+      <c r="AO53" s="58"/>
+      <c r="AP53" s="58"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
@@ -4891,29 +5048,29 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="25"/>
-      <c r="BG53" s="25"/>
-      <c r="BH53" s="25"/>
-      <c r="BI53" s="25"/>
-      <c r="BJ53" s="25"/>
-      <c r="BK53" s="25"/>
+      <c r="BF53" s="58"/>
+      <c r="BG53" s="58"/>
+      <c r="BH53" s="58"/>
+      <c r="BI53" s="58"/>
+      <c r="BJ53" s="58"/>
+      <c r="BK53" s="58"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+    <row r="54" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -4959,29 +5116,29 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="6"/>
-      <c r="BG54" s="6"/>
-      <c r="BH54" s="6"/>
-      <c r="BI54" s="6"/>
-      <c r="BJ54" s="6"/>
-      <c r="BK54" s="6"/>
+      <c r="BF54" s="58"/>
+      <c r="BG54" s="58"/>
+      <c r="BH54" s="58"/>
+      <c r="BI54" s="58"/>
+      <c r="BJ54" s="58"/>
+      <c r="BK54" s="58"/>
       <c r="BL54" s="6"/>
       <c r="BM54" s="6"/>
       <c r="BN54" s="6"/>
     </row>
-    <row r="55" spans="1:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
@@ -5027,29 +5184,29 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="6"/>
-      <c r="BG55" s="6"/>
-      <c r="BH55" s="6"/>
-      <c r="BI55" s="6"/>
-      <c r="BJ55" s="6"/>
-      <c r="BK55" s="6"/>
+      <c r="BF55" s="58"/>
+      <c r="BG55" s="58"/>
+      <c r="BH55" s="58"/>
+      <c r="BI55" s="58"/>
+      <c r="BJ55" s="58"/>
+      <c r="BK55" s="58"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
     </row>
-    <row r="56" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
+    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -5089,12 +5246,12 @@
       <c r="AW56" s="6"/>
       <c r="AX56" s="6"/>
       <c r="AY56" s="6"/>
-      <c r="AZ56" s="25"/>
-      <c r="BA56" s="25"/>
-      <c r="BB56" s="25"/>
-      <c r="BC56" s="25"/>
-      <c r="BD56" s="25"/>
-      <c r="BE56" s="25"/>
+      <c r="AZ56" s="6"/>
+      <c r="BA56" s="6"/>
+      <c r="BB56" s="6"/>
+      <c r="BC56" s="6"/>
+      <c r="BD56" s="6"/>
+      <c r="BE56" s="6"/>
       <c r="BF56" s="6"/>
       <c r="BG56" s="6"/>
       <c r="BH56" s="6"/>
@@ -5105,19 +5262,19 @@
       <c r="BM56" s="6"/>
       <c r="BN56" s="6"/>
     </row>
-    <row r="57" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -5157,32 +5314,32 @@
       <c r="AW57" s="6"/>
       <c r="AX57" s="6"/>
       <c r="AY57" s="6"/>
-      <c r="AZ57" s="25"/>
-      <c r="BA57" s="25"/>
-      <c r="BB57" s="25"/>
-      <c r="BC57" s="25"/>
-      <c r="BD57" s="25"/>
-      <c r="BE57" s="25"/>
-      <c r="BF57" s="25"/>
-      <c r="BG57" s="25"/>
-      <c r="BH57" s="25"/>
-      <c r="BI57" s="25"/>
-      <c r="BJ57" s="25"/>
-      <c r="BK57" s="25"/>
+      <c r="AZ57" s="6"/>
+      <c r="BA57" s="6"/>
+      <c r="BB57" s="6"/>
+      <c r="BC57" s="6"/>
+      <c r="BD57" s="6"/>
+      <c r="BE57" s="6"/>
+      <c r="BF57" s="6"/>
+      <c r="BG57" s="6"/>
+      <c r="BH57" s="6"/>
+      <c r="BI57" s="6"/>
+      <c r="BJ57" s="6"/>
+      <c r="BK57" s="6"/>
       <c r="BL57" s="6"/>
       <c r="BM57" s="6"/>
       <c r="BN57" s="6"/>
     </row>
-    <row r="58" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -5225,32 +5382,32 @@
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="6"/>
-      <c r="BA58" s="6"/>
-      <c r="BB58" s="6"/>
-      <c r="BC58" s="6"/>
-      <c r="BD58" s="6"/>
-      <c r="BE58" s="6"/>
-      <c r="BF58" s="25"/>
-      <c r="BG58" s="25"/>
-      <c r="BH58" s="25"/>
-      <c r="BI58" s="25"/>
-      <c r="BJ58" s="25"/>
-      <c r="BK58" s="25"/>
+      <c r="AZ58" s="58"/>
+      <c r="BA58" s="58"/>
+      <c r="BB58" s="58"/>
+      <c r="BC58" s="58"/>
+      <c r="BD58" s="58"/>
+      <c r="BE58" s="58"/>
+      <c r="BF58" s="6"/>
+      <c r="BG58" s="6"/>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="6"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="6"/>
       <c r="BL58" s="6"/>
       <c r="BM58" s="6"/>
       <c r="BN58" s="6"/>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+    <row r="59" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -5293,35 +5450,35 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
-      <c r="AZ59" s="6"/>
-      <c r="BA59" s="6"/>
-      <c r="BB59" s="6"/>
-      <c r="BC59" s="6"/>
-      <c r="BD59" s="6"/>
-      <c r="BE59" s="6"/>
-      <c r="BF59" s="6"/>
-      <c r="BG59" s="6"/>
-      <c r="BH59" s="6"/>
-      <c r="BI59" s="6"/>
-      <c r="BJ59" s="6"/>
-      <c r="BK59" s="6"/>
+      <c r="AZ59" s="58"/>
+      <c r="BA59" s="58"/>
+      <c r="BB59" s="58"/>
+      <c r="BC59" s="58"/>
+      <c r="BD59" s="58"/>
+      <c r="BE59" s="58"/>
+      <c r="BF59" s="58"/>
+      <c r="BG59" s="58"/>
+      <c r="BH59" s="58"/>
+      <c r="BI59" s="58"/>
+      <c r="BJ59" s="58"/>
+      <c r="BK59" s="58"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
       <c r="BN59" s="6"/>
     </row>
-    <row r="60" spans="1:66" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
@@ -5367,29 +5524,29 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="25"/>
-      <c r="BG60" s="25"/>
-      <c r="BH60" s="25"/>
-      <c r="BI60" s="25"/>
-      <c r="BJ60" s="25"/>
-      <c r="BK60" s="25"/>
+      <c r="BF60" s="58"/>
+      <c r="BG60" s="58"/>
+      <c r="BH60" s="58"/>
+      <c r="BI60" s="58"/>
+      <c r="BJ60" s="58"/>
+      <c r="BK60" s="58"/>
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
     </row>
-    <row r="61" spans="1:66" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
+    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="21"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
@@ -5435,29 +5592,29 @@
       <c r="BC61" s="6"/>
       <c r="BD61" s="6"/>
       <c r="BE61" s="6"/>
-      <c r="BF61" s="25"/>
-      <c r="BG61" s="25"/>
-      <c r="BH61" s="25"/>
-      <c r="BI61" s="25"/>
-      <c r="BJ61" s="25"/>
-      <c r="BK61" s="25"/>
+      <c r="BF61" s="6"/>
+      <c r="BG61" s="6"/>
+      <c r="BH61" s="6"/>
+      <c r="BI61" s="6"/>
+      <c r="BJ61" s="6"/>
+      <c r="BK61" s="6"/>
       <c r="BL61" s="6"/>
       <c r="BM61" s="6"/>
       <c r="BN61" s="6"/>
     </row>
-    <row r="62" spans="1:66" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -5503,29 +5660,29 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="25"/>
-      <c r="BG62" s="25"/>
-      <c r="BH62" s="25"/>
-      <c r="BI62" s="25"/>
-      <c r="BJ62" s="25"/>
-      <c r="BK62" s="25"/>
+      <c r="BF62" s="58"/>
+      <c r="BG62" s="58"/>
+      <c r="BH62" s="58"/>
+      <c r="BI62" s="58"/>
+      <c r="BJ62" s="58"/>
+      <c r="BK62" s="58"/>
       <c r="BL62" s="6"/>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
     </row>
-    <row r="63" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -5571,26 +5728,26 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="25"/>
-      <c r="BG63" s="25"/>
-      <c r="BH63" s="25"/>
-      <c r="BI63" s="25"/>
-      <c r="BJ63" s="25"/>
-      <c r="BK63" s="25"/>
+      <c r="BF63" s="58"/>
+      <c r="BG63" s="58"/>
+      <c r="BH63" s="58"/>
+      <c r="BI63" s="58"/>
+      <c r="BJ63" s="58"/>
+      <c r="BK63" s="58"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+    <row r="64" spans="1:66" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -5639,26 +5796,26 @@
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="6"/>
-      <c r="BG64" s="6"/>
-      <c r="BH64" s="6"/>
-      <c r="BI64" s="6"/>
-      <c r="BJ64" s="6"/>
-      <c r="BK64" s="6"/>
+      <c r="BF64" s="58"/>
+      <c r="BG64" s="58"/>
+      <c r="BH64" s="58"/>
+      <c r="BI64" s="58"/>
+      <c r="BJ64" s="58"/>
+      <c r="BK64" s="58"/>
       <c r="BL64" s="6"/>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
     </row>
-    <row r="65" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -5701,35 +5858,35 @@
       <c r="AW65" s="6"/>
       <c r="AX65" s="6"/>
       <c r="AY65" s="6"/>
-      <c r="AZ65" s="25"/>
-      <c r="BA65" s="25"/>
-      <c r="BB65" s="25"/>
-      <c r="BC65" s="25"/>
-      <c r="BD65" s="25"/>
-      <c r="BE65" s="25"/>
-      <c r="BF65" s="6"/>
-      <c r="BG65" s="6"/>
-      <c r="BH65" s="6"/>
-      <c r="BI65" s="6"/>
-      <c r="BJ65" s="6"/>
-      <c r="BK65" s="6"/>
+      <c r="AZ65" s="6"/>
+      <c r="BA65" s="6"/>
+      <c r="BB65" s="6"/>
+      <c r="BC65" s="6"/>
+      <c r="BD65" s="6"/>
+      <c r="BE65" s="6"/>
+      <c r="BF65" s="58"/>
+      <c r="BG65" s="58"/>
+      <c r="BH65" s="58"/>
+      <c r="BI65" s="58"/>
+      <c r="BJ65" s="58"/>
+      <c r="BK65" s="58"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
     </row>
-    <row r="66" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="21"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
@@ -5785,19 +5942,19 @@
       <c r="BM66" s="6"/>
       <c r="BN66" s="6"/>
     </row>
-    <row r="67" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
@@ -5837,35 +5994,35 @@
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
       <c r="AY67" s="6"/>
-      <c r="AZ67" s="6"/>
-      <c r="BA67" s="6"/>
-      <c r="BB67" s="6"/>
-      <c r="BC67" s="6"/>
-      <c r="BD67" s="6"/>
-      <c r="BE67" s="6"/>
-      <c r="BF67" s="26"/>
-      <c r="BG67" s="26"/>
-      <c r="BH67" s="26"/>
-      <c r="BI67" s="26"/>
-      <c r="BJ67" s="26"/>
-      <c r="BK67" s="26"/>
+      <c r="AZ67" s="58"/>
+      <c r="BA67" s="58"/>
+      <c r="BB67" s="58"/>
+      <c r="BC67" s="58"/>
+      <c r="BD67" s="58"/>
+      <c r="BE67" s="58"/>
+      <c r="BF67" s="6"/>
+      <c r="BG67" s="6"/>
+      <c r="BH67" s="6"/>
+      <c r="BI67" s="6"/>
+      <c r="BJ67" s="6"/>
+      <c r="BK67" s="6"/>
       <c r="BL67" s="6"/>
       <c r="BM67" s="6"/>
       <c r="BN67" s="6"/>
     </row>
-    <row r="68" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="58"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -5921,19 +6078,19 @@
       <c r="BM68" s="6"/>
       <c r="BN68" s="6"/>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+    <row r="69" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -5973,32 +6130,32 @@
       <c r="AW69" s="6"/>
       <c r="AX69" s="6"/>
       <c r="AY69" s="6"/>
-      <c r="AZ69" s="26"/>
-      <c r="BA69" s="26"/>
-      <c r="BB69" s="26"/>
-      <c r="BC69" s="26"/>
-      <c r="BD69" s="26"/>
-      <c r="BE69" s="26"/>
-      <c r="BF69" s="6"/>
-      <c r="BG69" s="6"/>
-      <c r="BH69" s="6"/>
-      <c r="BI69" s="6"/>
-      <c r="BJ69" s="6"/>
-      <c r="BK69" s="6"/>
+      <c r="AZ69" s="6"/>
+      <c r="BA69" s="6"/>
+      <c r="BB69" s="6"/>
+      <c r="BC69" s="6"/>
+      <c r="BD69" s="6"/>
+      <c r="BE69" s="6"/>
+      <c r="BF69" s="69"/>
+      <c r="BG69" s="69"/>
+      <c r="BH69" s="69"/>
+      <c r="BI69" s="69"/>
+      <c r="BJ69" s="69"/>
+      <c r="BK69" s="69"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
     </row>
-    <row r="70" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -6057,16 +6214,16 @@
       <c r="BM70" s="6"/>
       <c r="BN70" s="6"/>
     </row>
-    <row r="71" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
+    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -6076,7 +6233,7 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
-      <c r="S71" s="21"/>
+      <c r="S71" s="6"/>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
@@ -6109,32 +6266,32 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="6"/>
-      <c r="AZ71" s="6"/>
-      <c r="BA71" s="6"/>
-      <c r="BB71" s="6"/>
-      <c r="BC71" s="6"/>
-      <c r="BD71" s="6"/>
-      <c r="BE71" s="6"/>
-      <c r="BF71" s="25"/>
-      <c r="BG71" s="25"/>
-      <c r="BH71" s="25"/>
-      <c r="BI71" s="25"/>
-      <c r="BJ71" s="25"/>
-      <c r="BK71" s="25"/>
+      <c r="AZ71" s="69"/>
+      <c r="BA71" s="69"/>
+      <c r="BB71" s="69"/>
+      <c r="BC71" s="69"/>
+      <c r="BD71" s="69"/>
+      <c r="BE71" s="69"/>
+      <c r="BF71" s="6"/>
+      <c r="BG71" s="6"/>
+      <c r="BH71" s="6"/>
+      <c r="BI71" s="6"/>
+      <c r="BJ71" s="6"/>
+      <c r="BK71" s="6"/>
       <c r="BL71" s="6"/>
       <c r="BM71" s="6"/>
       <c r="BN71" s="6"/>
     </row>
-    <row r="72" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -6183,12 +6340,12 @@
       <c r="BC72" s="6"/>
       <c r="BD72" s="6"/>
       <c r="BE72" s="6"/>
-      <c r="BF72" s="25"/>
-      <c r="BG72" s="25"/>
-      <c r="BH72" s="25"/>
-      <c r="BI72" s="25"/>
-      <c r="BJ72" s="25"/>
-      <c r="BK72" s="25"/>
+      <c r="BF72" s="6"/>
+      <c r="BG72" s="6"/>
+      <c r="BH72" s="6"/>
+      <c r="BI72" s="6"/>
+      <c r="BJ72" s="6"/>
+      <c r="BK72" s="6"/>
       <c r="BL72" s="6"/>
       <c r="BM72" s="6"/>
       <c r="BN72" s="6"/>
@@ -6197,12 +6354,12 @@
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -6212,7 +6369,7 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
+      <c r="S73" s="21"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
@@ -6251,26 +6408,26 @@
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
       <c r="BE73" s="6"/>
-      <c r="BF73" s="25"/>
-      <c r="BG73" s="25"/>
-      <c r="BH73" s="25"/>
-      <c r="BI73" s="25"/>
-      <c r="BJ73" s="25"/>
-      <c r="BK73" s="25"/>
+      <c r="BF73" s="58"/>
+      <c r="BG73" s="58"/>
+      <c r="BH73" s="58"/>
+      <c r="BI73" s="58"/>
+      <c r="BJ73" s="58"/>
+      <c r="BK73" s="58"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
       <c r="BN73" s="6"/>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+    <row r="74" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -6319,26 +6476,26 @@
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
       <c r="BE74" s="6"/>
-      <c r="BF74" s="6"/>
-      <c r="BG74" s="6"/>
-      <c r="BH74" s="6"/>
-      <c r="BI74" s="6"/>
-      <c r="BJ74" s="6"/>
-      <c r="BK74" s="6"/>
+      <c r="BF74" s="58"/>
+      <c r="BG74" s="58"/>
+      <c r="BH74" s="58"/>
+      <c r="BI74" s="58"/>
+      <c r="BJ74" s="58"/>
+      <c r="BK74" s="58"/>
       <c r="BL74" s="6"/>
       <c r="BM74" s="6"/>
       <c r="BN74" s="6"/>
     </row>
-    <row r="75" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -6387,26 +6544,26 @@
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
       <c r="BE75" s="6"/>
-      <c r="BF75" s="25"/>
-      <c r="BG75" s="25"/>
-      <c r="BH75" s="25"/>
-      <c r="BI75" s="25"/>
-      <c r="BJ75" s="25"/>
-      <c r="BK75" s="25"/>
+      <c r="BF75" s="58"/>
+      <c r="BG75" s="58"/>
+      <c r="BH75" s="58"/>
+      <c r="BI75" s="58"/>
+      <c r="BJ75" s="58"/>
+      <c r="BK75" s="58"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
       <c r="BN75" s="6"/>
     </row>
-    <row r="76" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
@@ -6455,26 +6612,26 @@
       <c r="BC76" s="6"/>
       <c r="BD76" s="6"/>
       <c r="BE76" s="6"/>
-      <c r="BF76" s="25"/>
-      <c r="BG76" s="25"/>
-      <c r="BH76" s="25"/>
-      <c r="BI76" s="25"/>
-      <c r="BJ76" s="25"/>
-      <c r="BK76" s="25"/>
+      <c r="BF76" s="6"/>
+      <c r="BG76" s="6"/>
+      <c r="BH76" s="6"/>
+      <c r="BI76" s="6"/>
+      <c r="BJ76" s="6"/>
+      <c r="BK76" s="6"/>
       <c r="BL76" s="6"/>
       <c r="BM76" s="6"/>
       <c r="BN76" s="6"/>
     </row>
-    <row r="77" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -6523,26 +6680,26 @@
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
       <c r="BE77" s="6"/>
-      <c r="BF77" s="25"/>
-      <c r="BG77" s="25"/>
-      <c r="BH77" s="25"/>
-      <c r="BI77" s="25"/>
-      <c r="BJ77" s="25"/>
-      <c r="BK77" s="25"/>
+      <c r="BF77" s="58"/>
+      <c r="BG77" s="58"/>
+      <c r="BH77" s="58"/>
+      <c r="BI77" s="58"/>
+      <c r="BJ77" s="58"/>
+      <c r="BK77" s="58"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
       <c r="BN77" s="6"/>
     </row>
-    <row r="78" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -6591,26 +6748,26 @@
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
       <c r="BE78" s="6"/>
-      <c r="BF78" s="6"/>
-      <c r="BG78" s="6"/>
-      <c r="BH78" s="6"/>
-      <c r="BI78" s="6"/>
-      <c r="BJ78" s="6"/>
-      <c r="BK78" s="6"/>
+      <c r="BF78" s="58"/>
+      <c r="BG78" s="58"/>
+      <c r="BH78" s="58"/>
+      <c r="BI78" s="58"/>
+      <c r="BJ78" s="58"/>
+      <c r="BK78" s="58"/>
       <c r="BL78" s="6"/>
       <c r="BM78" s="6"/>
       <c r="BN78" s="6"/>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+    <row r="79" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -6659,26 +6816,26 @@
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
       <c r="BE79" s="6"/>
-      <c r="BF79" s="6"/>
-      <c r="BG79" s="6"/>
-      <c r="BH79" s="6"/>
-      <c r="BI79" s="6"/>
-      <c r="BJ79" s="6"/>
-      <c r="BK79" s="6"/>
+      <c r="BF79" s="58"/>
+      <c r="BG79" s="58"/>
+      <c r="BH79" s="58"/>
+      <c r="BI79" s="58"/>
+      <c r="BJ79" s="58"/>
+      <c r="BK79" s="58"/>
       <c r="BL79" s="6"/>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
     </row>
-    <row r="80" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -6727,26 +6884,26 @@
       <c r="BC80" s="6"/>
       <c r="BD80" s="6"/>
       <c r="BE80" s="6"/>
-      <c r="BF80" s="25"/>
-      <c r="BG80" s="25"/>
-      <c r="BH80" s="25"/>
-      <c r="BI80" s="25"/>
-      <c r="BJ80" s="25"/>
-      <c r="BK80" s="25"/>
+      <c r="BF80" s="6"/>
+      <c r="BG80" s="6"/>
+      <c r="BH80" s="6"/>
+      <c r="BI80" s="6"/>
+      <c r="BJ80" s="6"/>
+      <c r="BK80" s="6"/>
       <c r="BL80" s="6"/>
       <c r="BM80" s="6"/>
       <c r="BN80" s="6"/>
     </row>
-    <row r="81" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
+    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
@@ -6805,16 +6962,16 @@
       <c r="BM81" s="6"/>
       <c r="BN81" s="6"/>
     </row>
-    <row r="82" spans="1:66" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -6863,26 +7020,26 @@
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
       <c r="BE82" s="6"/>
-      <c r="BF82" s="6"/>
-      <c r="BG82" s="6"/>
-      <c r="BH82" s="6"/>
-      <c r="BI82" s="6"/>
-      <c r="BJ82" s="6"/>
-      <c r="BK82" s="6"/>
+      <c r="BF82" s="58"/>
+      <c r="BG82" s="58"/>
+      <c r="BH82" s="58"/>
+      <c r="BI82" s="58"/>
+      <c r="BJ82" s="58"/>
+      <c r="BK82" s="58"/>
       <c r="BL82" s="6"/>
       <c r="BM82" s="6"/>
       <c r="BN82" s="6"/>
     </row>
-    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -6931,26 +7088,26 @@
       <c r="BC83" s="6"/>
       <c r="BD83" s="6"/>
       <c r="BE83" s="6"/>
-      <c r="BF83" s="25"/>
-      <c r="BG83" s="25"/>
-      <c r="BH83" s="25"/>
-      <c r="BI83" s="25"/>
-      <c r="BJ83" s="25"/>
-      <c r="BK83" s="25"/>
+      <c r="BF83" s="6"/>
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BI83" s="6"/>
+      <c r="BJ83" s="6"/>
+      <c r="BK83" s="6"/>
       <c r="BL83" s="6"/>
       <c r="BM83" s="6"/>
       <c r="BN83" s="6"/>
     </row>
-    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+    <row r="84" spans="1:66" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -7013,12 +7170,12 @@
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -7067,20 +7224,20 @@
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
       <c r="BE85" s="6"/>
-      <c r="BF85" s="6"/>
-      <c r="BG85" s="6"/>
-      <c r="BH85" s="6"/>
-      <c r="BI85" s="6"/>
-      <c r="BJ85" s="6"/>
-      <c r="BK85" s="6"/>
+      <c r="BF85" s="58"/>
+      <c r="BG85" s="58"/>
+      <c r="BH85" s="58"/>
+      <c r="BI85" s="58"/>
+      <c r="BJ85" s="58"/>
+      <c r="BK85" s="58"/>
       <c r="BL85" s="6"/>
       <c r="BM85" s="6"/>
       <c r="BN85" s="6"/>
     </row>
     <row r="86" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -7282,9 +7439,9 @@
       <c r="BN88" s="6"/>
     </row>
     <row r="89" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -7350,38 +7507,215 @@
       <c r="BN89" s="6"/>
     </row>
     <row r="90" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="AB90" s="4"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+      <c r="AN90" s="6"/>
+      <c r="AO90" s="6"/>
+      <c r="AP90" s="6"/>
+      <c r="AQ90" s="6"/>
+      <c r="AR90" s="6"/>
+      <c r="AS90" s="6"/>
+      <c r="AT90" s="6"/>
+      <c r="AU90" s="6"/>
+      <c r="AV90" s="6"/>
+      <c r="AW90" s="6"/>
+      <c r="AX90" s="6"/>
+      <c r="AY90" s="6"/>
+      <c r="AZ90" s="6"/>
+      <c r="BA90" s="6"/>
+      <c r="BB90" s="6"/>
+      <c r="BC90" s="6"/>
+      <c r="BD90" s="6"/>
+      <c r="BE90" s="6"/>
+      <c r="BF90" s="6"/>
+      <c r="BG90" s="6"/>
+      <c r="BH90" s="6"/>
+      <c r="BI90" s="6"/>
+      <c r="BJ90" s="6"/>
+      <c r="BK90" s="6"/>
+      <c r="BL90" s="6"/>
+      <c r="BM90" s="6"/>
+      <c r="BN90" s="6"/>
+    </row>
+    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="6"/>
+      <c r="AI91" s="6"/>
+      <c r="AJ91" s="6"/>
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="6"/>
+      <c r="AM91" s="6"/>
+      <c r="AN91" s="6"/>
+      <c r="AO91" s="6"/>
+      <c r="AP91" s="6"/>
+      <c r="AQ91" s="6"/>
+      <c r="AR91" s="6"/>
+      <c r="AS91" s="6"/>
+      <c r="AT91" s="6"/>
+      <c r="AU91" s="6"/>
+      <c r="AV91" s="6"/>
+      <c r="AW91" s="6"/>
+      <c r="AX91" s="6"/>
+      <c r="AY91" s="6"/>
+      <c r="AZ91" s="6"/>
+      <c r="BA91" s="6"/>
+      <c r="BB91" s="6"/>
+      <c r="BC91" s="6"/>
+      <c r="BD91" s="6"/>
+      <c r="BE91" s="6"/>
+      <c r="BF91" s="6"/>
+      <c r="BG91" s="6"/>
+      <c r="BH91" s="6"/>
+      <c r="BI91" s="6"/>
+      <c r="BJ91" s="6"/>
+      <c r="BK91" s="6"/>
+      <c r="BL91" s="6"/>
+      <c r="BM91" s="6"/>
+      <c r="BN91" s="6"/>
+    </row>
+    <row r="92" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AB92" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
-    <mergeCell ref="AZ3:BB3"/>
+  <mergeCells count="123">
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="BF52:BK52"/>
+    <mergeCell ref="BF82:BK82"/>
+    <mergeCell ref="BF79:BK79"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF78:BK78"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF64:BK64"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF54:BK54"/>
+    <mergeCell ref="BF85:BK85"/>
+    <mergeCell ref="BF75:BK75"/>
+    <mergeCell ref="BF74:BK74"/>
+    <mergeCell ref="BF59:BK59"/>
+    <mergeCell ref="BF60:BK60"/>
+    <mergeCell ref="BF65:BK65"/>
+    <mergeCell ref="BF55:BK55"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AZ71:BE71"/>
+    <mergeCell ref="AZ67:BE67"/>
+    <mergeCell ref="AZ58:BE58"/>
+    <mergeCell ref="AZ59:BE59"/>
+    <mergeCell ref="AZ52:BE52"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="BC5:BE5"/>
     <mergeCell ref="BR3:BT3"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="G2:I3"/>
@@ -7397,8 +7731,14 @@
     <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="AK53:AP53"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AN2:AP3"/>
     <mergeCell ref="AQ2:AS3"/>
     <mergeCell ref="AT2:AV3"/>
     <mergeCell ref="AE2:AG3"/>
@@ -7408,33 +7748,28 @@
     <mergeCell ref="BF2:BK2"/>
     <mergeCell ref="BL2:BN2"/>
     <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AZ69:BE69"/>
-    <mergeCell ref="AZ65:BE65"/>
-    <mergeCell ref="AZ56:BE56"/>
-    <mergeCell ref="AZ57:BE57"/>
-    <mergeCell ref="AZ50:BE50"/>
-    <mergeCell ref="BF61:BK61"/>
-    <mergeCell ref="BF60:BK60"/>
-    <mergeCell ref="BF52:BK52"/>
-    <mergeCell ref="BF83:BK83"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF72:BK72"/>
-    <mergeCell ref="BF57:BK57"/>
-    <mergeCell ref="BF58:BK58"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF50:BK50"/>
-    <mergeCell ref="BF80:BK80"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF75:BK75"/>
-    <mergeCell ref="BF76:BK76"/>
-    <mergeCell ref="BF67:BK67"/>
-    <mergeCell ref="BF51:BK51"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF71:BK71"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="G62:L62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_3zaizd.xlsx
+++ b/Rozklad_3zaizd.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="81">
   <si>
     <t>І</t>
   </si>
@@ -183,12 +183,6 @@
     <t>13-24.05 (10)</t>
   </si>
   <si>
-    <t>06.02-25.02 (20)</t>
-  </si>
-  <si>
-    <t>05-24.12 (20 днів)</t>
-  </si>
-  <si>
     <t>04-17.03 (10)</t>
   </si>
   <si>
@@ -199,12 +193,81 @@
   </si>
   <si>
     <t>13.05-24.05(10)</t>
+  </si>
+  <si>
+    <t>11-26.03 (20 днів)</t>
+  </si>
+  <si>
+    <t>514а</t>
+  </si>
+  <si>
+    <t>Фізика загальна (іспит)</t>
+  </si>
+  <si>
+    <t>Фізика загальна (консультація)</t>
+  </si>
+  <si>
+    <t>Фізика з основами геофізики</t>
+  </si>
+  <si>
+    <t>доц. Шароді І.С.</t>
+  </si>
+  <si>
+    <t>на 10 годину 3 пари</t>
+  </si>
+  <si>
+    <t>Історія та культура україни, М1, Скиба І.І.</t>
+  </si>
+  <si>
+    <t>Історія та культура україни (іспит), М1, Скиба І.І.</t>
+  </si>
+  <si>
+    <t>Організація і управління виробництвом</t>
+  </si>
+  <si>
+    <t>доц. Грубінко І.І.</t>
+  </si>
+  <si>
+    <t>Ділова українська мова (залік), ст. викл. Грошик Г.М., каф</t>
+  </si>
+  <si>
+    <t>Ділова українська мова, ст. викл. Грошик Г.М., каф</t>
+  </si>
+  <si>
+    <t>Філософія (іспит),  доц. Левкулич В.В.</t>
+  </si>
+  <si>
+    <t>Філософія М1,  доц. Левкулич В.В.</t>
+  </si>
+  <si>
+    <t>Вища математика</t>
+  </si>
+  <si>
+    <t>доц. Маляр М.М.</t>
+  </si>
+  <si>
+    <t>Креслення</t>
+  </si>
+  <si>
+    <t>доц. Штадна І.Ю.</t>
+  </si>
+  <si>
+    <t>Інформатика, сучасні інформаційні технології та системи</t>
+  </si>
+  <si>
+    <t>ст. викл. Приходько М.В.</t>
+  </si>
+  <si>
+    <t>Лісова зоологія</t>
+  </si>
+  <si>
+    <t>доц. Потіш Л.А.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,58 +676,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,7 +814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -756,7 +849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -933,7 +1026,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -944,10 +1037,10 @@
   <dimension ref="A1:BT92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BD22" sqref="BD22"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,81 +1121,81 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="59" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="59" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="59" t="s">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="59" t="s">
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="60" t="s">
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="60"/>
-      <c r="BM1" s="60"/>
-      <c r="BN1" s="61"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="73"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1111,292 +1204,290 @@
       <c r="D2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="63" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="68"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="67" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="63"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="63" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="63"/>
-      <c r="X2" s="68"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="60"/>
       <c r="Y2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67" t="s">
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="63" t="s">
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="68"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
       <c r="AH2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="67" t="s">
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="63" t="s">
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="68"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="60"/>
       <c r="AQ2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="67" t="s">
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="63" t="s">
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="68"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="60"/>
       <c r="AZ2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="63"/>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="67" t="s">
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="63"/>
+      <c r="BF2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="63"/>
-      <c r="BH2" s="63"/>
-      <c r="BI2" s="63"/>
-      <c r="BJ2" s="63"/>
-      <c r="BK2" s="66"/>
-      <c r="BL2" s="63" t="s">
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="68"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="60"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="68"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="68"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="60"/>
       <c r="Y3" s="62"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="68"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
       <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="68"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="60"/>
       <c r="AQ3" s="62"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="68"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="60"/>
       <c r="AZ3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="63"/>
+      <c r="BA3" s="59"/>
       <c r="BB3" s="64"/>
-      <c r="BC3" s="63" t="s">
+      <c r="BC3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="67" t="s">
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="63"/>
+      <c r="BG3" s="59"/>
       <c r="BH3" s="64"/>
-      <c r="BI3" s="63" t="s">
+      <c r="BI3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="63" t="s">
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="65"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
-      <c r="BR3" s="65"/>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
+      <c r="BM3" s="59"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="74"/>
     </row>
     <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="66"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="66"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="66"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="66"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="63"/>
       <c r="P4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="66"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="63"/>
       <c r="S4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="63"/>
-      <c r="U4" s="66"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="63"/>
       <c r="V4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="63"/>
-      <c r="X4" s="66"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="63"/>
       <c r="Y4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="66"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="63"/>
       <c r="AB4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="66"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="63"/>
       <c r="AE4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="66"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="63"/>
       <c r="AH4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="66"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="63"/>
       <c r="AK4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="66"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="63"/>
       <c r="AN4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="66"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="63"/>
       <c r="AT4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="68"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="60"/>
       <c r="AZ4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="66"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="63"/>
       <c r="BC4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="67" t="s">
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="67"/>
+      <c r="BL4" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM4" s="63"/>
-      <c r="BN4" s="68"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="60"/>
       <c r="BO4" s="25"/>
       <c r="BP4" s="25"/>
       <c r="BQ4" s="25"/>
@@ -1405,103 +1496,103 @@
       <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71" t="s">
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="66"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="63"/>
       <c r="S5" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="66"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="63"/>
       <c r="V5" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="63"/>
-      <c r="X5" s="66"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="63"/>
       <c r="Y5" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="66"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="63"/>
       <c r="AB5" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="66"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="63"/>
       <c r="AE5" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="66"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="63"/>
       <c r="AH5" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="66"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="63"/>
       <c r="AK5" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="66"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="63"/>
       <c r="AN5" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="66"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="63"/>
       <c r="AQ5" s="62"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="66"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="63"/>
       <c r="AT5" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="67"/>
-      <c r="AX5" s="63"/>
-      <c r="AY5" s="68"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="60"/>
       <c r="AZ5" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="66"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="63"/>
       <c r="BC5" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="66"/>
-      <c r="BF5" s="67"/>
-      <c r="BG5" s="63"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="63"/>
+      <c r="BF5" s="61"/>
+      <c r="BG5" s="59"/>
       <c r="BH5" s="64"/>
-      <c r="BI5" s="70"/>
-      <c r="BJ5" s="63"/>
-      <c r="BK5" s="66"/>
-      <c r="BL5" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM5" s="63"/>
-      <c r="BN5" s="68"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="60"/>
       <c r="BO5" s="25"/>
       <c r="BP5" s="25"/>
       <c r="BQ5" s="25"/>
@@ -2077,18 +2168,20 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="9"/>
+      <c r="D12" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="77"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="8"/>
@@ -2149,18 +2242,20 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="9"/>
+      <c r="D13" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="77"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="8"/>
@@ -2230,8 +2325,12 @@
       <c r="J14" s="10"/>
       <c r="K14" s="6"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="6"/>
@@ -2302,8 +2401,12 @@
       <c r="J15" s="10"/>
       <c r="K15" s="6"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="6"/>
@@ -2444,9 +2547,15 @@
       <c r="J17" s="10"/>
       <c r="K17" s="6"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="9"/>
+      <c r="M17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="8"/>
@@ -2516,18 +2625,26 @@
       <c r="J18" s="10"/>
       <c r="K18" s="6"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="9"/>
+      <c r="M18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="77"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="8"/>
@@ -2591,15 +2708,17 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="9"/>
+      <c r="P19" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="77"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="8"/>
@@ -2793,18 +2912,20 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="9"/>
+      <c r="D22" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="77"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="8"/>
@@ -2865,18 +2986,20 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="9"/>
+      <c r="D23" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="77"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="8"/>
@@ -3160,8 +3283,12 @@
       <c r="J27" s="10"/>
       <c r="K27" s="6"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="O27" s="9"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="6"/>
@@ -3223,17 +3350,27 @@
       <c r="C28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="6"/>
       <c r="I28" s="8"/>
       <c r="J28" s="10"/>
       <c r="K28" s="6"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="M28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="O28" s="9"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="6"/>
@@ -3295,17 +3432,27 @@
       <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="6"/>
       <c r="I29" s="8"/>
       <c r="J29" s="10"/>
       <c r="K29" s="6"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="M29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="O29" s="9"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="6"/>
@@ -3432,9 +3579,18 @@
       <c r="BN30" s="9"/>
     </row>
     <row r="31" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="40"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+      <c r="C31" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="81" t="s">
+        <v>59</v>
+      </c>
       <c r="G31" s="49"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
@@ -3496,7 +3652,7 @@
       <c r="BM31" s="6"/>
       <c r="BN31" s="9"/>
     </row>
-    <row r="32" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -3506,27 +3662,23 @@
       <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="6"/>
       <c r="I32" s="8"/>
       <c r="J32" s="10"/>
       <c r="K32" s="6"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="9"/>
+      <c r="Q32" s="82"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="8"/>
@@ -3587,18 +3739,24 @@
       <c r="J33" s="10"/>
       <c r="K33" s="6"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="M33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="9"/>
+      <c r="P33" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="77"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="8"/>
@@ -3611,8 +3769,12 @@
       <c r="AH33" s="7"/>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="6"/>
+      <c r="AK33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL33" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AM33" s="8"/>
       <c r="AN33" s="6"/>
       <c r="AO33" s="6"/>
@@ -3683,8 +3845,12 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="8"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="6"/>
+      <c r="AK34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL34" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AM34" s="8"/>
       <c r="AN34" s="6"/>
       <c r="AO34" s="6"/>
@@ -3864,18 +4030,20 @@
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="9"/>
+      <c r="D37" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="77"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="8"/>
@@ -3936,7 +4104,6 @@
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="7"/>
       <c r="E38" s="6"/>
       <c r="F38" s="8"/>
       <c r="G38" s="10"/>
@@ -3945,7 +4112,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="6"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="6"/>
+      <c r="M38" s="57"/>
       <c r="N38" s="6"/>
       <c r="O38" s="9"/>
       <c r="P38" s="7"/>
@@ -4974,18 +5141,18 @@
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
       <c r="AY52" s="6"/>
-      <c r="AZ52" s="58"/>
-      <c r="BA52" s="58"/>
-      <c r="BB52" s="58"/>
-      <c r="BC52" s="58"/>
-      <c r="BD52" s="58"/>
-      <c r="BE52" s="58"/>
-      <c r="BF52" s="58"/>
-      <c r="BG52" s="58"/>
-      <c r="BH52" s="58"/>
-      <c r="BI52" s="58"/>
-      <c r="BJ52" s="58"/>
-      <c r="BK52" s="58"/>
+      <c r="AZ52" s="69"/>
+      <c r="BA52" s="69"/>
+      <c r="BB52" s="69"/>
+      <c r="BC52" s="69"/>
+      <c r="BD52" s="69"/>
+      <c r="BE52" s="69"/>
+      <c r="BF52" s="69"/>
+      <c r="BG52" s="69"/>
+      <c r="BH52" s="69"/>
+      <c r="BI52" s="69"/>
+      <c r="BJ52" s="69"/>
+      <c r="BK52" s="69"/>
       <c r="BL52" s="6"/>
       <c r="BM52" s="6"/>
       <c r="BN52" s="6"/>
@@ -4997,12 +5164,12 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -5027,12 +5194,12 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="58"/>
-      <c r="AL53" s="58"/>
-      <c r="AM53" s="58"/>
-      <c r="AN53" s="58"/>
-      <c r="AO53" s="58"/>
-      <c r="AP53" s="58"/>
+      <c r="AK53" s="69"/>
+      <c r="AL53" s="69"/>
+      <c r="AM53" s="69"/>
+      <c r="AN53" s="69"/>
+      <c r="AO53" s="69"/>
+      <c r="AP53" s="69"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
@@ -5048,12 +5215,12 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="58"/>
-      <c r="BG53" s="58"/>
-      <c r="BH53" s="58"/>
-      <c r="BI53" s="58"/>
-      <c r="BJ53" s="58"/>
-      <c r="BK53" s="58"/>
+      <c r="BF53" s="69"/>
+      <c r="BG53" s="69"/>
+      <c r="BH53" s="69"/>
+      <c r="BI53" s="69"/>
+      <c r="BJ53" s="69"/>
+      <c r="BK53" s="69"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
@@ -5065,12 +5232,12 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -5116,12 +5283,12 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="58"/>
-      <c r="BG54" s="58"/>
-      <c r="BH54" s="58"/>
-      <c r="BI54" s="58"/>
-      <c r="BJ54" s="58"/>
-      <c r="BK54" s="58"/>
+      <c r="BF54" s="69"/>
+      <c r="BG54" s="69"/>
+      <c r="BH54" s="69"/>
+      <c r="BI54" s="69"/>
+      <c r="BJ54" s="69"/>
+      <c r="BK54" s="69"/>
       <c r="BL54" s="6"/>
       <c r="BM54" s="6"/>
       <c r="BN54" s="6"/>
@@ -5184,12 +5351,12 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="58"/>
-      <c r="BG55" s="58"/>
-      <c r="BH55" s="58"/>
-      <c r="BI55" s="58"/>
-      <c r="BJ55" s="58"/>
-      <c r="BK55" s="58"/>
+      <c r="BF55" s="69"/>
+      <c r="BG55" s="69"/>
+      <c r="BH55" s="69"/>
+      <c r="BI55" s="69"/>
+      <c r="BJ55" s="69"/>
+      <c r="BK55" s="69"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
@@ -5201,12 +5368,12 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -5269,12 +5436,12 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -5334,12 +5501,12 @@
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -5382,12 +5549,12 @@
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="58"/>
-      <c r="BA58" s="58"/>
-      <c r="BB58" s="58"/>
-      <c r="BC58" s="58"/>
-      <c r="BD58" s="58"/>
-      <c r="BE58" s="58"/>
+      <c r="AZ58" s="69"/>
+      <c r="BA58" s="69"/>
+      <c r="BB58" s="69"/>
+      <c r="BC58" s="69"/>
+      <c r="BD58" s="69"/>
+      <c r="BE58" s="69"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
@@ -5402,12 +5569,12 @@
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -5450,18 +5617,18 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
-      <c r="AZ59" s="58"/>
-      <c r="BA59" s="58"/>
-      <c r="BB59" s="58"/>
-      <c r="BC59" s="58"/>
-      <c r="BD59" s="58"/>
-      <c r="BE59" s="58"/>
-      <c r="BF59" s="58"/>
-      <c r="BG59" s="58"/>
-      <c r="BH59" s="58"/>
-      <c r="BI59" s="58"/>
-      <c r="BJ59" s="58"/>
-      <c r="BK59" s="58"/>
+      <c r="AZ59" s="69"/>
+      <c r="BA59" s="69"/>
+      <c r="BB59" s="69"/>
+      <c r="BC59" s="69"/>
+      <c r="BD59" s="69"/>
+      <c r="BE59" s="69"/>
+      <c r="BF59" s="69"/>
+      <c r="BG59" s="69"/>
+      <c r="BH59" s="69"/>
+      <c r="BI59" s="69"/>
+      <c r="BJ59" s="69"/>
+      <c r="BK59" s="69"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
       <c r="BN59" s="6"/>
@@ -5524,12 +5691,12 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="58"/>
-      <c r="BG60" s="58"/>
-      <c r="BH60" s="58"/>
-      <c r="BI60" s="58"/>
-      <c r="BJ60" s="58"/>
-      <c r="BK60" s="58"/>
+      <c r="BF60" s="69"/>
+      <c r="BG60" s="69"/>
+      <c r="BH60" s="69"/>
+      <c r="BI60" s="69"/>
+      <c r="BJ60" s="69"/>
+      <c r="BK60" s="69"/>
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
@@ -5609,12 +5776,12 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -5660,12 +5827,12 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="58"/>
-      <c r="BG62" s="58"/>
-      <c r="BH62" s="58"/>
-      <c r="BI62" s="58"/>
-      <c r="BJ62" s="58"/>
-      <c r="BK62" s="58"/>
+      <c r="BF62" s="69"/>
+      <c r="BG62" s="69"/>
+      <c r="BH62" s="69"/>
+      <c r="BI62" s="69"/>
+      <c r="BJ62" s="69"/>
+      <c r="BK62" s="69"/>
       <c r="BL62" s="6"/>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
@@ -5677,12 +5844,12 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -5728,12 +5895,12 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="58"/>
-      <c r="BG63" s="58"/>
-      <c r="BH63" s="58"/>
-      <c r="BI63" s="58"/>
-      <c r="BJ63" s="58"/>
-      <c r="BK63" s="58"/>
+      <c r="BF63" s="69"/>
+      <c r="BG63" s="69"/>
+      <c r="BH63" s="69"/>
+      <c r="BI63" s="69"/>
+      <c r="BJ63" s="69"/>
+      <c r="BK63" s="69"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
@@ -5742,12 +5909,12 @@
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -5796,12 +5963,12 @@
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="58"/>
-      <c r="BG64" s="58"/>
-      <c r="BH64" s="58"/>
-      <c r="BI64" s="58"/>
-      <c r="BJ64" s="58"/>
-      <c r="BK64" s="58"/>
+      <c r="BF64" s="69"/>
+      <c r="BG64" s="69"/>
+      <c r="BH64" s="69"/>
+      <c r="BI64" s="69"/>
+      <c r="BJ64" s="69"/>
+      <c r="BK64" s="69"/>
       <c r="BL64" s="6"/>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
@@ -5864,12 +6031,12 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
       <c r="BE65" s="6"/>
-      <c r="BF65" s="58"/>
-      <c r="BG65" s="58"/>
-      <c r="BH65" s="58"/>
-      <c r="BI65" s="58"/>
-      <c r="BJ65" s="58"/>
-      <c r="BK65" s="58"/>
+      <c r="BF65" s="69"/>
+      <c r="BG65" s="69"/>
+      <c r="BH65" s="69"/>
+      <c r="BI65" s="69"/>
+      <c r="BJ65" s="69"/>
+      <c r="BK65" s="69"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
@@ -5946,12 +6113,12 @@
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -5994,12 +6161,12 @@
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
       <c r="AY67" s="6"/>
-      <c r="AZ67" s="58"/>
-      <c r="BA67" s="58"/>
-      <c r="BB67" s="58"/>
-      <c r="BC67" s="58"/>
-      <c r="BD67" s="58"/>
-      <c r="BE67" s="58"/>
+      <c r="AZ67" s="69"/>
+      <c r="BA67" s="69"/>
+      <c r="BB67" s="69"/>
+      <c r="BC67" s="69"/>
+      <c r="BD67" s="69"/>
+      <c r="BE67" s="69"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
       <c r="BH67" s="6"/>
@@ -6017,12 +6184,12 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="58"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -6085,12 +6252,12 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="58"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -6136,12 +6303,12 @@
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
       <c r="BE69" s="6"/>
-      <c r="BF69" s="69"/>
-      <c r="BG69" s="69"/>
-      <c r="BH69" s="69"/>
-      <c r="BI69" s="69"/>
-      <c r="BJ69" s="69"/>
-      <c r="BK69" s="69"/>
+      <c r="BF69" s="70"/>
+      <c r="BG69" s="70"/>
+      <c r="BH69" s="70"/>
+      <c r="BI69" s="70"/>
+      <c r="BJ69" s="70"/>
+      <c r="BK69" s="70"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
@@ -6266,12 +6433,12 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="6"/>
-      <c r="AZ71" s="69"/>
-      <c r="BA71" s="69"/>
-      <c r="BB71" s="69"/>
-      <c r="BC71" s="69"/>
-      <c r="BD71" s="69"/>
-      <c r="BE71" s="69"/>
+      <c r="AZ71" s="70"/>
+      <c r="BA71" s="70"/>
+      <c r="BB71" s="70"/>
+      <c r="BC71" s="70"/>
+      <c r="BD71" s="70"/>
+      <c r="BE71" s="70"/>
       <c r="BF71" s="6"/>
       <c r="BG71" s="6"/>
       <c r="BH71" s="6"/>
@@ -6286,12 +6453,12 @@
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -6354,12 +6521,12 @@
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -6408,12 +6575,12 @@
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
       <c r="BE73" s="6"/>
-      <c r="BF73" s="58"/>
-      <c r="BG73" s="58"/>
-      <c r="BH73" s="58"/>
-      <c r="BI73" s="58"/>
-      <c r="BJ73" s="58"/>
-      <c r="BK73" s="58"/>
+      <c r="BF73" s="69"/>
+      <c r="BG73" s="69"/>
+      <c r="BH73" s="69"/>
+      <c r="BI73" s="69"/>
+      <c r="BJ73" s="69"/>
+      <c r="BK73" s="69"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
       <c r="BN73" s="6"/>
@@ -6422,12 +6589,12 @@
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -6476,12 +6643,12 @@
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
       <c r="BE74" s="6"/>
-      <c r="BF74" s="58"/>
-      <c r="BG74" s="58"/>
-      <c r="BH74" s="58"/>
-      <c r="BI74" s="58"/>
-      <c r="BJ74" s="58"/>
-      <c r="BK74" s="58"/>
+      <c r="BF74" s="69"/>
+      <c r="BG74" s="69"/>
+      <c r="BH74" s="69"/>
+      <c r="BI74" s="69"/>
+      <c r="BJ74" s="69"/>
+      <c r="BK74" s="69"/>
       <c r="BL74" s="6"/>
       <c r="BM74" s="6"/>
       <c r="BN74" s="6"/>
@@ -6490,12 +6657,12 @@
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -6544,12 +6711,12 @@
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
       <c r="BE75" s="6"/>
-      <c r="BF75" s="58"/>
-      <c r="BG75" s="58"/>
-      <c r="BH75" s="58"/>
-      <c r="BI75" s="58"/>
-      <c r="BJ75" s="58"/>
-      <c r="BK75" s="58"/>
+      <c r="BF75" s="69"/>
+      <c r="BG75" s="69"/>
+      <c r="BH75" s="69"/>
+      <c r="BI75" s="69"/>
+      <c r="BJ75" s="69"/>
+      <c r="BK75" s="69"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
       <c r="BN75" s="6"/>
@@ -6626,12 +6793,12 @@
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -6680,12 +6847,12 @@
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
       <c r="BE77" s="6"/>
-      <c r="BF77" s="58"/>
-      <c r="BG77" s="58"/>
-      <c r="BH77" s="58"/>
-      <c r="BI77" s="58"/>
-      <c r="BJ77" s="58"/>
-      <c r="BK77" s="58"/>
+      <c r="BF77" s="69"/>
+      <c r="BG77" s="69"/>
+      <c r="BH77" s="69"/>
+      <c r="BI77" s="69"/>
+      <c r="BJ77" s="69"/>
+      <c r="BK77" s="69"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
       <c r="BN77" s="6"/>
@@ -6694,12 +6861,12 @@
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -6748,12 +6915,12 @@
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
       <c r="BE78" s="6"/>
-      <c r="BF78" s="58"/>
-      <c r="BG78" s="58"/>
-      <c r="BH78" s="58"/>
-      <c r="BI78" s="58"/>
-      <c r="BJ78" s="58"/>
-      <c r="BK78" s="58"/>
+      <c r="BF78" s="69"/>
+      <c r="BG78" s="69"/>
+      <c r="BH78" s="69"/>
+      <c r="BI78" s="69"/>
+      <c r="BJ78" s="69"/>
+      <c r="BK78" s="69"/>
       <c r="BL78" s="6"/>
       <c r="BM78" s="6"/>
       <c r="BN78" s="6"/>
@@ -6762,12 +6929,12 @@
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -6816,12 +6983,12 @@
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
       <c r="BE79" s="6"/>
-      <c r="BF79" s="58"/>
-      <c r="BG79" s="58"/>
-      <c r="BH79" s="58"/>
-      <c r="BI79" s="58"/>
-      <c r="BJ79" s="58"/>
-      <c r="BK79" s="58"/>
+      <c r="BF79" s="69"/>
+      <c r="BG79" s="69"/>
+      <c r="BH79" s="69"/>
+      <c r="BI79" s="69"/>
+      <c r="BJ79" s="69"/>
+      <c r="BK79" s="69"/>
       <c r="BL79" s="6"/>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
@@ -6830,12 +6997,12 @@
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -6966,12 +7133,12 @@
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -7020,12 +7187,12 @@
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
       <c r="BE82" s="6"/>
-      <c r="BF82" s="58"/>
-      <c r="BG82" s="58"/>
-      <c r="BH82" s="58"/>
-      <c r="BI82" s="58"/>
-      <c r="BJ82" s="58"/>
-      <c r="BK82" s="58"/>
+      <c r="BF82" s="69"/>
+      <c r="BG82" s="69"/>
+      <c r="BH82" s="69"/>
+      <c r="BI82" s="69"/>
+      <c r="BJ82" s="69"/>
+      <c r="BK82" s="69"/>
       <c r="BL82" s="6"/>
       <c r="BM82" s="6"/>
       <c r="BN82" s="6"/>
@@ -7034,12 +7201,12 @@
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -7102,12 +7269,12 @@
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -7170,12 +7337,12 @@
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -7224,12 +7391,12 @@
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
       <c r="BE85" s="6"/>
-      <c r="BF85" s="58"/>
-      <c r="BG85" s="58"/>
-      <c r="BH85" s="58"/>
-      <c r="BI85" s="58"/>
-      <c r="BJ85" s="58"/>
-      <c r="BK85" s="58"/>
+      <c r="BF85" s="69"/>
+      <c r="BG85" s="69"/>
+      <c r="BH85" s="69"/>
+      <c r="BI85" s="69"/>
+      <c r="BJ85" s="69"/>
+      <c r="BK85" s="69"/>
       <c r="BL85" s="6"/>
       <c r="BM85" s="6"/>
       <c r="BN85" s="6"/>
@@ -7646,54 +7813,69 @@
       <c r="AB92" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BK5"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="BF52:BK52"/>
-    <mergeCell ref="BF82:BK82"/>
-    <mergeCell ref="BF79:BK79"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF78:BK78"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF64:BK64"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF54:BK54"/>
+  <mergeCells count="131">
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="AK53:AP53"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="P18:X18"/>
+    <mergeCell ref="P19:X19"/>
+    <mergeCell ref="P33:X33"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
     <mergeCell ref="BF85:BK85"/>
     <mergeCell ref="BF75:BK75"/>
     <mergeCell ref="BF74:BK74"/>
@@ -7716,60 +7898,53 @@
     <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AZ5:BB5"/>
     <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="AK53:AP53"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="BF52:BK52"/>
+    <mergeCell ref="BF82:BK82"/>
+    <mergeCell ref="BF79:BK79"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF78:BK78"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF64:BK64"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF54:BK54"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AN4:AP4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_3zaizd.xlsx
+++ b/Rozklad_3zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="20730" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="95">
   <si>
     <t>І</t>
   </si>
@@ -262,6 +262,48 @@
   </si>
   <si>
     <t>доц. Потіш Л.А.</t>
+  </si>
+  <si>
+    <t>Географічні інформаційні системи</t>
+  </si>
+  <si>
+    <t>доц. Єпішев В.П.</t>
+  </si>
+  <si>
+    <t>Політологія</t>
+  </si>
+  <si>
+    <t>доц. Марина В.В.</t>
+  </si>
+  <si>
+    <t>Політологія (іспит)</t>
+  </si>
+  <si>
+    <t>Психологія</t>
+  </si>
+  <si>
+    <t>викл. Ляшин Я.Є.</t>
+  </si>
+  <si>
+    <t>педагогіка</t>
+  </si>
+  <si>
+    <t>Іноземна мова</t>
+  </si>
+  <si>
+    <t>доц. Годованець Н.І.</t>
+  </si>
+  <si>
+    <t>Іноземна мова, доц. Годованець Н.І. ст. викл Машика Н.В. Ст. викл Остич Д.Ю.</t>
+  </si>
+  <si>
+    <t>Іноземна мова (іспит), доц. Годованець Н.І. ст. викл Машика Н.В. Ст. викл Остич Д.Ю.</t>
+  </si>
+  <si>
+    <t>Педагогіка</t>
+  </si>
+  <si>
+    <t>доц. Маляр Л.В.</t>
   </si>
 </sst>
 </file>
@@ -506,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,26 +721,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -709,50 +799,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,7 +1083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,10 +1094,10 @@
   <dimension ref="A1:BT92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,373 +1178,373 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="71" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="71" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="71" t="s">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="71" t="s">
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="72" t="s">
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BH1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="72"/>
-      <c r="BN1" s="73"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="68"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="59" t="s">
+      <c r="K2" s="70"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="62" t="s">
+      <c r="N2" s="70"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="61" t="s">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="59" t="s">
+      <c r="T2" s="70"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="59"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="62" t="s">
+      <c r="W2" s="70"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="61" t="s">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="59" t="s">
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="62" t="s">
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="61" t="s">
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="59" t="s">
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="62" t="s">
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="61" t="s">
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="59" t="s">
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="62" t="s">
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="63"/>
-      <c r="BF2" s="61" t="s">
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="59" t="s">
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="60"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="74"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="62"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="62" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="59" t="s">
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="61" t="s">
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="64"/>
-      <c r="BI3" s="59" t="s">
+      <c r="BG3" s="70"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="59" t="s">
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="59"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74"/>
-      <c r="BS3" s="74"/>
-      <c r="BT3" s="74"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="77"/>
+      <c r="BP3" s="77"/>
+      <c r="BQ3" s="77"/>
+      <c r="BR3" s="77"/>
+      <c r="BS3" s="77"/>
+      <c r="BT3" s="77"/>
     </row>
     <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="62" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="62" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="62" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="62" t="s">
+      <c r="N4" s="70"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="62" t="s">
+      <c r="Q4" s="70"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="59"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="62" t="s">
+      <c r="T4" s="70"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="59"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="62" t="s">
+      <c r="W4" s="70"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="62" t="s">
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="62" t="s">
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="62" t="s">
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="62" t="s">
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="62" t="s">
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="62" t="s">
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="61" t="s">
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="62" t="s">
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="62" t="s">
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="61" t="s">
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="65" t="s">
+      <c r="BG4" s="70"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="67"/>
-      <c r="BL4" s="58" t="s">
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="60"/>
+      <c r="BM4" s="70"/>
+      <c r="BN4" s="74"/>
       <c r="BO4" s="25"/>
       <c r="BP4" s="25"/>
       <c r="BQ4" s="25"/>
@@ -1496,103 +1553,103 @@
       <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68" t="s">
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="62" t="s">
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="62" t="s">
+      <c r="Q5" s="70"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="59"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="62" t="s">
+      <c r="T5" s="70"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="59"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="62" t="s">
+      <c r="W5" s="70"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="62" t="s">
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="62" t="s">
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="62" t="s">
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="62" t="s">
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="62" t="s">
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="62" t="s">
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="70"/>
+      <c r="AS5" s="72"/>
+      <c r="AT5" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="62" t="s">
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="72"/>
+      <c r="AW5" s="73"/>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="62" t="s">
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="63"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="63"/>
-      <c r="BL5" s="61" t="s">
+      <c r="BD5" s="70"/>
+      <c r="BE5" s="72"/>
+      <c r="BF5" s="73"/>
+      <c r="BG5" s="70"/>
+      <c r="BH5" s="71"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="70"/>
+      <c r="BK5" s="72"/>
+      <c r="BL5" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="60"/>
+      <c r="BM5" s="70"/>
+      <c r="BN5" s="74"/>
       <c r="BO5" s="25"/>
       <c r="BP5" s="25"/>
       <c r="BQ5" s="25"/>
@@ -1803,7 +1860,7 @@
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
     </row>
-    <row r="7" spans="1:72" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1813,18 +1870,20 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="43"/>
+      <c r="D7" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="52"/>
@@ -1839,15 +1898,27 @@
       <c r="AA7" s="52"/>
       <c r="AB7" s="54"/>
       <c r="AC7" s="38"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF7" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="AG7" s="43"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="38"/>
+      <c r="AH7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="AJ7" s="52"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="38"/>
+      <c r="AK7" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL7" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="AM7" s="52"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="38"/>
@@ -1877,7 +1948,7 @@
       <c r="BM7" s="37"/>
       <c r="BN7" s="39"/>
     </row>
-    <row r="8" spans="1:72" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -1885,18 +1956,20 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="22"/>
+      <c r="D8" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="23"/>
@@ -1911,15 +1984,27 @@
       <c r="AA8" s="23"/>
       <c r="AB8" s="24"/>
       <c r="AC8" s="21"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF8" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="AG8" s="22"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="21"/>
+      <c r="AH8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="AJ8" s="23"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="21"/>
+      <c r="AK8" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL8" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="21"/>
       <c r="AO8" s="21"/>
@@ -1969,26 +2054,32 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="23"/>
+      <c r="P9" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="87"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="21"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
       <c r="AG9" s="22"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="21"/>
+      <c r="AH9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI9" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="AJ9" s="23"/>
       <c r="AK9" s="24"/>
       <c r="AL9" s="21"/>
@@ -2055,9 +2146,9 @@
       <c r="AA10" s="23"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="21"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="20"/>
       <c r="AI10" s="21"/>
@@ -2120,7 +2211,7 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="8"/>
+      <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="9"/>
@@ -2168,20 +2259,20 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="77"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="8"/>
@@ -2196,15 +2287,23 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF12" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="AG12" s="9"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="8"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="6"/>
+      <c r="AK12" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL12" s="58" t="s">
+        <v>84</v>
+      </c>
       <c r="AM12" s="8"/>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
@@ -2242,20 +2341,20 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="77"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="8"/>
@@ -2274,7 +2373,9 @@
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="9"/>
-      <c r="AH13" s="7"/>
+      <c r="AH13" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="10"/>
@@ -2634,17 +2735,17 @@
       <c r="O18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="76" t="s">
+      <c r="P18" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="77"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="76"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="8"/>
@@ -2708,17 +2809,17 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="76" t="s">
+      <c r="P19" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="77"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="76"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="8"/>
@@ -2902,7 +3003,7 @@
       <c r="BM21" s="6"/>
       <c r="BN21" s="9"/>
     </row>
-    <row r="22" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2912,20 +3013,20 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="77"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="76"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="8"/>
@@ -2944,8 +3045,12 @@
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="9"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="6"/>
+      <c r="AH22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="6"/>
@@ -2986,20 +3091,20 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="77"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="76"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="8"/>
@@ -3308,8 +3413,12 @@
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="9"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="6"/>
+      <c r="AH27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="6"/>
@@ -3393,8 +3502,12 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="6"/>
+      <c r="AK28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AM28" s="8"/>
       <c r="AN28" s="6"/>
       <c r="AO28" s="6"/>
@@ -3475,8 +3588,12 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="8"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="6"/>
+      <c r="AK29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AM29" s="8"/>
       <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
@@ -3579,16 +3696,16 @@
       <c r="BN30" s="9"/>
     </row>
     <row r="31" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="62" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="49"/>
@@ -3678,7 +3795,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="8"/>
       <c r="O32" s="9"/>
-      <c r="Q32" s="82"/>
+      <c r="Q32" s="63"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="8"/>
@@ -3688,8 +3805,12 @@
       <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
       <c r="AG32" s="9"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="6"/>
+      <c r="AH32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI32" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="10"/>
       <c r="AL32" s="6"/>
@@ -3746,19 +3867,23 @@
         <v>78</v>
       </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="76" t="s">
+      <c r="P33" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="6"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="AA33" s="8"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="6"/>
@@ -3833,8 +3958,12 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="6"/>
+      <c r="Y34" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="AA34" s="8"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="6"/>
@@ -4030,20 +4159,20 @@
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="77"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="76"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="8"/>
@@ -4398,15 +4527,17 @@
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
       <c r="O42" s="32"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="9"/>
+      <c r="P42" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="76"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4518,8 +4649,12 @@
       <c r="BI43" s="6"/>
       <c r="BJ43" s="6"/>
       <c r="BK43" s="8"/>
-      <c r="BL43" s="6"/>
-      <c r="BM43" s="6"/>
+      <c r="BL43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM43" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="BN43" s="9"/>
     </row>
     <row r="44" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -5141,18 +5276,18 @@
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
       <c r="AY52" s="6"/>
-      <c r="AZ52" s="69"/>
-      <c r="BA52" s="69"/>
-      <c r="BB52" s="69"/>
-      <c r="BC52" s="69"/>
-      <c r="BD52" s="69"/>
-      <c r="BE52" s="69"/>
-      <c r="BF52" s="69"/>
-      <c r="BG52" s="69"/>
-      <c r="BH52" s="69"/>
-      <c r="BI52" s="69"/>
-      <c r="BJ52" s="69"/>
-      <c r="BK52" s="69"/>
+      <c r="AZ52" s="64"/>
+      <c r="BA52" s="64"/>
+      <c r="BB52" s="64"/>
+      <c r="BC52" s="64"/>
+      <c r="BD52" s="64"/>
+      <c r="BE52" s="64"/>
+      <c r="BF52" s="64"/>
+      <c r="BG52" s="64"/>
+      <c r="BH52" s="64"/>
+      <c r="BI52" s="64"/>
+      <c r="BJ52" s="64"/>
+      <c r="BK52" s="64"/>
       <c r="BL52" s="6"/>
       <c r="BM52" s="6"/>
       <c r="BN52" s="6"/>
@@ -5164,12 +5299,12 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -5194,12 +5329,12 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="69"/>
-      <c r="AL53" s="69"/>
-      <c r="AM53" s="69"/>
-      <c r="AN53" s="69"/>
-      <c r="AO53" s="69"/>
-      <c r="AP53" s="69"/>
+      <c r="AK53" s="64"/>
+      <c r="AL53" s="64"/>
+      <c r="AM53" s="64"/>
+      <c r="AN53" s="64"/>
+      <c r="AO53" s="64"/>
+      <c r="AP53" s="64"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
@@ -5215,12 +5350,12 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="69"/>
-      <c r="BG53" s="69"/>
-      <c r="BH53" s="69"/>
-      <c r="BI53" s="69"/>
-      <c r="BJ53" s="69"/>
-      <c r="BK53" s="69"/>
+      <c r="BF53" s="64"/>
+      <c r="BG53" s="64"/>
+      <c r="BH53" s="64"/>
+      <c r="BI53" s="64"/>
+      <c r="BJ53" s="64"/>
+      <c r="BK53" s="64"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
@@ -5232,12 +5367,12 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -5283,12 +5418,12 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="69"/>
-      <c r="BG54" s="69"/>
-      <c r="BH54" s="69"/>
-      <c r="BI54" s="69"/>
-      <c r="BJ54" s="69"/>
-      <c r="BK54" s="69"/>
+      <c r="BF54" s="64"/>
+      <c r="BG54" s="64"/>
+      <c r="BH54" s="64"/>
+      <c r="BI54" s="64"/>
+      <c r="BJ54" s="64"/>
+      <c r="BK54" s="64"/>
       <c r="BL54" s="6"/>
       <c r="BM54" s="6"/>
       <c r="BN54" s="6"/>
@@ -5351,12 +5486,12 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="69"/>
-      <c r="BG55" s="69"/>
-      <c r="BH55" s="69"/>
-      <c r="BI55" s="69"/>
-      <c r="BJ55" s="69"/>
-      <c r="BK55" s="69"/>
+      <c r="BF55" s="64"/>
+      <c r="BG55" s="64"/>
+      <c r="BH55" s="64"/>
+      <c r="BI55" s="64"/>
+      <c r="BJ55" s="64"/>
+      <c r="BK55" s="64"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
@@ -5368,12 +5503,12 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -5436,12 +5571,12 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -5501,12 +5636,12 @@
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -5549,12 +5684,12 @@
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="69"/>
-      <c r="BA58" s="69"/>
-      <c r="BB58" s="69"/>
-      <c r="BC58" s="69"/>
-      <c r="BD58" s="69"/>
-      <c r="BE58" s="69"/>
+      <c r="AZ58" s="64"/>
+      <c r="BA58" s="64"/>
+      <c r="BB58" s="64"/>
+      <c r="BC58" s="64"/>
+      <c r="BD58" s="64"/>
+      <c r="BE58" s="64"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
@@ -5569,12 +5704,12 @@
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -5617,18 +5752,18 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
-      <c r="AZ59" s="69"/>
-      <c r="BA59" s="69"/>
-      <c r="BB59" s="69"/>
-      <c r="BC59" s="69"/>
-      <c r="BD59" s="69"/>
-      <c r="BE59" s="69"/>
-      <c r="BF59" s="69"/>
-      <c r="BG59" s="69"/>
-      <c r="BH59" s="69"/>
-      <c r="BI59" s="69"/>
-      <c r="BJ59" s="69"/>
-      <c r="BK59" s="69"/>
+      <c r="AZ59" s="64"/>
+      <c r="BA59" s="64"/>
+      <c r="BB59" s="64"/>
+      <c r="BC59" s="64"/>
+      <c r="BD59" s="64"/>
+      <c r="BE59" s="64"/>
+      <c r="BF59" s="64"/>
+      <c r="BG59" s="64"/>
+      <c r="BH59" s="64"/>
+      <c r="BI59" s="64"/>
+      <c r="BJ59" s="64"/>
+      <c r="BK59" s="64"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
       <c r="BN59" s="6"/>
@@ -5691,12 +5826,12 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="69"/>
-      <c r="BG60" s="69"/>
-      <c r="BH60" s="69"/>
-      <c r="BI60" s="69"/>
-      <c r="BJ60" s="69"/>
-      <c r="BK60" s="69"/>
+      <c r="BF60" s="64"/>
+      <c r="BG60" s="64"/>
+      <c r="BH60" s="64"/>
+      <c r="BI60" s="64"/>
+      <c r="BJ60" s="64"/>
+      <c r="BK60" s="64"/>
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
@@ -5776,12 +5911,12 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -5827,12 +5962,12 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="69"/>
-      <c r="BG62" s="69"/>
-      <c r="BH62" s="69"/>
-      <c r="BI62" s="69"/>
-      <c r="BJ62" s="69"/>
-      <c r="BK62" s="69"/>
+      <c r="BF62" s="64"/>
+      <c r="BG62" s="64"/>
+      <c r="BH62" s="64"/>
+      <c r="BI62" s="64"/>
+      <c r="BJ62" s="64"/>
+      <c r="BK62" s="64"/>
       <c r="BL62" s="6"/>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
@@ -5844,12 +5979,12 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -5895,12 +6030,12 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="69"/>
-      <c r="BG63" s="69"/>
-      <c r="BH63" s="69"/>
-      <c r="BI63" s="69"/>
-      <c r="BJ63" s="69"/>
-      <c r="BK63" s="69"/>
+      <c r="BF63" s="64"/>
+      <c r="BG63" s="64"/>
+      <c r="BH63" s="64"/>
+      <c r="BI63" s="64"/>
+      <c r="BJ63" s="64"/>
+      <c r="BK63" s="64"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
@@ -5909,12 +6044,12 @@
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -5963,12 +6098,12 @@
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="69"/>
-      <c r="BG64" s="69"/>
-      <c r="BH64" s="69"/>
-      <c r="BI64" s="69"/>
-      <c r="BJ64" s="69"/>
-      <c r="BK64" s="69"/>
+      <c r="BF64" s="64"/>
+      <c r="BG64" s="64"/>
+      <c r="BH64" s="64"/>
+      <c r="BI64" s="64"/>
+      <c r="BJ64" s="64"/>
+      <c r="BK64" s="64"/>
       <c r="BL64" s="6"/>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
@@ -6031,12 +6166,12 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
       <c r="BE65" s="6"/>
-      <c r="BF65" s="69"/>
-      <c r="BG65" s="69"/>
-      <c r="BH65" s="69"/>
-      <c r="BI65" s="69"/>
-      <c r="BJ65" s="69"/>
-      <c r="BK65" s="69"/>
+      <c r="BF65" s="64"/>
+      <c r="BG65" s="64"/>
+      <c r="BH65" s="64"/>
+      <c r="BI65" s="64"/>
+      <c r="BJ65" s="64"/>
+      <c r="BK65" s="64"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
@@ -6113,12 +6248,12 @@
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -6161,12 +6296,12 @@
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
       <c r="AY67" s="6"/>
-      <c r="AZ67" s="69"/>
-      <c r="BA67" s="69"/>
-      <c r="BB67" s="69"/>
-      <c r="BC67" s="69"/>
-      <c r="BD67" s="69"/>
-      <c r="BE67" s="69"/>
+      <c r="AZ67" s="64"/>
+      <c r="BA67" s="64"/>
+      <c r="BB67" s="64"/>
+      <c r="BC67" s="64"/>
+      <c r="BD67" s="64"/>
+      <c r="BE67" s="64"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
       <c r="BH67" s="6"/>
@@ -6184,12 +6319,12 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -6252,12 +6387,12 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -6303,12 +6438,12 @@
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
       <c r="BE69" s="6"/>
-      <c r="BF69" s="70"/>
-      <c r="BG69" s="70"/>
-      <c r="BH69" s="70"/>
-      <c r="BI69" s="70"/>
-      <c r="BJ69" s="70"/>
-      <c r="BK69" s="70"/>
+      <c r="BF69" s="78"/>
+      <c r="BG69" s="78"/>
+      <c r="BH69" s="78"/>
+      <c r="BI69" s="78"/>
+      <c r="BJ69" s="78"/>
+      <c r="BK69" s="78"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
@@ -6433,12 +6568,12 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="6"/>
-      <c r="AZ71" s="70"/>
-      <c r="BA71" s="70"/>
-      <c r="BB71" s="70"/>
-      <c r="BC71" s="70"/>
-      <c r="BD71" s="70"/>
-      <c r="BE71" s="70"/>
+      <c r="AZ71" s="78"/>
+      <c r="BA71" s="78"/>
+      <c r="BB71" s="78"/>
+      <c r="BC71" s="78"/>
+      <c r="BD71" s="78"/>
+      <c r="BE71" s="78"/>
       <c r="BF71" s="6"/>
       <c r="BG71" s="6"/>
       <c r="BH71" s="6"/>
@@ -6453,12 +6588,12 @@
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="69"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -6521,12 +6656,12 @@
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -6575,12 +6710,12 @@
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
       <c r="BE73" s="6"/>
-      <c r="BF73" s="69"/>
-      <c r="BG73" s="69"/>
-      <c r="BH73" s="69"/>
-      <c r="BI73" s="69"/>
-      <c r="BJ73" s="69"/>
-      <c r="BK73" s="69"/>
+      <c r="BF73" s="64"/>
+      <c r="BG73" s="64"/>
+      <c r="BH73" s="64"/>
+      <c r="BI73" s="64"/>
+      <c r="BJ73" s="64"/>
+      <c r="BK73" s="64"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
       <c r="BN73" s="6"/>
@@ -6589,12 +6724,12 @@
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -6643,12 +6778,12 @@
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
       <c r="BE74" s="6"/>
-      <c r="BF74" s="69"/>
-      <c r="BG74" s="69"/>
-      <c r="BH74" s="69"/>
-      <c r="BI74" s="69"/>
-      <c r="BJ74" s="69"/>
-      <c r="BK74" s="69"/>
+      <c r="BF74" s="64"/>
+      <c r="BG74" s="64"/>
+      <c r="BH74" s="64"/>
+      <c r="BI74" s="64"/>
+      <c r="BJ74" s="64"/>
+      <c r="BK74" s="64"/>
       <c r="BL74" s="6"/>
       <c r="BM74" s="6"/>
       <c r="BN74" s="6"/>
@@ -6657,12 +6792,12 @@
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="75"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -6711,12 +6846,12 @@
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
       <c r="BE75" s="6"/>
-      <c r="BF75" s="69"/>
-      <c r="BG75" s="69"/>
-      <c r="BH75" s="69"/>
-      <c r="BI75" s="69"/>
-      <c r="BJ75" s="69"/>
-      <c r="BK75" s="69"/>
+      <c r="BF75" s="64"/>
+      <c r="BG75" s="64"/>
+      <c r="BH75" s="64"/>
+      <c r="BI75" s="64"/>
+      <c r="BJ75" s="64"/>
+      <c r="BK75" s="64"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
       <c r="BN75" s="6"/>
@@ -6793,12 +6928,12 @@
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="75"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -6847,12 +6982,12 @@
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
       <c r="BE77" s="6"/>
-      <c r="BF77" s="69"/>
-      <c r="BG77" s="69"/>
-      <c r="BH77" s="69"/>
-      <c r="BI77" s="69"/>
-      <c r="BJ77" s="69"/>
-      <c r="BK77" s="69"/>
+      <c r="BF77" s="64"/>
+      <c r="BG77" s="64"/>
+      <c r="BH77" s="64"/>
+      <c r="BI77" s="64"/>
+      <c r="BJ77" s="64"/>
+      <c r="BK77" s="64"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
       <c r="BN77" s="6"/>
@@ -6861,12 +6996,12 @@
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -6915,12 +7050,12 @@
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
       <c r="BE78" s="6"/>
-      <c r="BF78" s="69"/>
-      <c r="BG78" s="69"/>
-      <c r="BH78" s="69"/>
-      <c r="BI78" s="69"/>
-      <c r="BJ78" s="69"/>
-      <c r="BK78" s="69"/>
+      <c r="BF78" s="64"/>
+      <c r="BG78" s="64"/>
+      <c r="BH78" s="64"/>
+      <c r="BI78" s="64"/>
+      <c r="BJ78" s="64"/>
+      <c r="BK78" s="64"/>
       <c r="BL78" s="6"/>
       <c r="BM78" s="6"/>
       <c r="BN78" s="6"/>
@@ -6929,12 +7064,12 @@
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -6983,12 +7118,12 @@
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
       <c r="BE79" s="6"/>
-      <c r="BF79" s="69"/>
-      <c r="BG79" s="69"/>
-      <c r="BH79" s="69"/>
-      <c r="BI79" s="69"/>
-      <c r="BJ79" s="69"/>
-      <c r="BK79" s="69"/>
+      <c r="BF79" s="64"/>
+      <c r="BG79" s="64"/>
+      <c r="BH79" s="64"/>
+      <c r="BI79" s="64"/>
+      <c r="BJ79" s="64"/>
+      <c r="BK79" s="64"/>
       <c r="BL79" s="6"/>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
@@ -6997,12 +7132,12 @@
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -7133,12 +7268,12 @@
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -7187,12 +7322,12 @@
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
       <c r="BE82" s="6"/>
-      <c r="BF82" s="69"/>
-      <c r="BG82" s="69"/>
-      <c r="BH82" s="69"/>
-      <c r="BI82" s="69"/>
-      <c r="BJ82" s="69"/>
-      <c r="BK82" s="69"/>
+      <c r="BF82" s="64"/>
+      <c r="BG82" s="64"/>
+      <c r="BH82" s="64"/>
+      <c r="BI82" s="64"/>
+      <c r="BJ82" s="64"/>
+      <c r="BK82" s="64"/>
       <c r="BL82" s="6"/>
       <c r="BM82" s="6"/>
       <c r="BN82" s="6"/>
@@ -7201,12 +7336,12 @@
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="69"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -7269,12 +7404,12 @@
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -7337,12 +7472,12 @@
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -7391,12 +7526,12 @@
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
       <c r="BE85" s="6"/>
-      <c r="BF85" s="69"/>
-      <c r="BG85" s="69"/>
-      <c r="BH85" s="69"/>
-      <c r="BI85" s="69"/>
-      <c r="BJ85" s="69"/>
-      <c r="BK85" s="69"/>
+      <c r="BF85" s="64"/>
+      <c r="BG85" s="64"/>
+      <c r="BH85" s="64"/>
+      <c r="BI85" s="64"/>
+      <c r="BJ85" s="64"/>
+      <c r="BK85" s="64"/>
       <c r="BL85" s="6"/>
       <c r="BM85" s="6"/>
       <c r="BN85" s="6"/>
@@ -7813,29 +7948,96 @@
       <c r="AB92" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="G62:L62"/>
+  <mergeCells count="135">
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P9:X9"/>
+    <mergeCell ref="P42:X42"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BF79:BK79"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF78:BK78"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF64:BK64"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF54:BK54"/>
+    <mergeCell ref="BF85:BK85"/>
+    <mergeCell ref="BF75:BK75"/>
+    <mergeCell ref="BF74:BK74"/>
+    <mergeCell ref="BF59:BK59"/>
+    <mergeCell ref="BF60:BK60"/>
+    <mergeCell ref="BF65:BK65"/>
+    <mergeCell ref="BF55:BK55"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AZ71:BE71"/>
+    <mergeCell ref="AZ67:BE67"/>
+    <mergeCell ref="AZ58:BE58"/>
+    <mergeCell ref="AZ59:BE59"/>
+    <mergeCell ref="AZ52:BE52"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BF52:BK52"/>
+    <mergeCell ref="BF82:BK82"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
     <mergeCell ref="G53:L53"/>
     <mergeCell ref="G54:L54"/>
     <mergeCell ref="AK53:AP53"/>
@@ -7860,91 +8062,28 @@
     <mergeCell ref="P18:X18"/>
     <mergeCell ref="P19:X19"/>
     <mergeCell ref="P33:X33"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="BF85:BK85"/>
-    <mergeCell ref="BF75:BK75"/>
-    <mergeCell ref="BF74:BK74"/>
-    <mergeCell ref="BF59:BK59"/>
-    <mergeCell ref="BF60:BK60"/>
-    <mergeCell ref="BF65:BK65"/>
-    <mergeCell ref="BF55:BK55"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AZ71:BE71"/>
-    <mergeCell ref="AZ67:BE67"/>
-    <mergeCell ref="AZ58:BE58"/>
-    <mergeCell ref="AZ59:BE59"/>
-    <mergeCell ref="AZ52:BE52"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="AT5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BF52:BK52"/>
-    <mergeCell ref="BF82:BK82"/>
-    <mergeCell ref="BF79:BK79"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF78:BK78"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF64:BK64"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF54:BK54"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BK5"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="G62:L62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_3zaizd.xlsx
+++ b/Rozklad_3zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="20730" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="20730" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="136">
   <si>
     <t>І</t>
   </si>
@@ -304,6 +304,129 @@
   </si>
   <si>
     <t>доц. Маляр Л.В.</t>
+  </si>
+  <si>
+    <t>Топографія з основами геодезії, ст. викл. Стасюк В.І.</t>
+  </si>
+  <si>
+    <t>Топографія з основами геодезії, ст. викл. Стасюк В.І. (іспит)</t>
+  </si>
+  <si>
+    <t>Топографія</t>
+  </si>
+  <si>
+    <t>ст. викл. Стасюк В.І.</t>
+  </si>
+  <si>
+    <t>проф. Дробнич В.Г.</t>
+  </si>
+  <si>
+    <t>Математичні методи в землевпорядкуванні (іспит)</t>
+  </si>
+  <si>
+    <t>Образотворча грамота</t>
+  </si>
+  <si>
+    <t>ст. викл. Кіс Н.Ю.</t>
+  </si>
+  <si>
+    <t>Образотворча грамота (залік)</t>
+  </si>
+  <si>
+    <t>Ботаніка</t>
+  </si>
+  <si>
+    <t>доц. Мигаль А.В.</t>
+  </si>
+  <si>
+    <t>Вступ до спеціальності</t>
+  </si>
+  <si>
+    <t>доц. Шишканинець І.Ф.</t>
+  </si>
+  <si>
+    <t>Вступ до спеціальності (іспит)</t>
+  </si>
+  <si>
+    <t>Грунтознавство з основами географії грунтів, доц. Салюк М.Р.</t>
+  </si>
+  <si>
+    <t>Основи екології, доц. Фекета І.Ю.</t>
+  </si>
+  <si>
+    <t>Основи екології (залік), доц. Фекета І.Ю.</t>
+  </si>
+  <si>
+    <t>Інженерна графіка в землеустрої</t>
+  </si>
+  <si>
+    <t>ас. Ваш Я.І.</t>
+  </si>
+  <si>
+    <t>Інформатика та  програмування геозадач</t>
+  </si>
+  <si>
+    <t>доц. Радиш І.П.</t>
+  </si>
+  <si>
+    <t>Хімія</t>
+  </si>
+  <si>
+    <t>хім. фак.</t>
+  </si>
+  <si>
+    <t>проф. Поторій М.В.</t>
+  </si>
+  <si>
+    <t>Фізична географія материків і океанів  (кр)</t>
+  </si>
+  <si>
+    <t>ст. викл. Мельничук В.П.</t>
+  </si>
+  <si>
+    <t>Метеорологія та кліматологія</t>
+  </si>
+  <si>
+    <t>Рекреаційна географія та географія туризму</t>
+  </si>
+  <si>
+    <t>ст. викл. Шароді В.В.</t>
+  </si>
+  <si>
+    <t>Біогеографія</t>
+  </si>
+  <si>
+    <t>доц. Фекета І.Ю.</t>
+  </si>
+  <si>
+    <t>Біогеографія (залік)</t>
+  </si>
+  <si>
+    <t>Основи картографії</t>
+  </si>
+  <si>
+    <t>ст. викл. Лахоцька Е.Я.</t>
+  </si>
+  <si>
+    <t>Геодезія</t>
+  </si>
+  <si>
+    <t>Безпека життєдіяльності та охорона праці</t>
+  </si>
+  <si>
+    <t>Безпека життєдіяльності та охорона праці (залік)</t>
+  </si>
+  <si>
+    <t>Фотограмметрія та дистанційне зондування</t>
+  </si>
+  <si>
+    <t>ст. викл. Жиган М.В.</t>
+  </si>
+  <si>
+    <t>викл. Бубенко С.П.</t>
+  </si>
+  <si>
+    <t>Геодезія (іспит)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -721,95 +844,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,7 +1218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1094,10 +1229,10 @@
   <dimension ref="A1:BT92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI26" sqref="AI26"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,373 +1313,373 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="66" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="66" t="s">
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="66" t="s">
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="66" t="s">
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="67" t="s">
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="68"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="84"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="85"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="70" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="69" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="73" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="70"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="70" t="s">
+      <c r="T2" s="72"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="69" t="s">
+      <c r="W2" s="72"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="73" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="70" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="69" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="73" t="s">
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="70" t="s">
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="69" t="s">
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="73" t="s">
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="70" t="s">
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="69" t="s">
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="73" t="s">
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="70" t="s">
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="74"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="80"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="69" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="70" t="s">
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="73" t="s">
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="75"/>
+      <c r="BF3" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="70"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="70" t="s">
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="70"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="70" t="s">
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="70"/>
-      <c r="BN3" s="74"/>
-      <c r="BO3" s="77"/>
-      <c r="BP3" s="77"/>
-      <c r="BQ3" s="77"/>
-      <c r="BR3" s="77"/>
-      <c r="BS3" s="77"/>
-      <c r="BT3" s="77"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="86"/>
+      <c r="BP3" s="86"/>
+      <c r="BQ3" s="86"/>
+      <c r="BR3" s="86"/>
+      <c r="BS3" s="86"/>
+      <c r="BT3" s="86"/>
     </row>
     <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="69" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="69" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="K4" s="72"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="70"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="69" t="s">
+      <c r="N4" s="72"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="69" t="s">
+      <c r="Q4" s="72"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="70"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="69" t="s">
+      <c r="T4" s="72"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="70"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="69" t="s">
+      <c r="W4" s="72"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="69" t="s">
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="69" t="s">
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="69" t="s">
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="69" t="s">
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="69" t="s">
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="69" t="s">
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="73" t="s">
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="69" t="s">
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="69" t="s">
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="73" t="s">
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="81" t="s">
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="83"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="78"/>
       <c r="BL4" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="BM4" s="70"/>
-      <c r="BN4" s="74"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="80"/>
       <c r="BO4" s="25"/>
       <c r="BP4" s="25"/>
       <c r="BQ4" s="25"/>
@@ -1553,103 +1688,103 @@
       <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80" t="s">
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="69" t="s">
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="69" t="s">
+      <c r="Q5" s="72"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="70"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="69" t="s">
+      <c r="T5" s="72"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="70"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="69" t="s">
+      <c r="W5" s="72"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="69" t="s">
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="69" t="s">
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="69" t="s">
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="69" t="s">
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="69" t="s">
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="69" t="s">
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="72"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="69" t="s">
+      <c r="AU5" s="72"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="72"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="72"/>
-      <c r="BC5" s="69" t="s">
+      <c r="BA5" s="72"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="72"/>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="70"/>
-      <c r="BH5" s="71"/>
+      <c r="BD5" s="72"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="71"/>
+      <c r="BG5" s="72"/>
+      <c r="BH5" s="73"/>
       <c r="BI5" s="79"/>
-      <c r="BJ5" s="70"/>
-      <c r="BK5" s="72"/>
-      <c r="BL5" s="73" t="s">
+      <c r="BJ5" s="72"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="BM5" s="70"/>
-      <c r="BN5" s="74"/>
+      <c r="BM5" s="72"/>
+      <c r="BN5" s="80"/>
       <c r="BO5" s="25"/>
       <c r="BP5" s="25"/>
       <c r="BQ5" s="25"/>
@@ -1870,25 +2005,33 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="37"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="R7" s="52"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="38"/>
+      <c r="S7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="U7" s="52"/>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -1899,29 +2042,33 @@
       <c r="AB7" s="54"/>
       <c r="AC7" s="38"/>
       <c r="AD7" s="38"/>
-      <c r="AE7" s="58" t="s">
+      <c r="AE7" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="AF7" s="58" t="s">
+      <c r="AF7" s="57" t="s">
         <v>84</v>
       </c>
       <c r="AG7" s="43"/>
       <c r="AH7" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="AI7" s="38" t="s">
+      <c r="AI7" s="63" t="s">
         <v>87</v>
       </c>
       <c r="AJ7" s="52"/>
-      <c r="AK7" s="58" t="s">
+      <c r="AK7" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="AL7" s="58" t="s">
+      <c r="AL7" s="57" t="s">
         <v>84</v>
       </c>
       <c r="AM7" s="52"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
+      <c r="AN7" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO7" s="63" t="s">
+        <v>102</v>
+      </c>
       <c r="AP7" s="43"/>
       <c r="AQ7" s="45"/>
       <c r="AR7" s="38"/>
@@ -1956,25 +2103,33 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="21"/>
+      <c r="S8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="U8" s="23"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
@@ -1984,30 +2139,34 @@
       <c r="AA8" s="23"/>
       <c r="AB8" s="24"/>
       <c r="AC8" s="21"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58" t="s">
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="AF8" s="58" t="s">
+      <c r="AF8" s="57" t="s">
         <v>84</v>
       </c>
       <c r="AG8" s="22"/>
       <c r="AH8" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AI8" s="38" t="s">
+      <c r="AI8" s="63" t="s">
         <v>87</v>
       </c>
       <c r="AJ8" s="23"/>
-      <c r="AK8" s="58" t="s">
+      <c r="AK8" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="AL8" s="58" t="s">
+      <c r="AL8" s="57" t="s">
         <v>84</v>
       </c>
       <c r="AM8" s="23"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
+      <c r="AN8" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO8" s="63" t="s">
+        <v>102</v>
+      </c>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="20"/>
       <c r="AR8" s="21"/>
@@ -2042,42 +2201,52 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="D9" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="24"/>
       <c r="K9" s="21"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="O9" s="22"/>
-      <c r="P9" s="84" t="s">
+      <c r="P9" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
-      <c r="AA9" s="87"/>
+      <c r="AA9" s="64"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="21"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF9" s="57" t="s">
+        <v>102</v>
+      </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AI9" s="38" t="s">
+      <c r="AI9" s="63" t="s">
         <v>87</v>
       </c>
       <c r="AJ9" s="23"/>
@@ -2120,17 +2289,23 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="D10" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="31"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="O10" s="32"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
@@ -2146,9 +2321,13 @@
       <c r="AA10" s="23"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="21"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF10" s="57" t="s">
+        <v>102</v>
+      </c>
       <c r="AG10" s="22"/>
       <c r="AH10" s="20"/>
       <c r="AI10" s="21"/>
@@ -2259,49 +2438,59 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="6"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R12" s="8"/>
       <c r="S12" s="10"/>
       <c r="T12" s="6"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="9"/>
+      <c r="V12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="58" t="s">
+      <c r="AE12" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AF12" s="58" t="s">
+      <c r="AF12" s="57" t="s">
         <v>84</v>
       </c>
       <c r="AG12" s="9"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="8"/>
-      <c r="AK12" s="58" t="s">
+      <c r="AK12" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AL12" s="58" t="s">
+      <c r="AL12" s="57" t="s">
         <v>84</v>
       </c>
       <c r="AM12" s="8"/>
@@ -2341,29 +2530,43 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="6"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R13" s="8"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="6"/>
+      <c r="S13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="U13" s="8"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="9"/>
+      <c r="V13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="8"/>
@@ -2417,12 +2620,14 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
+      <c r="D14" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6"/>
       <c r="L14" s="8"/>
@@ -2433,11 +2638,19 @@
         <v>74</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R14" s="8"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="6"/>
+      <c r="S14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="U14" s="8"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -2493,12 +2706,14 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
+      <c r="D15" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="10"/>
       <c r="K15" s="6"/>
       <c r="L15" s="8"/>
@@ -2509,8 +2724,12 @@
         <v>74</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="6"/>
+      <c r="P15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
       <c r="T15" s="6"/>
@@ -2639,12 +2858,14 @@
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
+      <c r="D17" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="88"/>
       <c r="J17" s="10"/>
       <c r="K17" s="6"/>
       <c r="L17" s="8"/>
@@ -2660,8 +2881,12 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="6"/>
+      <c r="S17" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="U17" s="8"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -2717,14 +2942,20 @@
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="6"/>
+      <c r="D18" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
         <v>60</v>
@@ -2735,17 +2966,17 @@
       <c r="O18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="75" t="s">
+      <c r="P18" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="76"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="70"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="8"/>
@@ -2803,23 +3034,27 @@
       <c r="G19" s="10"/>
       <c r="H19" s="6"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="75" t="s">
+      <c r="P19" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="76"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="70"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="8"/>
@@ -3013,22 +3248,26 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="6"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="R22" s="8"/>
       <c r="S22" s="10"/>
       <c r="T22" s="6"/>
@@ -3091,28 +3330,40 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="6"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="R23" s="8"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="6"/>
+      <c r="S23" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="U23" s="8"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+      <c r="V23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="6"/>
@@ -3165,26 +3416,44 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="6"/>
+      <c r="D24" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="6"/>
+      <c r="P24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="R24" s="8"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="6"/>
+      <c r="S24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="U24" s="8"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
+      <c r="V24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="6"/>
@@ -3237,20 +3506,20 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
+      <c r="D25" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="91"/>
       <c r="J25" s="10"/>
       <c r="K25" s="6"/>
       <c r="L25" s="8"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="6"/>
       <c r="R25" s="8"/>
       <c r="S25" s="10"/>
       <c r="T25" s="6"/>
@@ -3471,8 +3740,12 @@
       <c r="G28" s="10"/>
       <c r="H28" s="6"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="6"/>
+      <c r="J28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="6" t="s">
         <v>75</v>
@@ -3481,11 +3754,19 @@
         <v>76</v>
       </c>
       <c r="O28" s="9"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="6"/>
+      <c r="P28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R28" s="8"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="6"/>
+      <c r="S28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="U28" s="8"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -3557,8 +3838,12 @@
       <c r="G29" s="10"/>
       <c r="H29" s="6"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="6"/>
+      <c r="J29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="L29" s="8"/>
       <c r="M29" s="3" t="s">
         <v>79</v>
@@ -3567,11 +3852,19 @@
         <v>80</v>
       </c>
       <c r="O29" s="9"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="6"/>
+      <c r="P29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R29" s="8"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="6"/>
+      <c r="S29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="U29" s="8"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -3696,16 +3989,16 @@
       <c r="BN30" s="9"/>
     </row>
     <row r="31" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="61" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="49"/>
@@ -3795,7 +4088,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="8"/>
       <c r="O32" s="9"/>
-      <c r="Q32" s="63"/>
+      <c r="Q32" s="62"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="8"/>
@@ -3857,8 +4150,12 @@
       <c r="G33" s="10"/>
       <c r="H33" s="6"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="6"/>
+      <c r="J33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="6" t="s">
         <v>77</v>
@@ -3867,17 +4164,17 @@
         <v>78</v>
       </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="75" t="s">
+      <c r="P33" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="76"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="70"/>
       <c r="Y33" s="20" t="s">
         <v>81</v>
       </c>
@@ -3943,20 +4240,40 @@
       <c r="G34" s="10"/>
       <c r="H34" s="6"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="6"/>
+      <c r="J34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="L34" s="8"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="M34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="6"/>
+      <c r="P34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="R34" s="8"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="6"/>
+      <c r="S34" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="U34" s="8"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="V34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="20" t="s">
         <v>81</v>
@@ -4009,7 +4326,7 @@
       <c r="BM34" s="6"/>
       <c r="BN34" s="9"/>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>3</v>
@@ -4029,8 +4346,12 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="6"/>
+      <c r="P35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="R35" s="8"/>
       <c r="S35" s="10"/>
       <c r="T35" s="6"/>
@@ -4159,20 +4480,20 @@
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="76"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="70"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="8"/>
@@ -4233,22 +4554,41 @@
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="6"/>
+      <c r="D38" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="L38" s="8"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="6"/>
+      <c r="M38" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="O38" s="9"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="6"/>
+      <c r="P38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="R38" s="8"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="6"/>
+      <c r="S38" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="U38" s="8"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -4304,23 +4644,37 @@
       <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="8"/>
+      <c r="D39" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="91"/>
       <c r="J39" s="10"/>
       <c r="K39" s="6"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="M39" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="O39" s="9"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="6"/>
+      <c r="P39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="R39" s="8"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="6"/>
+      <c r="S39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="U39" s="8"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -4524,20 +4878,24 @@
       <c r="J42" s="31"/>
       <c r="K42" s="29"/>
       <c r="L42" s="30"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="M42" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="O42" s="32"/>
-      <c r="P42" s="75" t="s">
+      <c r="P42" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="76"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="70"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="8"/>
@@ -4601,11 +4959,13 @@
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
       <c r="O43" s="32"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="6"/>
+      <c r="P43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R43" s="8"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="6"/>
       <c r="U43" s="8"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
@@ -4677,11 +5037,13 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="6"/>
+      <c r="P44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R44" s="8"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="6"/>
       <c r="U44" s="8"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -4749,8 +5111,12 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="6"/>
+      <c r="P45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R45" s="8"/>
       <c r="S45" s="10"/>
       <c r="T45" s="6"/>
@@ -4888,11 +5254,19 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="9"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="6"/>
+      <c r="P47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="R47" s="8"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="6"/>
+      <c r="S47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="U47" s="8"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
@@ -4960,11 +5334,19 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="9"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="6"/>
+      <c r="P48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="R48" s="8"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="6"/>
+      <c r="S48" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="U48" s="8"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
@@ -5032,11 +5414,19 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="9"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="6"/>
+      <c r="P49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="R49" s="8"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="6"/>
+      <c r="S49" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="U49" s="8"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -5276,18 +5666,18 @@
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
       <c r="AY52" s="6"/>
-      <c r="AZ52" s="64"/>
-      <c r="BA52" s="64"/>
-      <c r="BB52" s="64"/>
-      <c r="BC52" s="64"/>
-      <c r="BD52" s="64"/>
-      <c r="BE52" s="64"/>
-      <c r="BF52" s="64"/>
-      <c r="BG52" s="64"/>
-      <c r="BH52" s="64"/>
-      <c r="BI52" s="64"/>
-      <c r="BJ52" s="64"/>
-      <c r="BK52" s="64"/>
+      <c r="AZ52" s="69"/>
+      <c r="BA52" s="69"/>
+      <c r="BB52" s="69"/>
+      <c r="BC52" s="69"/>
+      <c r="BD52" s="69"/>
+      <c r="BE52" s="69"/>
+      <c r="BF52" s="69"/>
+      <c r="BG52" s="69"/>
+      <c r="BH52" s="69"/>
+      <c r="BI52" s="69"/>
+      <c r="BJ52" s="69"/>
+      <c r="BK52" s="69"/>
       <c r="BL52" s="6"/>
       <c r="BM52" s="6"/>
       <c r="BN52" s="6"/>
@@ -5299,12 +5689,12 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -5329,12 +5719,12 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="64"/>
-      <c r="AL53" s="64"/>
-      <c r="AM53" s="64"/>
-      <c r="AN53" s="64"/>
-      <c r="AO53" s="64"/>
-      <c r="AP53" s="64"/>
+      <c r="AK53" s="69"/>
+      <c r="AL53" s="69"/>
+      <c r="AM53" s="69"/>
+      <c r="AN53" s="69"/>
+      <c r="AO53" s="69"/>
+      <c r="AP53" s="69"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
@@ -5350,12 +5740,12 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="64"/>
-      <c r="BG53" s="64"/>
-      <c r="BH53" s="64"/>
-      <c r="BI53" s="64"/>
-      <c r="BJ53" s="64"/>
-      <c r="BK53" s="64"/>
+      <c r="BF53" s="69"/>
+      <c r="BG53" s="69"/>
+      <c r="BH53" s="69"/>
+      <c r="BI53" s="69"/>
+      <c r="BJ53" s="69"/>
+      <c r="BK53" s="69"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
@@ -5367,12 +5757,12 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -5418,12 +5808,12 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="64"/>
-      <c r="BG54" s="64"/>
-      <c r="BH54" s="64"/>
-      <c r="BI54" s="64"/>
-      <c r="BJ54" s="64"/>
-      <c r="BK54" s="64"/>
+      <c r="BF54" s="69"/>
+      <c r="BG54" s="69"/>
+      <c r="BH54" s="69"/>
+      <c r="BI54" s="69"/>
+      <c r="BJ54" s="69"/>
+      <c r="BK54" s="69"/>
       <c r="BL54" s="6"/>
       <c r="BM54" s="6"/>
       <c r="BN54" s="6"/>
@@ -5486,12 +5876,12 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="64"/>
-      <c r="BG55" s="64"/>
-      <c r="BH55" s="64"/>
-      <c r="BI55" s="64"/>
-      <c r="BJ55" s="64"/>
-      <c r="BK55" s="64"/>
+      <c r="BF55" s="69"/>
+      <c r="BG55" s="69"/>
+      <c r="BH55" s="69"/>
+      <c r="BI55" s="69"/>
+      <c r="BJ55" s="69"/>
+      <c r="BK55" s="69"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
@@ -5503,12 +5893,12 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -5571,12 +5961,12 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -5636,12 +6026,12 @@
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -5684,12 +6074,12 @@
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="64"/>
-      <c r="BA58" s="64"/>
-      <c r="BB58" s="64"/>
-      <c r="BC58" s="64"/>
-      <c r="BD58" s="64"/>
-      <c r="BE58" s="64"/>
+      <c r="AZ58" s="69"/>
+      <c r="BA58" s="69"/>
+      <c r="BB58" s="69"/>
+      <c r="BC58" s="69"/>
+      <c r="BD58" s="69"/>
+      <c r="BE58" s="69"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
@@ -5704,12 +6094,12 @@
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -5752,18 +6142,18 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
-      <c r="AZ59" s="64"/>
-      <c r="BA59" s="64"/>
-      <c r="BB59" s="64"/>
-      <c r="BC59" s="64"/>
-      <c r="BD59" s="64"/>
-      <c r="BE59" s="64"/>
-      <c r="BF59" s="64"/>
-      <c r="BG59" s="64"/>
-      <c r="BH59" s="64"/>
-      <c r="BI59" s="64"/>
-      <c r="BJ59" s="64"/>
-      <c r="BK59" s="64"/>
+      <c r="AZ59" s="69"/>
+      <c r="BA59" s="69"/>
+      <c r="BB59" s="69"/>
+      <c r="BC59" s="69"/>
+      <c r="BD59" s="69"/>
+      <c r="BE59" s="69"/>
+      <c r="BF59" s="69"/>
+      <c r="BG59" s="69"/>
+      <c r="BH59" s="69"/>
+      <c r="BI59" s="69"/>
+      <c r="BJ59" s="69"/>
+      <c r="BK59" s="69"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
       <c r="BN59" s="6"/>
@@ -5826,12 +6216,12 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="64"/>
-      <c r="BG60" s="64"/>
-      <c r="BH60" s="64"/>
-      <c r="BI60" s="64"/>
-      <c r="BJ60" s="64"/>
-      <c r="BK60" s="64"/>
+      <c r="BF60" s="69"/>
+      <c r="BG60" s="69"/>
+      <c r="BH60" s="69"/>
+      <c r="BI60" s="69"/>
+      <c r="BJ60" s="69"/>
+      <c r="BK60" s="69"/>
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
@@ -5911,12 +6301,12 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -5962,12 +6352,12 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="64"/>
-      <c r="BG62" s="64"/>
-      <c r="BH62" s="64"/>
-      <c r="BI62" s="64"/>
-      <c r="BJ62" s="64"/>
-      <c r="BK62" s="64"/>
+      <c r="BF62" s="69"/>
+      <c r="BG62" s="69"/>
+      <c r="BH62" s="69"/>
+      <c r="BI62" s="69"/>
+      <c r="BJ62" s="69"/>
+      <c r="BK62" s="69"/>
       <c r="BL62" s="6"/>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
@@ -5979,12 +6369,12 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -6030,12 +6420,12 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="64"/>
-      <c r="BG63" s="64"/>
-      <c r="BH63" s="64"/>
-      <c r="BI63" s="64"/>
-      <c r="BJ63" s="64"/>
-      <c r="BK63" s="64"/>
+      <c r="BF63" s="69"/>
+      <c r="BG63" s="69"/>
+      <c r="BH63" s="69"/>
+      <c r="BI63" s="69"/>
+      <c r="BJ63" s="69"/>
+      <c r="BK63" s="69"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
@@ -6044,12 +6434,12 @@
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -6098,12 +6488,12 @@
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="64"/>
-      <c r="BG64" s="64"/>
-      <c r="BH64" s="64"/>
-      <c r="BI64" s="64"/>
-      <c r="BJ64" s="64"/>
-      <c r="BK64" s="64"/>
+      <c r="BF64" s="69"/>
+      <c r="BG64" s="69"/>
+      <c r="BH64" s="69"/>
+      <c r="BI64" s="69"/>
+      <c r="BJ64" s="69"/>
+      <c r="BK64" s="69"/>
       <c r="BL64" s="6"/>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
@@ -6166,12 +6556,12 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
       <c r="BE65" s="6"/>
-      <c r="BF65" s="64"/>
-      <c r="BG65" s="64"/>
-      <c r="BH65" s="64"/>
-      <c r="BI65" s="64"/>
-      <c r="BJ65" s="64"/>
-      <c r="BK65" s="64"/>
+      <c r="BF65" s="69"/>
+      <c r="BG65" s="69"/>
+      <c r="BH65" s="69"/>
+      <c r="BI65" s="69"/>
+      <c r="BJ65" s="69"/>
+      <c r="BK65" s="69"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
@@ -6248,12 +6638,12 @@
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -6296,12 +6686,12 @@
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
       <c r="AY67" s="6"/>
-      <c r="AZ67" s="64"/>
-      <c r="BA67" s="64"/>
-      <c r="BB67" s="64"/>
-      <c r="BC67" s="64"/>
-      <c r="BD67" s="64"/>
-      <c r="BE67" s="64"/>
+      <c r="AZ67" s="69"/>
+      <c r="BA67" s="69"/>
+      <c r="BB67" s="69"/>
+      <c r="BC67" s="69"/>
+      <c r="BD67" s="69"/>
+      <c r="BE67" s="69"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
       <c r="BH67" s="6"/>
@@ -6319,12 +6709,12 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="64"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -6387,12 +6777,12 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -6438,12 +6828,12 @@
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
       <c r="BE69" s="6"/>
-      <c r="BF69" s="78"/>
-      <c r="BG69" s="78"/>
-      <c r="BH69" s="78"/>
-      <c r="BI69" s="78"/>
-      <c r="BJ69" s="78"/>
-      <c r="BK69" s="78"/>
+      <c r="BF69" s="82"/>
+      <c r="BG69" s="82"/>
+      <c r="BH69" s="82"/>
+      <c r="BI69" s="82"/>
+      <c r="BJ69" s="82"/>
+      <c r="BK69" s="82"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
@@ -6568,12 +6958,12 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="6"/>
-      <c r="AZ71" s="78"/>
-      <c r="BA71" s="78"/>
-      <c r="BB71" s="78"/>
-      <c r="BC71" s="78"/>
-      <c r="BD71" s="78"/>
-      <c r="BE71" s="78"/>
+      <c r="AZ71" s="82"/>
+      <c r="BA71" s="82"/>
+      <c r="BB71" s="82"/>
+      <c r="BC71" s="82"/>
+      <c r="BD71" s="82"/>
+      <c r="BE71" s="82"/>
       <c r="BF71" s="6"/>
       <c r="BG71" s="6"/>
       <c r="BH71" s="6"/>
@@ -6588,12 +6978,12 @@
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -6656,12 +7046,12 @@
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -6710,12 +7100,12 @@
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
       <c r="BE73" s="6"/>
-      <c r="BF73" s="64"/>
-      <c r="BG73" s="64"/>
-      <c r="BH73" s="64"/>
-      <c r="BI73" s="64"/>
-      <c r="BJ73" s="64"/>
-      <c r="BK73" s="64"/>
+      <c r="BF73" s="69"/>
+      <c r="BG73" s="69"/>
+      <c r="BH73" s="69"/>
+      <c r="BI73" s="69"/>
+      <c r="BJ73" s="69"/>
+      <c r="BK73" s="69"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
       <c r="BN73" s="6"/>
@@ -6724,12 +7114,12 @@
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -6778,12 +7168,12 @@
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
       <c r="BE74" s="6"/>
-      <c r="BF74" s="64"/>
-      <c r="BG74" s="64"/>
-      <c r="BH74" s="64"/>
-      <c r="BI74" s="64"/>
-      <c r="BJ74" s="64"/>
-      <c r="BK74" s="64"/>
+      <c r="BF74" s="69"/>
+      <c r="BG74" s="69"/>
+      <c r="BH74" s="69"/>
+      <c r="BI74" s="69"/>
+      <c r="BJ74" s="69"/>
+      <c r="BK74" s="69"/>
       <c r="BL74" s="6"/>
       <c r="BM74" s="6"/>
       <c r="BN74" s="6"/>
@@ -6792,12 +7182,12 @@
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -6846,12 +7236,12 @@
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
       <c r="BE75" s="6"/>
-      <c r="BF75" s="64"/>
-      <c r="BG75" s="64"/>
-      <c r="BH75" s="64"/>
-      <c r="BI75" s="64"/>
-      <c r="BJ75" s="64"/>
-      <c r="BK75" s="64"/>
+      <c r="BF75" s="69"/>
+      <c r="BG75" s="69"/>
+      <c r="BH75" s="69"/>
+      <c r="BI75" s="69"/>
+      <c r="BJ75" s="69"/>
+      <c r="BK75" s="69"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
       <c r="BN75" s="6"/>
@@ -6928,12 +7318,12 @@
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="87"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -6982,12 +7372,12 @@
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
       <c r="BE77" s="6"/>
-      <c r="BF77" s="64"/>
-      <c r="BG77" s="64"/>
-      <c r="BH77" s="64"/>
-      <c r="BI77" s="64"/>
-      <c r="BJ77" s="64"/>
-      <c r="BK77" s="64"/>
+      <c r="BF77" s="69"/>
+      <c r="BG77" s="69"/>
+      <c r="BH77" s="69"/>
+      <c r="BI77" s="69"/>
+      <c r="BJ77" s="69"/>
+      <c r="BK77" s="69"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
       <c r="BN77" s="6"/>
@@ -6996,12 +7386,12 @@
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -7050,12 +7440,12 @@
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
       <c r="BE78" s="6"/>
-      <c r="BF78" s="64"/>
-      <c r="BG78" s="64"/>
-      <c r="BH78" s="64"/>
-      <c r="BI78" s="64"/>
-      <c r="BJ78" s="64"/>
-      <c r="BK78" s="64"/>
+      <c r="BF78" s="69"/>
+      <c r="BG78" s="69"/>
+      <c r="BH78" s="69"/>
+      <c r="BI78" s="69"/>
+      <c r="BJ78" s="69"/>
+      <c r="BK78" s="69"/>
       <c r="BL78" s="6"/>
       <c r="BM78" s="6"/>
       <c r="BN78" s="6"/>
@@ -7064,12 +7454,12 @@
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="87"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="87"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -7118,12 +7508,12 @@
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
       <c r="BE79" s="6"/>
-      <c r="BF79" s="64"/>
-      <c r="BG79" s="64"/>
-      <c r="BH79" s="64"/>
-      <c r="BI79" s="64"/>
-      <c r="BJ79" s="64"/>
-      <c r="BK79" s="64"/>
+      <c r="BF79" s="69"/>
+      <c r="BG79" s="69"/>
+      <c r="BH79" s="69"/>
+      <c r="BI79" s="69"/>
+      <c r="BJ79" s="69"/>
+      <c r="BK79" s="69"/>
       <c r="BL79" s="6"/>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
@@ -7132,12 +7522,12 @@
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -7268,12 +7658,12 @@
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="87"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -7322,12 +7712,12 @@
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
       <c r="BE82" s="6"/>
-      <c r="BF82" s="64"/>
-      <c r="BG82" s="64"/>
-      <c r="BH82" s="64"/>
-      <c r="BI82" s="64"/>
-      <c r="BJ82" s="64"/>
-      <c r="BK82" s="64"/>
+      <c r="BF82" s="69"/>
+      <c r="BG82" s="69"/>
+      <c r="BH82" s="69"/>
+      <c r="BI82" s="69"/>
+      <c r="BJ82" s="69"/>
+      <c r="BK82" s="69"/>
       <c r="BL82" s="6"/>
       <c r="BM82" s="6"/>
       <c r="BN82" s="6"/>
@@ -7336,12 +7726,12 @@
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -7404,12 +7794,12 @@
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -7472,12 +7862,12 @@
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="87"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -7526,12 +7916,12 @@
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
       <c r="BE85" s="6"/>
-      <c r="BF85" s="64"/>
-      <c r="BG85" s="64"/>
-      <c r="BH85" s="64"/>
-      <c r="BI85" s="64"/>
-      <c r="BJ85" s="64"/>
-      <c r="BK85" s="64"/>
+      <c r="BF85" s="69"/>
+      <c r="BG85" s="69"/>
+      <c r="BH85" s="69"/>
+      <c r="BI85" s="69"/>
+      <c r="BJ85" s="69"/>
+      <c r="BK85" s="69"/>
       <c r="BL85" s="6"/>
       <c r="BM85" s="6"/>
       <c r="BN85" s="6"/>
@@ -7948,56 +8338,79 @@
       <c r="AB92" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P9:X9"/>
-    <mergeCell ref="P42:X42"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BK5"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BF79:BK79"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF78:BK78"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF64:BK64"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF54:BK54"/>
+  <mergeCells count="145">
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="AK53:AP53"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="P18:X18"/>
+    <mergeCell ref="P19:X19"/>
+    <mergeCell ref="P33:X33"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
     <mergeCell ref="BF85:BK85"/>
     <mergeCell ref="BF75:BK75"/>
     <mergeCell ref="BF74:BK74"/>
@@ -8022,68 +8435,55 @@
     <mergeCell ref="BC5:BE5"/>
     <mergeCell ref="BF52:BK52"/>
     <mergeCell ref="BF82:BK82"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="AK53:AP53"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="P18:X18"/>
-    <mergeCell ref="P19:X19"/>
-    <mergeCell ref="P33:X33"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BF79:BK79"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF78:BK78"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF64:BK64"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF54:BK54"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P9:X9"/>
+    <mergeCell ref="P42:X42"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_3zaizd.xlsx
+++ b/Rozklad_3zaizd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="20730" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="20730" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="V12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+на 10 годину</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="228">
   <si>
     <t>І</t>
   </si>
@@ -285,9 +321,6 @@
     <t>викл. Ляшин Я.Є.</t>
   </si>
   <si>
-    <t>педагогіка</t>
-  </si>
-  <si>
     <t>Іноземна мова</t>
   </si>
   <si>
@@ -427,13 +460,292 @@
   </si>
   <si>
     <t>Геодезія (іспит)</t>
+  </si>
+  <si>
+    <t>Метеорологія</t>
+  </si>
+  <si>
+    <t>Метеорологія (іспит)</t>
+  </si>
+  <si>
+    <t>Дендрологія</t>
+  </si>
+  <si>
+    <t>Лісознавство</t>
+  </si>
+  <si>
+    <t>Грунтознавство</t>
+  </si>
+  <si>
+    <t>ст. викл. Мойш Н.І.</t>
+  </si>
+  <si>
+    <t>Фізіологія рослин</t>
+  </si>
+  <si>
+    <t>ст. викл. Смужаниця Я.В.</t>
+  </si>
+  <si>
+    <t>Фізіологія рослин (залік)</t>
+  </si>
+  <si>
+    <t>Біометрія</t>
+  </si>
+  <si>
+    <t>доц. Чепур С.С.</t>
+  </si>
+  <si>
+    <t>Основи менеджменту та маркетингу</t>
+  </si>
+  <si>
+    <t>ст. викл. Жулканич Б.М.</t>
+  </si>
+  <si>
+    <t>Регіональна економічна і соціальна географія</t>
+  </si>
+  <si>
+    <t>ст. викл. Антонюк О.С.</t>
+  </si>
+  <si>
+    <t>Регіональна економічна і соціальна географія (іспит)</t>
+  </si>
+  <si>
+    <t>Основи моніторингу, екологічна експертиза і аудит</t>
+  </si>
+  <si>
+    <t>Понеділок, 20 березня</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вівторок, 21 березня</t>
+  </si>
+  <si>
+    <t>Середа, 22 березня</t>
+  </si>
+  <si>
+    <t>Четвер, 23 березня</t>
+  </si>
+  <si>
+    <t>П'ятниця, 24 березня</t>
+  </si>
+  <si>
+    <t>Фізична географія України (кр)</t>
+  </si>
+  <si>
+    <t>доц. Микита М.М.</t>
+  </si>
+  <si>
+    <t>Ландшафтознавство з основами  ландшафтної екології</t>
+  </si>
+  <si>
+    <t>викл. Корчинська Ж.М., Лета В.В.</t>
+  </si>
+  <si>
+    <t>Ландшафтознавство з основами  ландшафтної екології (іспит)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Географія рідного краю і методика її викладання </t>
+  </si>
+  <si>
+    <t>доц. Салюк М.Р.</t>
+  </si>
+  <si>
+    <t>Основи суспільної та соціальної географії</t>
+  </si>
+  <si>
+    <t>доц. Славік Р.В.</t>
+  </si>
+  <si>
+    <t>Фотограмметрія та дистанційне зондування (іспит)</t>
+  </si>
+  <si>
+    <t>Землеустрій</t>
+  </si>
+  <si>
+    <t>ст. викл. Пересоляк Р.В.</t>
+  </si>
+  <si>
+    <t>Охорона праці</t>
+  </si>
+  <si>
+    <t>Математична обробка геодезичних вимірювань</t>
+  </si>
+  <si>
+    <t>ст. викл. Ничвид М.Р.</t>
+  </si>
+  <si>
+    <t>Основи GPS-технологій</t>
+  </si>
+  <si>
+    <t>Основи GPS-технологій  (залік)</t>
+  </si>
+  <si>
+    <t>Математичні методи в землевпорядкуванні</t>
+  </si>
+  <si>
+    <t>Вища математика (іспит)</t>
+  </si>
+  <si>
+    <t>викл. Калинич І.І.</t>
+  </si>
+  <si>
+    <t>Геодезичні роботи в землеустрої (залік)</t>
+  </si>
+  <si>
+    <t>ст.викл. Лахоцька Е.Я., ст. викл. Стасюк В.І.</t>
+  </si>
+  <si>
+    <t>ГІС і бази даних</t>
+  </si>
+  <si>
+    <t>ГІС і бази даних (іспит)</t>
+  </si>
+  <si>
+    <t>Земельне право</t>
+  </si>
+  <si>
+    <t>ст. викл. Марухнич Т.Б.</t>
+  </si>
+  <si>
+    <t>доцент Мигаль А.В.</t>
+  </si>
+  <si>
+    <t>Фітопатологія</t>
+  </si>
+  <si>
+    <t>доцент Мигаль А.В.; ст. викл. Мойш Н.І.</t>
+  </si>
+  <si>
+    <t>Квітникарство</t>
+  </si>
+  <si>
+    <t>ст.викл. Мойш Н.І.</t>
+  </si>
+  <si>
+    <t>Квітникарство (іспит)</t>
+  </si>
+  <si>
+    <t>Землеробство</t>
+  </si>
+  <si>
+    <t>Землеробство (іспит)</t>
+  </si>
+  <si>
+    <t>Озеленення населених місць</t>
+  </si>
+  <si>
+    <t>доц. Чепур С.С.; ст. викл. Мойш Н.І.</t>
+  </si>
+  <si>
+    <t>Декоративне луківництво</t>
+  </si>
+  <si>
+    <t>Лісові культури (кп)</t>
+  </si>
+  <si>
+    <t>ст. викл. Задорожний А.І.</t>
+  </si>
+  <si>
+    <t>Лісова пірологія</t>
+  </si>
+  <si>
+    <t>Лісова пірологія (іспит)</t>
+  </si>
+  <si>
+    <t>Лісова селекція 3 курс</t>
+  </si>
+  <si>
+    <t>Лісова селекція 3 курс (іспит)</t>
+  </si>
+  <si>
+    <t>Економічна теорія</t>
+  </si>
+  <si>
+    <t>Кушнір О.Б.</t>
+  </si>
+  <si>
+    <t>Економічна теорія (залік)</t>
+  </si>
+  <si>
+    <t>Географія промисловості</t>
+  </si>
+  <si>
+    <t>Географія ПРП України</t>
+  </si>
+  <si>
+    <t>Географія ПРП України (іспит)</t>
+  </si>
+  <si>
+    <t>Соціально-економічна статистика</t>
+  </si>
+  <si>
+    <t>Політична географія</t>
+  </si>
+  <si>
+    <t>Інформаційні технології в географії та основи географічного моделювання</t>
+  </si>
+  <si>
+    <t>ст. викл. Озимко Р. Р.</t>
+  </si>
+  <si>
+    <t>Ресурси Закарпаття (кр)</t>
+  </si>
+  <si>
+    <t>проф. Поп С.С.</t>
+  </si>
+  <si>
+    <t>Ресурси Закарпаття (іспит)</t>
+  </si>
+  <si>
+    <t>Методика викладання географії в школі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основи районного планування та гідромеліорація </t>
+  </si>
+  <si>
+    <t>ІТФ 209</t>
+  </si>
+  <si>
+    <t>доц. Голик Й.М.</t>
+  </si>
+  <si>
+    <t>ст. викл. Глюдзик Г.Б.</t>
+  </si>
+  <si>
+    <t>Основи районного планування та гідромеліорація  (іспит)</t>
+  </si>
+  <si>
+    <t>Вища геодезія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Інженерна геодезія </t>
+  </si>
+  <si>
+    <t>Регулювання продуктивності лісів (кп)</t>
+  </si>
+  <si>
+    <t>проф. Гриник Г.Г.</t>
+  </si>
+  <si>
+    <t>Філософія науки</t>
+  </si>
+  <si>
+    <t>Філософія науки (іспит)</t>
+  </si>
+  <si>
+    <t>доц. Хоменко Т.І.</t>
+  </si>
+  <si>
+    <t>Психологія управління</t>
+  </si>
+  <si>
+    <t>доц. Керестень І.С.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +758,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -671,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -865,6 +1192,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -874,30 +1279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,45 +1287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,21 +1560,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomRight" activeCell="BM8" sqref="BM7:BM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,373 +1655,373 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="83" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="83" t="s">
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="83" t="s">
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="83" t="s">
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="84" t="s">
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="84"/>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="85"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="81"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="71" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="71" t="s">
+      <c r="H2" s="83"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="72" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="74" t="s">
+      <c r="N2" s="83"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="71" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="72" t="s">
+      <c r="T2" s="83"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="72"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="74" t="s">
+      <c r="W2" s="83"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="71" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="72" t="s">
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="74" t="s">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="71" t="s">
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="72" t="s">
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="74" t="s">
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="71" t="s">
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="72" t="s">
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="74" t="s">
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="71" t="s">
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="72"/>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="72" t="s">
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="85"/>
+      <c r="BL2" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="80"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="87"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="74"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="74" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="87"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="72" t="s">
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="71" t="s">
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="85"/>
+      <c r="BF3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="72" t="s">
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="72" t="s">
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="85"/>
+      <c r="BL3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="80"/>
-      <c r="BO3" s="86"/>
-      <c r="BP3" s="86"/>
-      <c r="BQ3" s="86"/>
-      <c r="BR3" s="86"/>
-      <c r="BS3" s="86"/>
-      <c r="BT3" s="86"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="87"/>
+      <c r="BO3" s="89"/>
+      <c r="BP3" s="89"/>
+      <c r="BQ3" s="89"/>
+      <c r="BR3" s="89"/>
+      <c r="BS3" s="89"/>
+      <c r="BT3" s="89"/>
     </row>
     <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="74" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="74" t="s">
+      <c r="H4" s="83"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="74" t="s">
+      <c r="K4" s="83"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="74" t="s">
+      <c r="N4" s="83"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="74" t="s">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="74" t="s">
+      <c r="T4" s="83"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="72"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="74" t="s">
+      <c r="W4" s="83"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="74" t="s">
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="74" t="s">
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="74" t="s">
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="74" t="s">
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="74" t="s">
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="74" t="s">
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="75"/>
-      <c r="AW4" s="71" t="s">
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="74" t="s">
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="74" t="s">
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="85"/>
+      <c r="BC4" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="71" t="s">
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="85"/>
+      <c r="BF4" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="76" t="s">
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="84"/>
+      <c r="BI4" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="79" t="s">
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="80"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="87"/>
       <c r="BO4" s="25"/>
       <c r="BP4" s="25"/>
       <c r="BQ4" s="25"/>
@@ -1688,103 +2030,103 @@
       <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81" t="s">
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81" t="s">
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="74" t="s">
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74" t="s">
+      <c r="Q5" s="83"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="72"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="74" t="s">
+      <c r="T5" s="83"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="72"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="74" t="s">
+      <c r="W5" s="83"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="74" t="s">
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="74" t="s">
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="74" t="s">
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="74" t="s">
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="75"/>
-      <c r="AN5" s="74" t="s">
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="75"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="74" t="s">
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="72"/>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="72"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="74" t="s">
+      <c r="AU5" s="83"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="87"/>
+      <c r="AZ5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" s="72"/>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="74" t="s">
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="85"/>
+      <c r="BC5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" s="72"/>
-      <c r="BE5" s="75"/>
-      <c r="BF5" s="71"/>
-      <c r="BG5" s="72"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="79"/>
-      <c r="BJ5" s="72"/>
-      <c r="BK5" s="75"/>
-      <c r="BL5" s="71" t="s">
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="85"/>
+      <c r="BF5" s="86"/>
+      <c r="BG5" s="83"/>
+      <c r="BH5" s="84"/>
+      <c r="BI5" s="90"/>
+      <c r="BJ5" s="83"/>
+      <c r="BK5" s="85"/>
+      <c r="BL5" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="BM5" s="72"/>
-      <c r="BN5" s="80"/>
+      <c r="BM5" s="83"/>
+      <c r="BN5" s="87"/>
       <c r="BO5" s="25"/>
       <c r="BP5" s="25"/>
       <c r="BQ5" s="25"/>
@@ -2005,42 +2347,54 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
+      <c r="D7" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="93"/>
       <c r="P7" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="37" t="s">
         <v>119</v>
-      </c>
-      <c r="Q7" s="37" t="s">
-        <v>120</v>
       </c>
       <c r="R7" s="52"/>
       <c r="S7" s="10" t="s">
         <v>73</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U7" s="52"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
+      <c r="V7" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="W7" s="38" t="s">
+        <v>140</v>
+      </c>
       <c r="X7" s="43"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="38"/>
+      <c r="Y7" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>158</v>
+      </c>
       <c r="AA7" s="52"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="38"/>
+      <c r="AB7" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC7" s="38" t="s">
+        <v>168</v>
+      </c>
       <c r="AD7" s="38"/>
       <c r="AE7" s="57" t="s">
         <v>83</v>
@@ -2064,10 +2418,10 @@
       </c>
       <c r="AM7" s="52"/>
       <c r="AN7" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO7" s="63" t="s">
         <v>101</v>
-      </c>
-      <c r="AO7" s="63" t="s">
-        <v>102</v>
       </c>
       <c r="AP7" s="43"/>
       <c r="AQ7" s="45"/>
@@ -2091,8 +2445,12 @@
       <c r="BI7" s="36"/>
       <c r="BJ7" s="36"/>
       <c r="BK7" s="46"/>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="37"/>
+      <c r="BL7" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM7" s="37" t="s">
+        <v>227</v>
+      </c>
       <c r="BN7" s="39"/>
     </row>
     <row r="8" spans="1:72" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2103,42 +2461,54 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="67"/>
+      <c r="D8" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="93"/>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R8" s="23"/>
       <c r="S8" s="10" t="s">
         <v>73</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U8" s="23"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="V8" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="X8" s="22"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="21"/>
+      <c r="Y8" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z8" s="65" t="s">
+        <v>158</v>
+      </c>
       <c r="AA8" s="23"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="21"/>
+      <c r="AB8" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC8" s="65" t="s">
+        <v>168</v>
+      </c>
       <c r="AD8" s="57"/>
       <c r="AE8" s="57" t="s">
         <v>83</v>
@@ -2162,10 +2532,10 @@
       </c>
       <c r="AM8" s="23"/>
       <c r="AN8" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AO8" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP8" s="22"/>
       <c r="AQ8" s="20"/>
@@ -2189,11 +2559,15 @@
       <c r="BI8" s="29"/>
       <c r="BJ8" s="29"/>
       <c r="BK8" s="30"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
+      <c r="BL8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM8" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="BN8" s="9"/>
     </row>
-    <row r="9" spans="1:72" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -2201,46 +2575,50 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="90"/>
+      <c r="D9" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="24"/>
       <c r="K9" s="21"/>
       <c r="L9" s="23"/>
       <c r="M9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="O9" s="22"/>
-      <c r="P9" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
+      <c r="P9" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="64"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="21"/>
+      <c r="AB9" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="AD9" s="57"/>
       <c r="AE9" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="57" t="s">
         <v>101</v>
-      </c>
-      <c r="AF9" s="57" t="s">
-        <v>102</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="20" t="s">
@@ -2250,8 +2628,12 @@
         <v>87</v>
       </c>
       <c r="AJ9" s="23"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="21"/>
+      <c r="AK9" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL9" s="21" t="s">
+        <v>201</v>
+      </c>
       <c r="AM9" s="23"/>
       <c r="AN9" s="21"/>
       <c r="AO9" s="21"/>
@@ -2289,22 +2671,22 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="90"/>
+      <c r="D10" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="31"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
       <c r="M10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="20"/>
@@ -2317,23 +2699,35 @@
       <c r="W10" s="21"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="21"/>
+      <c r="Z10" s="36"/>
       <c r="AA10" s="23"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="21"/>
+      <c r="AB10" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC10" s="67" t="s">
+        <v>142</v>
+      </c>
       <c r="AD10" s="57"/>
       <c r="AE10" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF10" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG10" s="22"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="21"/>
+      <c r="AH10" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI10" s="21" t="s">
+        <v>211</v>
+      </c>
       <c r="AJ10" s="23"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="21"/>
+      <c r="AK10" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL10" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="AM10" s="23"/>
       <c r="AN10" s="21"/>
       <c r="AO10" s="6"/>
@@ -2438,44 +2832,52 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="88"/>
       <c r="P12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="10"/>
       <c r="T12" s="6"/>
       <c r="U12" s="8"/>
       <c r="V12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="W12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="6"/>
+      <c r="Y12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="6"/>
+      <c r="AB12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="AD12" s="6"/>
       <c r="AE12" s="57" t="s">
         <v>85</v>
@@ -2484,8 +2886,12 @@
         <v>84</v>
       </c>
       <c r="AG12" s="9"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="6"/>
+      <c r="AH12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="57" t="s">
         <v>85</v>
@@ -2530,59 +2936,77 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="88"/>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U13" s="8"/>
       <c r="V13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="W13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="6"/>
+      <c r="Y13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="6"/>
+      <c r="AB13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
+      <c r="AE13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG13" s="9"/>
       <c r="AH13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI13" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="6"/>
+      <c r="AK13" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL13" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="AM13" s="8"/>
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
@@ -2620,14 +3044,14 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="90"/>
+      <c r="D14" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6"/>
       <c r="L14" s="8"/>
@@ -2639,33 +3063,49 @@
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="9"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="6"/>
+      <c r="Y14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="6"/>
+      <c r="AB14" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
+      <c r="AE14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="6"/>
+      <c r="AH14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="10"/>
       <c r="AL14" s="6"/>
@@ -2706,14 +3146,14 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="90"/>
+      <c r="D15" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="10"/>
       <c r="K15" s="6"/>
       <c r="L15" s="8"/>
@@ -2725,10 +3165,10 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
@@ -2737,14 +3177,26 @@
       <c r="V15" s="21"/>
       <c r="W15" s="6"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="6"/>
+      <c r="Y15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="6"/>
+      <c r="AB15" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
+      <c r="AE15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="6"/>
@@ -2776,11 +3228,10 @@
       <c r="BI15" s="6"/>
       <c r="BJ15" s="6"/>
       <c r="BK15" s="8"/>
-      <c r="BL15" s="6"/>
       <c r="BM15" s="6"/>
       <c r="BN15" s="9"/>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
@@ -2844,8 +3295,12 @@
       <c r="BI16" s="6"/>
       <c r="BJ16" s="6"/>
       <c r="BK16" s="8"/>
-      <c r="BL16" s="6"/>
-      <c r="BM16" s="6"/>
+      <c r="BL16" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM16" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="BN16" s="9"/>
     </row>
     <row r="17" spans="1:66" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2858,14 +3313,14 @@
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="88"/>
+      <c r="D17" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="10"/>
       <c r="K17" s="6"/>
       <c r="L17" s="8"/>
@@ -2882,14 +3337,12 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="8"/>
       <c r="S17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T17" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T17" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="U17" s="8"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="21"/>
@@ -2903,9 +3356,15 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="8"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="8"/>
+      <c r="AK17" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="AN17" s="6"/>
       <c r="AO17" s="6"/>
       <c r="AP17" s="9"/>
@@ -2930,8 +3389,12 @@
       <c r="BI17" s="6"/>
       <c r="BJ17" s="6"/>
       <c r="BK17" s="8"/>
-      <c r="BL17" s="6"/>
-      <c r="BM17" s="6"/>
+      <c r="BL17" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM17" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="BN17" s="9"/>
     </row>
     <row r="18" spans="1:66" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2942,19 +3405,19 @@
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="88"/>
+      <c r="D18" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="6" t="s">
@@ -2966,32 +3429,50 @@
       <c r="O18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="68" t="s">
+      <c r="P18" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="6"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="6"/>
+      <c r="AB18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
+      <c r="AE18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="AG18" s="9"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="8"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="8"/>
+      <c r="AK18" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM18" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
       <c r="AP18" s="9"/>
@@ -3016,8 +3497,12 @@
       <c r="BI18" s="6"/>
       <c r="BJ18" s="6"/>
       <c r="BK18" s="8"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
+      <c r="BL18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM18" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="BN18" s="9"/>
     </row>
     <row r="19" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,37 +3520,53 @@
       <c r="H19" s="6"/>
       <c r="I19" s="8"/>
       <c r="J19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="68" t="s">
+      <c r="P19" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="6"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="6"/>
+      <c r="AB19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
+      <c r="AE19" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="AG19" s="9"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="6"/>
+      <c r="AH19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="6"/>
@@ -3094,11 +3595,15 @@
       <c r="BI19" s="6"/>
       <c r="BJ19" s="6"/>
       <c r="BK19" s="8"/>
-      <c r="BL19" s="6"/>
-      <c r="BM19" s="6"/>
+      <c r="BL19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM19" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="BN19" s="9"/>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>3</v>
@@ -3127,14 +3632,20 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="9"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="6"/>
+      <c r="Y20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="6"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
+      <c r="AE20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="AG20" s="9"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="6"/>
@@ -3248,25 +3759,25 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="88"/>
       <c r="P22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="10"/>
@@ -3275,8 +3786,6 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="9"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="6"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="6"/>
@@ -3285,10 +3794,10 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI22" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="10"/>
@@ -3330,55 +3839,68 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="88"/>
       <c r="P23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="R23" s="8"/>
+      <c r="V23" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="U23" s="8"/>
-      <c r="V23" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="W23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X23" s="9"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="6"/>
+      <c r="Y23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="6"/>
+      <c r="AB23" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
+      <c r="AE23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="6"/>
+      <c r="AH23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="6"/>
+      <c r="AK23" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL23" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="AM23" s="8"/>
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
@@ -3416,59 +3938,69 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="91"/>
+      <c r="D24" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
       <c r="J24" s="10" t="s">
         <v>73</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="R24" s="8"/>
       <c r="S24" s="10" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="U24" s="8"/>
       <c r="V24" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X24" s="9"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="6"/>
+      <c r="Y24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="6"/>
+      <c r="AB24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
+      <c r="AE24" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AG24" s="9"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="8"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="6"/>
+      <c r="AK24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="AM24" s="8"/>
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
@@ -3494,8 +4026,12 @@
       <c r="BI24" s="6"/>
       <c r="BJ24" s="6"/>
       <c r="BK24" s="8"/>
-      <c r="BL24" s="6"/>
-      <c r="BM24" s="6"/>
+      <c r="BL24" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM24" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="BN24" s="9"/>
     </row>
     <row r="25" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -3506,14 +4042,14 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="91"/>
+      <c r="D25" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="77"/>
       <c r="J25" s="10"/>
       <c r="K25" s="6"/>
       <c r="L25" s="8"/>
@@ -3521,17 +4057,29 @@
       <c r="N25" s="6"/>
       <c r="O25" s="9"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="6"/>
+      <c r="S25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="U25" s="8"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="6"/>
+      <c r="Y25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="6"/>
+      <c r="AB25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="AD25" s="8"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
@@ -3539,8 +4087,12 @@
       <c r="AH25" s="7"/>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="8"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="6"/>
+      <c r="AK25" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="AM25" s="8"/>
       <c r="AN25" s="6"/>
       <c r="AO25" s="21"/>
@@ -3664,8 +4216,12 @@
         <v>76</v>
       </c>
       <c r="O27" s="9"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="6"/>
+      <c r="P27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="R27" s="8"/>
       <c r="S27" s="10"/>
       <c r="T27" s="6"/>
@@ -3676,17 +4232,21 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="6"/>
+      <c r="AB27" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="AD27" s="8"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI27" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="AI27" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="10"/>
@@ -3741,10 +4301,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="8"/>
       <c r="J28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="6" t="s">
@@ -3755,33 +4315,52 @@
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="10" t="s">
         <v>73</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U28" s="8"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="V28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="X28" s="9"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="6"/>
+      <c r="Y28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
+      <c r="AE28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="AG28" s="9"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="6"/>
+      <c r="AH28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="10" t="s">
         <v>67</v>
@@ -3818,7 +4397,7 @@
       <c r="BM28" s="6"/>
       <c r="BN28" s="9"/>
     </row>
-    <row r="29" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -3839,10 +4418,10 @@
       <c r="H29" s="6"/>
       <c r="I29" s="8"/>
       <c r="J29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="3" t="s">
@@ -3853,33 +4432,53 @@
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="R29" s="8"/>
       <c r="S29" s="10" t="s">
         <v>73</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U29" s="8"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="V29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="X29" s="9"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="6"/>
+      <c r="Y29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AA29" s="8"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="6"/>
+      <c r="AB29" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
+      <c r="AE29" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="AG29" s="9"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="6"/>
+      <c r="AH29" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI29" s="67" t="s">
+        <v>211</v>
+      </c>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="10" t="s">
         <v>67</v>
@@ -3916,7 +4515,7 @@
       <c r="BM29" s="6"/>
       <c r="BN29" s="9"/>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>3</v>
@@ -3936,20 +4535,30 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="6"/>
+      <c r="P30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="R30" s="8"/>
       <c r="S30" s="10"/>
       <c r="T30" s="6"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="V30" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="W30" s="65" t="s">
+        <v>140</v>
+      </c>
       <c r="X30" s="9"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="6"/>
       <c r="AA30" s="8"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="6"/>
+      <c r="AB30" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="AD30" s="8"/>
       <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
@@ -4058,11 +4667,10 @@
       <c r="BI31" s="6"/>
       <c r="BJ31" s="6"/>
       <c r="BK31" s="8"/>
-      <c r="BL31" s="6"/>
       <c r="BM31" s="6"/>
       <c r="BN31" s="9"/>
     </row>
-    <row r="32" spans="1:66" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -4084,8 +4692,12 @@
       <c r="G32" s="10"/>
       <c r="H32" s="6"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="6"/>
+      <c r="J32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="L32" s="8"/>
       <c r="O32" s="9"/>
       <c r="Q32" s="62"/>
@@ -4095,14 +4707,18 @@
       <c r="AB32" s="10"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
+      <c r="AE32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="AG32" s="9"/>
       <c r="AH32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="AI32" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="10"/>
@@ -4132,7 +4748,6 @@
       <c r="BI32" s="6"/>
       <c r="BJ32" s="6"/>
       <c r="BK32" s="8"/>
-      <c r="BL32" s="6"/>
       <c r="BM32" s="6"/>
       <c r="BN32" s="9"/>
     </row>
@@ -4151,10 +4766,10 @@
       <c r="H33" s="6"/>
       <c r="I33" s="8"/>
       <c r="J33" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="6" t="s">
@@ -4164,17 +4779,17 @@
         <v>78</v>
       </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="68" t="s">
+      <c r="P33" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="70"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="88"/>
       <c r="Y33" s="20" t="s">
         <v>81</v>
       </c>
@@ -4182,14 +4797,26 @@
         <v>82</v>
       </c>
       <c r="AA33" s="8"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="6"/>
+      <c r="AB33" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
+      <c r="AE33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="AG33" s="9"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="6"/>
+      <c r="AH33" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI33" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="10" t="s">
         <v>67</v>
@@ -4240,39 +4867,33 @@
       <c r="G34" s="10"/>
       <c r="H34" s="6"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="L34" s="8"/>
       <c r="M34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="R34" s="8"/>
       <c r="S34" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>78</v>
       </c>
       <c r="U34" s="8"/>
-      <c r="V34" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>134</v>
+      <c r="V34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="20" t="s">
@@ -4282,14 +4903,22 @@
         <v>82</v>
       </c>
       <c r="AA34" s="8"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="6"/>
+      <c r="AB34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="AD34" s="8"/>
       <c r="AE34" s="6"/>
       <c r="AF34" s="6"/>
       <c r="AG34" s="9"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="6"/>
+      <c r="AH34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ34" s="8"/>
       <c r="AK34" s="10" t="s">
         <v>67</v>
@@ -4347,23 +4976,31 @@
       <c r="N35" s="6"/>
       <c r="O35" s="9"/>
       <c r="P35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="R35" s="8"/>
       <c r="S35" s="10"/>
       <c r="T35" s="6"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
+      <c r="V35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="8"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="6"/>
+      <c r="AB35" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="AD35" s="8"/>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
@@ -4470,7 +5107,7 @@
       <c r="BM36" s="6"/>
       <c r="BN36" s="9"/>
     </row>
-    <row r="37" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -4480,28 +5117,40 @@
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="6"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="R37" s="8"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="6"/>
+      <c r="S37" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="U37" s="8"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
+      <c r="V37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="6"/>
@@ -4554,59 +5203,77 @@
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="91"/>
+      <c r="D38" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
       <c r="J38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="N38" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="O38" s="9"/>
-      <c r="P38" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="R38" s="8"/>
       <c r="S38" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U38" s="8"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="V38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="X38" s="9"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="6"/>
+      <c r="Y38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z38" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="AA38" s="8"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="6"/>
+      <c r="AB38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
+      <c r="AE38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="AG38" s="9"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="6"/>
+      <c r="AH38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="6"/>
+      <c r="AK38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL38" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="AM38" s="8"/>
       <c r="AN38" s="6"/>
       <c r="AO38" s="6"/>
@@ -4644,55 +5311,67 @@
       <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="91"/>
+      <c r="D39" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
       <c r="J39" s="10"/>
       <c r="K39" s="6"/>
       <c r="L39" s="8"/>
       <c r="M39" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N39" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="N39" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="O39" s="9"/>
-      <c r="P39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="R39" s="8"/>
-      <c r="S39" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="T39" s="6" t="s">
+      <c r="U39" s="8"/>
+      <c r="V39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U39" s="8"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="6"/>
+      <c r="AC39" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="AD39" s="8"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
+      <c r="AE39" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF39" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="AG39" s="9"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="6"/>
+      <c r="AH39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI39" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ39" s="8"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="6"/>
+      <c r="AK39" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="AM39" s="8"/>
       <c r="AN39" s="21"/>
       <c r="AO39" s="21"/>
@@ -4751,8 +5430,12 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="9"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="6"/>
+      <c r="Y40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z40" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="6"/>
@@ -4763,8 +5446,12 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="8"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="6"/>
+      <c r="AK40" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL40" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="AM40" s="8"/>
       <c r="AN40" s="21"/>
       <c r="AO40" s="21"/>
@@ -4879,34 +5566,50 @@
       <c r="K42" s="29"/>
       <c r="L42" s="30"/>
       <c r="M42" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N42" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O42" s="32"/>
-      <c r="P42" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="6"/>
+      <c r="P42" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z42" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="AA42" s="8"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="6"/>
+      <c r="AB42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="AD42" s="8"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
+      <c r="AE42" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG42" s="9"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="6"/>
+      <c r="AH42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI42" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="AJ42" s="8"/>
       <c r="AK42" s="10"/>
       <c r="AL42" s="6"/>
@@ -4960,27 +5663,47 @@
       <c r="N43" s="29"/>
       <c r="O43" s="32"/>
       <c r="P43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q43" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="R43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="V43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W43" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="X43" s="9"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="6"/>
+      <c r="Y43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z43" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="AA43" s="8"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="6"/>
+      <c r="AB43" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="AD43" s="8"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
+      <c r="AE43" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG43" s="9"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="6"/>
+      <c r="AH43" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI43" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="10"/>
       <c r="AL43" s="6"/>
@@ -5010,10 +5733,10 @@
       <c r="BJ43" s="6"/>
       <c r="BK43" s="8"/>
       <c r="BL43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM43" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="BM43" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="BN43" s="9"/>
     </row>
@@ -5038,15 +5761,19 @@
       <c r="N44" s="6"/>
       <c r="O44" s="9"/>
       <c r="P44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q44" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="R44" s="8"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
+      <c r="V44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="X44" s="9"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="6"/>
@@ -5054,11 +5781,19 @@
       <c r="AB44" s="10"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="8"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
+      <c r="AE44" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF44" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG44" s="9"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="6"/>
+      <c r="AH44" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI44" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="AJ44" s="8"/>
       <c r="AK44" s="10"/>
       <c r="AL44" s="6"/>
@@ -5112,10 +5847,10 @@
       <c r="N45" s="6"/>
       <c r="O45" s="9"/>
       <c r="P45" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R45" s="8"/>
       <c r="S45" s="10"/>
@@ -5133,8 +5868,12 @@
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
       <c r="AG45" s="9"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="6"/>
+      <c r="AH45" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI45" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="AJ45" s="8"/>
       <c r="AK45" s="10"/>
       <c r="AL45" s="6"/>
@@ -5255,33 +5994,49 @@
       <c r="N47" s="6"/>
       <c r="O47" s="9"/>
       <c r="P47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q47" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="R47" s="8"/>
       <c r="S47" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T47" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T47" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="U47" s="8"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
+      <c r="V47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="X47" s="9"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="6"/>
+      <c r="Y47" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z47" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="AA47" s="8"/>
       <c r="AB47" s="10"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="8"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
+      <c r="AE47" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF47" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG47" s="9"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="6"/>
+      <c r="AH47" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI47" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ47" s="8"/>
       <c r="AK47" s="10"/>
       <c r="AL47" s="6"/>
@@ -5314,7 +6069,7 @@
       <c r="BM47" s="6"/>
       <c r="BN47" s="9"/>
     </row>
-    <row r="48" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -5335,33 +6090,49 @@
       <c r="N48" s="6"/>
       <c r="O48" s="9"/>
       <c r="P48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="R48" s="8"/>
       <c r="S48" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T48" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T48" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="U48" s="8"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="V48" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="X48" s="9"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="8"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="6"/>
+      <c r="AB48" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="AD48" s="8"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
+      <c r="AE48" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF48" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG48" s="9"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="6"/>
+      <c r="AH48" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI48" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ48" s="8"/>
       <c r="AK48" s="10"/>
       <c r="AL48" s="6"/>
@@ -5415,33 +6186,49 @@
       <c r="N49" s="6"/>
       <c r="O49" s="9"/>
       <c r="P49" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q49" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="R49" s="8"/>
       <c r="S49" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="T49" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T49" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="U49" s="8"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
+      <c r="V49" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="X49" s="9"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="8"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="6"/>
+      <c r="AB49" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="AD49" s="8"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
+      <c r="AE49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="AG49" s="9"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="6"/>
+      <c r="AH49" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI49" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ49" s="8"/>
       <c r="AK49" s="10"/>
       <c r="AL49" s="6"/>
@@ -5500,20 +6287,32 @@
       <c r="S50" s="53"/>
       <c r="T50" s="16"/>
       <c r="U50" s="17"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
+      <c r="V50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="W50" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="X50" s="18"/>
       <c r="Y50" s="15"/>
       <c r="Z50" s="16"/>
       <c r="AA50" s="17"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="16"/>
+      <c r="AB50" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC50" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="AD50" s="17"/>
       <c r="AE50" s="16"/>
       <c r="AF50" s="16"/>
       <c r="AG50" s="18"/>
-      <c r="AH50" s="15"/>
-      <c r="AI50" s="16"/>
+      <c r="AH50" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI50" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ50" s="17"/>
       <c r="AK50" s="53"/>
       <c r="AL50" s="16"/>
@@ -5615,9 +6414,15 @@
       <c r="BN51" s="6"/>
     </row>
     <row r="52" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+      <c r="A52" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>20</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -5636,16 +6441,10 @@
       <c r="S52" s="14"/>
       <c r="T52" s="14"/>
       <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
@@ -5666,35 +6465,39 @@
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
       <c r="AY52" s="6"/>
-      <c r="AZ52" s="69"/>
-      <c r="BA52" s="69"/>
-      <c r="BB52" s="69"/>
-      <c r="BC52" s="69"/>
-      <c r="BD52" s="69"/>
-      <c r="BE52" s="69"/>
-      <c r="BF52" s="69"/>
-      <c r="BG52" s="69"/>
-      <c r="BH52" s="69"/>
-      <c r="BI52" s="69"/>
-      <c r="BJ52" s="69"/>
-      <c r="BK52" s="69"/>
+      <c r="AZ52" s="71"/>
+      <c r="BA52" s="71"/>
+      <c r="BB52" s="71"/>
+      <c r="BC52" s="71"/>
+      <c r="BD52" s="71"/>
+      <c r="BE52" s="71"/>
+      <c r="BF52" s="71"/>
+      <c r="BG52" s="71"/>
+      <c r="BH52" s="71"/>
+      <c r="BI52" s="71"/>
+      <c r="BJ52" s="71"/>
+      <c r="BK52" s="71"/>
       <c r="BL52" s="6"/>
       <c r="BM52" s="6"/>
       <c r="BN52" s="6"/>
     </row>
     <row r="53" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>21</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -5704,27 +6507,36 @@
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
       <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
+      <c r="Y53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="6"/>
+      <c r="AE53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="AG53" s="6"/>
-      <c r="AH53" s="6"/>
-      <c r="AI53" s="6"/>
+      <c r="AH53" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI53" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="69"/>
-      <c r="AL53" s="69"/>
-      <c r="AM53" s="69"/>
-      <c r="AN53" s="69"/>
-      <c r="AO53" s="69"/>
-      <c r="AP53" s="69"/>
+      <c r="AK53" s="71"/>
+      <c r="AL53" s="71"/>
+      <c r="AM53" s="71"/>
+      <c r="AN53" s="71"/>
+      <c r="AO53" s="71"/>
+      <c r="AP53" s="71"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
@@ -5740,29 +6552,33 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="69"/>
-      <c r="BG53" s="69"/>
-      <c r="BH53" s="69"/>
-      <c r="BI53" s="69"/>
-      <c r="BJ53" s="69"/>
-      <c r="BK53" s="69"/>
+      <c r="BF53" s="71"/>
+      <c r="BG53" s="71"/>
+      <c r="BH53" s="71"/>
+      <c r="BI53" s="71"/>
+      <c r="BJ53" s="71"/>
+      <c r="BK53" s="71"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
     </row>
     <row r="54" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>22</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -5775,17 +6591,29 @@
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
+      <c r="Y54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z54" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
+      <c r="AE54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="AG54" s="6"/>
-      <c r="AH54" s="6"/>
-      <c r="AI54" s="6"/>
+      <c r="AH54" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI54" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
@@ -5808,20 +6636,24 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="69"/>
-      <c r="BG54" s="69"/>
-      <c r="BH54" s="69"/>
-      <c r="BI54" s="69"/>
-      <c r="BJ54" s="69"/>
-      <c r="BK54" s="69"/>
+      <c r="BF54" s="71"/>
+      <c r="BG54" s="71"/>
+      <c r="BH54" s="71"/>
+      <c r="BI54" s="71"/>
+      <c r="BJ54" s="71"/>
+      <c r="BK54" s="71"/>
       <c r="BL54" s="6"/>
       <c r="BM54" s="6"/>
       <c r="BN54" s="6"/>
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>23</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -5876,29 +6708,29 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="69"/>
-      <c r="BG55" s="69"/>
-      <c r="BH55" s="69"/>
-      <c r="BI55" s="69"/>
-      <c r="BJ55" s="69"/>
-      <c r="BK55" s="69"/>
+      <c r="BF55" s="71"/>
+      <c r="BG55" s="71"/>
+      <c r="BH55" s="71"/>
+      <c r="BI55" s="71"/>
+      <c r="BJ55" s="71"/>
+      <c r="BK55" s="71"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="21"/>
+      <c r="C56" s="68" t="s">
+        <v>37</v>
+      </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -5955,18 +6787,24 @@
       <c r="BN56" s="6"/>
     </row>
     <row r="57" spans="1:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="A57" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>20</v>
+      </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -6023,15 +6861,19 @@
       <c r="BN57" s="6"/>
     </row>
     <row r="58" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -6053,11 +6895,19 @@
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
+      <c r="AE58" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF58" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
+      <c r="AH58" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI58" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ58" s="6"/>
       <c r="AK58" s="6"/>
       <c r="AL58" s="6"/>
@@ -6074,12 +6924,12 @@
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="69"/>
-      <c r="BA58" s="69"/>
-      <c r="BB58" s="69"/>
-      <c r="BC58" s="69"/>
-      <c r="BD58" s="69"/>
-      <c r="BE58" s="69"/>
+      <c r="AZ58" s="71"/>
+      <c r="BA58" s="71"/>
+      <c r="BB58" s="71"/>
+      <c r="BC58" s="71"/>
+      <c r="BD58" s="71"/>
+      <c r="BE58" s="71"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
@@ -6091,15 +6941,19 @@
       <c r="BN58" s="6"/>
     </row>
     <row r="59" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -6115,8 +6969,12 @@
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
+      <c r="Y59" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z59" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
@@ -6124,8 +6982,12 @@
       <c r="AE59" s="6"/>
       <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-      <c r="AI59" s="6"/>
+      <c r="AH59" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI59" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="AJ59" s="6"/>
       <c r="AK59" s="6"/>
       <c r="AL59" s="6"/>
@@ -6142,26 +7004,30 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
-      <c r="AZ59" s="69"/>
-      <c r="BA59" s="69"/>
-      <c r="BB59" s="69"/>
-      <c r="BC59" s="69"/>
-      <c r="BD59" s="69"/>
-      <c r="BE59" s="69"/>
-      <c r="BF59" s="69"/>
-      <c r="BG59" s="69"/>
-      <c r="BH59" s="69"/>
-      <c r="BI59" s="69"/>
-      <c r="BJ59" s="69"/>
-      <c r="BK59" s="69"/>
+      <c r="AZ59" s="71"/>
+      <c r="BA59" s="71"/>
+      <c r="BB59" s="71"/>
+      <c r="BC59" s="71"/>
+      <c r="BD59" s="71"/>
+      <c r="BE59" s="71"/>
+      <c r="BF59" s="71"/>
+      <c r="BG59" s="71"/>
+      <c r="BH59" s="71"/>
+      <c r="BI59" s="71"/>
+      <c r="BJ59" s="71"/>
+      <c r="BK59" s="71"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
       <c r="BN59" s="6"/>
     </row>
     <row r="60" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>23</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -6183,8 +7049,12 @@
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
+      <c r="Y60" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z60" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
@@ -6216,20 +7086,20 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="69"/>
-      <c r="BG60" s="69"/>
-      <c r="BH60" s="69"/>
-      <c r="BI60" s="69"/>
-      <c r="BJ60" s="69"/>
-      <c r="BK60" s="69"/>
+      <c r="BF60" s="71"/>
+      <c r="BG60" s="71"/>
+      <c r="BH60" s="71"/>
+      <c r="BI60" s="71"/>
+      <c r="BJ60" s="71"/>
+      <c r="BK60" s="71"/>
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="21"/>
+      <c r="C61" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -6295,18 +7165,24 @@
       <c r="BN61" s="6"/>
     </row>
     <row r="62" spans="1:66" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>20</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="69"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -6352,29 +7228,33 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="69"/>
-      <c r="BG62" s="69"/>
-      <c r="BH62" s="69"/>
-      <c r="BI62" s="69"/>
-      <c r="BJ62" s="69"/>
-      <c r="BK62" s="69"/>
+      <c r="BF62" s="71"/>
+      <c r="BG62" s="71"/>
+      <c r="BH62" s="71"/>
+      <c r="BI62" s="71"/>
+      <c r="BJ62" s="71"/>
+      <c r="BK62" s="71"/>
       <c r="BL62" s="6"/>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
     </row>
     <row r="63" spans="1:66" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>21</v>
+      </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -6387,8 +7267,12 @@
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
+      <c r="Y63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z63" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
       <c r="AC63" s="6"/>
@@ -6396,8 +7280,12 @@
       <c r="AE63" s="6"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
-      <c r="AH63" s="6"/>
-      <c r="AI63" s="6"/>
+      <c r="AH63" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI63" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="AJ63" s="6"/>
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
@@ -6420,26 +7308,30 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="69"/>
-      <c r="BG63" s="69"/>
-      <c r="BH63" s="69"/>
-      <c r="BI63" s="69"/>
-      <c r="BJ63" s="69"/>
-      <c r="BK63" s="69"/>
+      <c r="BF63" s="71"/>
+      <c r="BG63" s="71"/>
+      <c r="BH63" s="71"/>
+      <c r="BI63" s="71"/>
+      <c r="BJ63" s="71"/>
+      <c r="BK63" s="71"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
     </row>
     <row r="64" spans="1:66" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -6455,8 +7347,12 @@
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
+      <c r="Y64" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z64" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
@@ -6488,20 +7384,24 @@
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="69"/>
-      <c r="BG64" s="69"/>
-      <c r="BH64" s="69"/>
-      <c r="BI64" s="69"/>
-      <c r="BJ64" s="69"/>
-      <c r="BK64" s="69"/>
+      <c r="BF64" s="71"/>
+      <c r="BG64" s="71"/>
+      <c r="BH64" s="71"/>
+      <c r="BI64" s="71"/>
+      <c r="BJ64" s="71"/>
+      <c r="BK64" s="71"/>
       <c r="BL64" s="6"/>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
     </row>
     <row r="65" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="68" t="s">
+        <v>23</v>
+      </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -6556,20 +7456,26 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
       <c r="BE65" s="6"/>
-      <c r="BF65" s="69"/>
-      <c r="BG65" s="69"/>
-      <c r="BH65" s="69"/>
-      <c r="BI65" s="69"/>
-      <c r="BJ65" s="69"/>
-      <c r="BK65" s="69"/>
+      <c r="BF65" s="71"/>
+      <c r="BG65" s="71"/>
+      <c r="BH65" s="71"/>
+      <c r="BI65" s="71"/>
+      <c r="BJ65" s="71"/>
+      <c r="BK65" s="71"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="21"/>
+    <row r="66" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="68" t="s">
+        <v>20</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -6635,15 +7541,19 @@
       <c r="BN66" s="6"/>
     </row>
     <row r="67" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -6686,12 +7596,12 @@
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
       <c r="AY67" s="6"/>
-      <c r="AZ67" s="69"/>
-      <c r="BA67" s="69"/>
-      <c r="BB67" s="69"/>
-      <c r="BC67" s="69"/>
-      <c r="BD67" s="69"/>
-      <c r="BE67" s="69"/>
+      <c r="AZ67" s="71"/>
+      <c r="BA67" s="71"/>
+      <c r="BB67" s="71"/>
+      <c r="BC67" s="71"/>
+      <c r="BD67" s="71"/>
+      <c r="BE67" s="71"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
       <c r="BH67" s="6"/>
@@ -6703,18 +7613,22 @@
       <c r="BN67" s="6"/>
     </row>
     <row r="68" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="68" t="s">
+        <v>22</v>
+      </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -6771,18 +7685,22 @@
       <c r="BN68" s="6"/>
     </row>
     <row r="69" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>23</v>
+      </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="71"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -6828,20 +7746,20 @@
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
       <c r="BE69" s="6"/>
-      <c r="BF69" s="82"/>
-      <c r="BG69" s="82"/>
-      <c r="BH69" s="82"/>
-      <c r="BI69" s="82"/>
-      <c r="BJ69" s="82"/>
-      <c r="BK69" s="82"/>
+      <c r="BF69" s="74"/>
+      <c r="BG69" s="74"/>
+      <c r="BH69" s="74"/>
+      <c r="BI69" s="74"/>
+      <c r="BJ69" s="74"/>
+      <c r="BK69" s="74"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
     </row>
     <row r="70" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
+      <c r="C70" s="66" t="s">
+        <v>36</v>
+      </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -6906,10 +7824,16 @@
       <c r="BM70" s="6"/>
       <c r="BN70" s="6"/>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+    <row r="71" spans="1:66" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="68" t="s">
+        <v>20</v>
+      </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -6958,12 +7882,12 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="6"/>
-      <c r="AZ71" s="82"/>
-      <c r="BA71" s="82"/>
-      <c r="BB71" s="82"/>
-      <c r="BC71" s="82"/>
-      <c r="BD71" s="82"/>
-      <c r="BE71" s="82"/>
+      <c r="AZ71" s="74"/>
+      <c r="BA71" s="74"/>
+      <c r="BB71" s="74"/>
+      <c r="BC71" s="74"/>
+      <c r="BD71" s="74"/>
+      <c r="BE71" s="74"/>
       <c r="BF71" s="6"/>
       <c r="BG71" s="6"/>
       <c r="BH71" s="6"/>
@@ -6975,15 +7899,19 @@
       <c r="BN71" s="6"/>
     </row>
     <row r="72" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -7043,15 +7971,19 @@
       <c r="BN72" s="6"/>
     </row>
     <row r="73" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -7100,26 +8032,30 @@
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
       <c r="BE73" s="6"/>
-      <c r="BF73" s="69"/>
-      <c r="BG73" s="69"/>
-      <c r="BH73" s="69"/>
-      <c r="BI73" s="69"/>
-      <c r="BJ73" s="69"/>
-      <c r="BK73" s="69"/>
+      <c r="BF73" s="71"/>
+      <c r="BG73" s="71"/>
+      <c r="BH73" s="71"/>
+      <c r="BI73" s="71"/>
+      <c r="BJ73" s="71"/>
+      <c r="BK73" s="71"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
       <c r="BN73" s="6"/>
     </row>
     <row r="74" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -7168,26 +8104,23 @@
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
       <c r="BE74" s="6"/>
-      <c r="BF74" s="69"/>
-      <c r="BG74" s="69"/>
-      <c r="BH74" s="69"/>
-      <c r="BI74" s="69"/>
-      <c r="BJ74" s="69"/>
-      <c r="BK74" s="69"/>
+      <c r="BF74" s="71"/>
+      <c r="BG74" s="71"/>
+      <c r="BH74" s="71"/>
+      <c r="BI74" s="71"/>
+      <c r="BJ74" s="71"/>
+      <c r="BK74" s="71"/>
       <c r="BL74" s="6"/>
       <c r="BM74" s="6"/>
       <c r="BN74" s="6"/>
     </row>
     <row r="75" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="87"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -7236,20 +8169,20 @@
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
       <c r="BE75" s="6"/>
-      <c r="BF75" s="69"/>
-      <c r="BG75" s="69"/>
-      <c r="BH75" s="69"/>
-      <c r="BI75" s="69"/>
-      <c r="BJ75" s="69"/>
-      <c r="BK75" s="69"/>
+      <c r="BF75" s="71"/>
+      <c r="BG75" s="71"/>
+      <c r="BH75" s="71"/>
+      <c r="BI75" s="71"/>
+      <c r="BJ75" s="71"/>
+      <c r="BK75" s="71"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
       <c r="BN75" s="6"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -7315,15 +8248,15 @@
       <c r="BN76" s="6"/>
     </row>
     <row r="77" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="87"/>
-      <c r="I77" s="87"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -7372,26 +8305,26 @@
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
       <c r="BE77" s="6"/>
-      <c r="BF77" s="69"/>
-      <c r="BG77" s="69"/>
-      <c r="BH77" s="69"/>
-      <c r="BI77" s="69"/>
-      <c r="BJ77" s="69"/>
-      <c r="BK77" s="69"/>
+      <c r="BF77" s="71"/>
+      <c r="BG77" s="71"/>
+      <c r="BH77" s="71"/>
+      <c r="BI77" s="71"/>
+      <c r="BJ77" s="71"/>
+      <c r="BK77" s="71"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
       <c r="BN77" s="6"/>
     </row>
     <row r="78" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="78"/>
+      <c r="I78" s="78"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -7440,26 +8373,26 @@
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
       <c r="BE78" s="6"/>
-      <c r="BF78" s="69"/>
-      <c r="BG78" s="69"/>
-      <c r="BH78" s="69"/>
-      <c r="BI78" s="69"/>
-      <c r="BJ78" s="69"/>
-      <c r="BK78" s="69"/>
+      <c r="BF78" s="71"/>
+      <c r="BG78" s="71"/>
+      <c r="BH78" s="71"/>
+      <c r="BI78" s="71"/>
+      <c r="BJ78" s="71"/>
+      <c r="BK78" s="71"/>
       <c r="BL78" s="6"/>
       <c r="BM78" s="6"/>
       <c r="BN78" s="6"/>
     </row>
     <row r="79" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="87"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="87"/>
-      <c r="I79" s="87"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="78"/>
+      <c r="I79" s="78"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -7508,26 +8441,23 @@
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
       <c r="BE79" s="6"/>
-      <c r="BF79" s="69"/>
-      <c r="BG79" s="69"/>
-      <c r="BH79" s="69"/>
-      <c r="BI79" s="69"/>
-      <c r="BJ79" s="69"/>
-      <c r="BK79" s="69"/>
+      <c r="BF79" s="71"/>
+      <c r="BG79" s="71"/>
+      <c r="BH79" s="71"/>
+      <c r="BI79" s="71"/>
+      <c r="BJ79" s="71"/>
+      <c r="BK79" s="71"/>
       <c r="BL79" s="6"/>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
     </row>
     <row r="80" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -7587,9 +8517,9 @@
       <c r="BN80" s="6"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -7655,15 +8585,15 @@
       <c r="BN81" s="6"/>
     </row>
     <row r="82" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="87"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -7712,26 +8642,26 @@
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
       <c r="BE82" s="6"/>
-      <c r="BF82" s="69"/>
-      <c r="BG82" s="69"/>
-      <c r="BH82" s="69"/>
-      <c r="BI82" s="69"/>
-      <c r="BJ82" s="69"/>
-      <c r="BK82" s="69"/>
+      <c r="BF82" s="71"/>
+      <c r="BG82" s="71"/>
+      <c r="BH82" s="71"/>
+      <c r="BI82" s="71"/>
+      <c r="BJ82" s="71"/>
+      <c r="BK82" s="71"/>
       <c r="BL82" s="6"/>
       <c r="BM82" s="6"/>
       <c r="BN82" s="6"/>
     </row>
     <row r="83" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="69"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -7791,15 +8721,15 @@
       <c r="BN83" s="6"/>
     </row>
     <row r="84" spans="1:66" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -7862,12 +8792,12 @@
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="87"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="87"/>
-      <c r="I85" s="87"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -7916,12 +8846,12 @@
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
       <c r="BE85" s="6"/>
-      <c r="BF85" s="69"/>
-      <c r="BG85" s="69"/>
-      <c r="BH85" s="69"/>
-      <c r="BI85" s="69"/>
-      <c r="BJ85" s="69"/>
-      <c r="BK85" s="69"/>
+      <c r="BF85" s="71"/>
+      <c r="BG85" s="71"/>
+      <c r="BH85" s="71"/>
+      <c r="BI85" s="71"/>
+      <c r="BJ85" s="71"/>
+      <c r="BK85" s="71"/>
       <c r="BL85" s="6"/>
       <c r="BM85" s="6"/>
       <c r="BN85" s="6"/>
@@ -8339,38 +9269,95 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P9:X9"/>
+    <mergeCell ref="P42:X42"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BF79:BK79"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF78:BK78"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF64:BK64"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF54:BK54"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="BF85:BK85"/>
+    <mergeCell ref="BF75:BK75"/>
+    <mergeCell ref="BF74:BK74"/>
+    <mergeCell ref="BF59:BK59"/>
+    <mergeCell ref="BF60:BK60"/>
+    <mergeCell ref="BF65:BK65"/>
+    <mergeCell ref="BF55:BK55"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AZ71:BE71"/>
+    <mergeCell ref="AZ67:BE67"/>
+    <mergeCell ref="AZ58:BE58"/>
+    <mergeCell ref="AZ59:BE59"/>
+    <mergeCell ref="AZ52:BE52"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BF52:BK52"/>
+    <mergeCell ref="BF82:BK82"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
     <mergeCell ref="G53:L53"/>
     <mergeCell ref="G54:L54"/>
     <mergeCell ref="AK53:AP53"/>
@@ -8395,97 +9382,41 @@
     <mergeCell ref="P18:X18"/>
     <mergeCell ref="P19:X19"/>
     <mergeCell ref="P33:X33"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="BF85:BK85"/>
-    <mergeCell ref="BF75:BK75"/>
-    <mergeCell ref="BF74:BK74"/>
-    <mergeCell ref="BF59:BK59"/>
-    <mergeCell ref="BF60:BK60"/>
-    <mergeCell ref="BF65:BK65"/>
-    <mergeCell ref="BF55:BK55"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AZ71:BE71"/>
-    <mergeCell ref="AZ67:BE67"/>
-    <mergeCell ref="AZ58:BE58"/>
-    <mergeCell ref="AZ59:BE59"/>
-    <mergeCell ref="AZ52:BE52"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="AT5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BF52:BK52"/>
-    <mergeCell ref="BF82:BK82"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BF79:BK79"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF78:BK78"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF64:BK64"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF54:BK54"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P9:X9"/>
-    <mergeCell ref="P42:X42"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BK5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Rozklad_3zaizd.xlsx
+++ b/Rozklad_3zaizd.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="230">
   <si>
     <t>І</t>
   </si>
@@ -739,6 +739,12 @@
   </si>
   <si>
     <t>доц. Керестень І.С.</t>
+  </si>
+  <si>
+    <t>Практикум із землевпорядних робіт</t>
+  </si>
+  <si>
+    <t>Історія земельних відносин  та землеустрою</t>
   </si>
 </sst>
 </file>
@@ -1207,86 +1213,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,7 +1566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1571,10 +1577,10 @@
   <dimension ref="A1:BT92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BM8" sqref="BM7:BM8"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,373 +1661,373 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="79" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="79" t="s">
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="79" t="s">
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="79" t="s">
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="80" t="s">
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="81"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="89"/>
+      <c r="BN1" s="90"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="K2" s="77"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="82" t="s">
+      <c r="N2" s="77"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="83" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="83"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="82" t="s">
+      <c r="W2" s="77"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="86" t="s">
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="83" t="s">
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="82" t="s">
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="86" t="s">
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="83" t="s">
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="82" t="s">
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="86" t="s">
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="83" t="s">
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="80"/>
+      <c r="AW2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="82" t="s">
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="86" t="s">
+      <c r="BA2" s="77"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="77"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="83"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="83"/>
-      <c r="BJ2" s="83"/>
-      <c r="BK2" s="85"/>
-      <c r="BL2" s="83" t="s">
+      <c r="BG2" s="77"/>
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="77"/>
+      <c r="BJ2" s="77"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="83"/>
-      <c r="BN2" s="87"/>
+      <c r="BM2" s="77"/>
+      <c r="BN2" s="86"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="87"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="83"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="83"/>
-      <c r="AY3" s="87"/>
-      <c r="AZ3" s="82" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="83" t="s">
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="85"/>
-      <c r="BF3" s="86" t="s">
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="83"/>
-      <c r="BH3" s="84"/>
-      <c r="BI3" s="83" t="s">
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="85"/>
-      <c r="BL3" s="83" t="s">
+      <c r="BJ3" s="77"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="87"/>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="89"/>
-      <c r="BQ3" s="89"/>
-      <c r="BR3" s="89"/>
-      <c r="BS3" s="89"/>
-      <c r="BT3" s="89"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="86"/>
+      <c r="BO3" s="91"/>
+      <c r="BP3" s="91"/>
+      <c r="BQ3" s="91"/>
+      <c r="BR3" s="91"/>
+      <c r="BS3" s="91"/>
+      <c r="BT3" s="91"/>
     </row>
     <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="82" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="82" t="s">
+      <c r="H4" s="77"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="82" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="82" t="s">
+      <c r="N4" s="77"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="82" t="s">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="82" t="s">
+      <c r="T4" s="77"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="82" t="s">
+      <c r="W4" s="77"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="82" t="s">
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="82" t="s">
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="82" t="s">
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="85"/>
-      <c r="AK4" s="82" t="s">
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="82" t="s">
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="83"/>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="82" t="s">
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="86" t="s">
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="82" t="s">
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="86"/>
+      <c r="AZ4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="82" t="s">
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="85"/>
-      <c r="BF4" s="86" t="s">
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="84"/>
-      <c r="BI4" s="94" t="s">
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="90" t="s">
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="BM4" s="83"/>
-      <c r="BN4" s="87"/>
+      <c r="BM4" s="77"/>
+      <c r="BN4" s="86"/>
       <c r="BO4" s="25"/>
       <c r="BP4" s="25"/>
       <c r="BQ4" s="25"/>
@@ -2030,103 +2036,103 @@
       <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76" t="s">
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="82" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="82" t="s">
+      <c r="Q5" s="77"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="83"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="82" t="s">
+      <c r="T5" s="77"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="83"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="82" t="s">
+      <c r="W5" s="77"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="82" t="s">
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="82" t="s">
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="82" t="s">
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="82" t="s">
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="82" t="s">
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="83"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="82" t="s">
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="86"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="82" t="s">
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="77"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="85"/>
-      <c r="BC5" s="82" t="s">
+      <c r="BA5" s="77"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="85"/>
-      <c r="BF5" s="86"/>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="84"/>
-      <c r="BI5" s="90"/>
-      <c r="BJ5" s="83"/>
-      <c r="BK5" s="85"/>
-      <c r="BL5" s="86" t="s">
+      <c r="BD5" s="77"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="76"/>
+      <c r="BG5" s="77"/>
+      <c r="BH5" s="78"/>
+      <c r="BI5" s="84"/>
+      <c r="BJ5" s="77"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="BM5" s="83"/>
-      <c r="BN5" s="87"/>
+      <c r="BM5" s="77"/>
+      <c r="BN5" s="86"/>
       <c r="BO5" s="25"/>
       <c r="BP5" s="25"/>
       <c r="BQ5" s="25"/>
@@ -2347,20 +2353,20 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="93"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="72"/>
       <c r="P7" s="44" t="s">
         <v>118</v>
       </c>
@@ -2375,11 +2381,11 @@
         <v>98</v>
       </c>
       <c r="U7" s="52"/>
-      <c r="V7" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="W7" s="38" t="s">
-        <v>140</v>
+      <c r="V7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="X7" s="43"/>
       <c r="Y7" s="45" t="s">
@@ -2461,20 +2467,20 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="93"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="72"/>
       <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
@@ -2489,11 +2495,11 @@
         <v>98</v>
       </c>
       <c r="U8" s="23"/>
-      <c r="V8" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="W8" s="21" t="s">
-        <v>140</v>
+      <c r="V8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="X8" s="22"/>
       <c r="Y8" s="20" t="s">
@@ -2575,14 +2581,14 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="24"/>
       <c r="K9" s="21"/>
       <c r="L9" s="23"/>
@@ -2593,17 +2599,17 @@
         <v>104</v>
       </c>
       <c r="O9" s="22"/>
-      <c r="P9" s="91" t="s">
+      <c r="P9" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="64"/>
@@ -2671,14 +2677,14 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="31"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
@@ -2695,8 +2701,6 @@
       <c r="S10" s="24"/>
       <c r="T10" s="21"/>
       <c r="U10" s="23"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="36"/>
@@ -2757,7 +2761,7 @@
       <c r="BM10" s="6"/>
       <c r="BN10" s="9"/>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="8"/>
@@ -2767,8 +2771,12 @@
       <c r="J11" s="10"/>
       <c r="K11" s="6"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="6"/>
@@ -2776,8 +2784,6 @@
       <c r="S11" s="10"/>
       <c r="T11" s="6"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="6"/>
@@ -2832,20 +2838,20 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="88"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="7" t="s">
         <v>120</v>
       </c>
@@ -2936,20 +2942,20 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="88"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="75"/>
       <c r="P13" s="7" t="s">
         <v>120</v>
       </c>
@@ -3044,14 +3050,14 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6"/>
       <c r="L14" s="8"/>
@@ -3076,8 +3082,12 @@
         <v>127</v>
       </c>
       <c r="U14" s="8"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="V14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="7" t="s">
         <v>146</v>
@@ -3146,14 +3156,14 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="10"/>
       <c r="K15" s="6"/>
       <c r="L15" s="8"/>
@@ -3174,8 +3184,12 @@
       <c r="S15" s="10"/>
       <c r="T15" s="6"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="6"/>
+      <c r="V15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="7" t="s">
         <v>146</v>
@@ -3231,7 +3245,7 @@
       <c r="BM15" s="6"/>
       <c r="BN15" s="9"/>
     </row>
-    <row r="16" spans="1:72" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" ht="90" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
@@ -3262,8 +3276,12 @@
       <c r="AB16" s="10"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
+      <c r="AE16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="AG16" s="9"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="6"/>
@@ -3313,14 +3331,14 @@
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="10"/>
       <c r="K17" s="6"/>
       <c r="L17" s="8"/>
@@ -3350,8 +3368,12 @@
       <c r="AB17" s="10"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
+      <c r="AE17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="AG17" s="9"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="6"/>
@@ -3405,14 +3427,14 @@
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="10" t="s">
         <v>73</v>
       </c>
@@ -3429,17 +3451,17 @@
       <c r="O18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="70" t="s">
+      <c r="P18" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="88"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="75"/>
       <c r="Y18" s="3" t="s">
         <v>151</v>
       </c>
@@ -3529,17 +3551,17 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="70" t="s">
+      <c r="P19" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="88"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="75"/>
       <c r="Y19" s="3" t="s">
         <v>151</v>
       </c>
@@ -3718,7 +3740,9 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="8"/>
-      <c r="AK21" s="10"/>
+      <c r="AK21" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="6"/>
@@ -3759,20 +3783,20 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="88"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="75"/>
       <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
@@ -3800,7 +3824,9 @@
         <v>93</v>
       </c>
       <c r="AJ22" s="8"/>
-      <c r="AK22" s="10"/>
+      <c r="AK22" s="10" t="s">
+        <v>228</v>
+      </c>
       <c r="AL22" s="6"/>
       <c r="AM22" s="8"/>
       <c r="AN22" s="6"/>
@@ -3839,20 +3865,20 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="88"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="75"/>
       <c r="P23" s="7" t="s">
         <v>126</v>
       </c>
@@ -3882,10 +3908,10 @@
       </c>
       <c r="AD23" s="8"/>
       <c r="AE23" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AG23" s="9"/>
       <c r="AH23" s="7" t="s">
@@ -3938,14 +3964,14 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="96"/>
       <c r="J24" s="10" t="s">
         <v>73</v>
       </c>
@@ -3986,10 +4012,10 @@
       </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="6" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="AG24" s="9"/>
       <c r="AH24" s="7"/>
@@ -4042,14 +4068,14 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="77"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="96"/>
       <c r="J25" s="10"/>
       <c r="K25" s="6"/>
       <c r="L25" s="8"/>
@@ -4349,10 +4375,10 @@
       </c>
       <c r="AD28" s="8"/>
       <c r="AE28" s="6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="AG28" s="9"/>
       <c r="AH28" s="7" t="s">
@@ -4467,10 +4493,10 @@
       </c>
       <c r="AD29" s="8"/>
       <c r="AE29" s="6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="AG29" s="9"/>
       <c r="AH29" s="69" t="s">
@@ -4670,7 +4696,7 @@
       <c r="BM31" s="6"/>
       <c r="BN31" s="9"/>
     </row>
-    <row r="32" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -4707,12 +4733,6 @@
       <c r="AB32" s="10"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF32" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="AG32" s="9"/>
       <c r="AH32" s="7" t="s">
         <v>92</v>
@@ -4779,17 +4799,17 @@
         <v>78</v>
       </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="70" t="s">
+      <c r="P33" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="88"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="75"/>
       <c r="Y33" s="20" t="s">
         <v>81</v>
       </c>
@@ -4804,12 +4824,6 @@
         <v>171</v>
       </c>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="AG33" s="9"/>
       <c r="AH33" s="7" t="s">
         <v>203</v>
@@ -4868,12 +4882,6 @@
       <c r="H34" s="6"/>
       <c r="I34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="O34" s="9"/>
       <c r="P34" s="7" t="s">
         <v>121</v>
@@ -5117,20 +5125,20 @@
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="88"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="75"/>
       <c r="P37" s="7" t="s">
         <v>125</v>
       </c>
@@ -5203,14 +5211,14 @@
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="77"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="96"/>
       <c r="J38" s="10" t="s">
         <v>111</v>
       </c>
@@ -5233,12 +5241,6 @@
         <v>127</v>
       </c>
       <c r="U38" s="8"/>
-      <c r="V38" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="W38" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="6" t="s">
         <v>159</v>
@@ -5311,14 +5313,14 @@
       <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="76" t="s">
+      <c r="D39" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="96"/>
       <c r="J39" s="10"/>
       <c r="K39" s="6"/>
       <c r="L39" s="8"/>
@@ -5331,12 +5333,6 @@
       <c r="O39" s="9"/>
       <c r="R39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="6" t="s">
         <v>159</v>
@@ -5546,7 +5542,7 @@
       <c r="BM41" s="6"/>
       <c r="BN41" s="9"/>
     </row>
-    <row r="42" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -5572,17 +5568,17 @@
         <v>106</v>
       </c>
       <c r="O42" s="32"/>
-      <c r="P42" s="70" t="s">
+      <c r="P42" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="88"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="74"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="75"/>
       <c r="Y42" s="7" t="s">
         <v>162</v>
       </c>
@@ -5670,11 +5666,11 @@
       </c>
       <c r="R43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="W43" s="6" t="s">
-        <v>104</v>
+      <c r="V43" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="W43" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="7" t="s">
@@ -5768,11 +5764,11 @@
       </c>
       <c r="R44" s="8"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="W44" s="6" t="s">
-        <v>104</v>
+      <c r="V44" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="W44" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="X44" s="9"/>
       <c r="Y44" s="7"/>
@@ -6465,18 +6461,18 @@
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
       <c r="AY52" s="6"/>
-      <c r="AZ52" s="71"/>
-      <c r="BA52" s="71"/>
-      <c r="BB52" s="71"/>
-      <c r="BC52" s="71"/>
-      <c r="BD52" s="71"/>
-      <c r="BE52" s="71"/>
-      <c r="BF52" s="71"/>
-      <c r="BG52" s="71"/>
-      <c r="BH52" s="71"/>
-      <c r="BI52" s="71"/>
-      <c r="BJ52" s="71"/>
-      <c r="BK52" s="71"/>
+      <c r="AZ52" s="74"/>
+      <c r="BA52" s="74"/>
+      <c r="BB52" s="74"/>
+      <c r="BC52" s="74"/>
+      <c r="BD52" s="74"/>
+      <c r="BE52" s="74"/>
+      <c r="BF52" s="74"/>
+      <c r="BG52" s="74"/>
+      <c r="BH52" s="74"/>
+      <c r="BI52" s="74"/>
+      <c r="BJ52" s="74"/>
+      <c r="BK52" s="74"/>
       <c r="BL52" s="6"/>
       <c r="BM52" s="6"/>
       <c r="BN52" s="6"/>
@@ -6492,12 +6488,12 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -6531,12 +6527,12 @@
         <v>147</v>
       </c>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="71"/>
-      <c r="AL53" s="71"/>
-      <c r="AM53" s="71"/>
-      <c r="AN53" s="71"/>
-      <c r="AO53" s="71"/>
-      <c r="AP53" s="71"/>
+      <c r="AK53" s="74"/>
+      <c r="AL53" s="74"/>
+      <c r="AM53" s="74"/>
+      <c r="AN53" s="74"/>
+      <c r="AO53" s="74"/>
+      <c r="AP53" s="74"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
@@ -6552,12 +6548,12 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="71"/>
-      <c r="BG53" s="71"/>
-      <c r="BH53" s="71"/>
-      <c r="BI53" s="71"/>
-      <c r="BJ53" s="71"/>
-      <c r="BK53" s="71"/>
+      <c r="BF53" s="74"/>
+      <c r="BG53" s="74"/>
+      <c r="BH53" s="74"/>
+      <c r="BI53" s="74"/>
+      <c r="BJ53" s="74"/>
+      <c r="BK53" s="74"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
@@ -6573,12 +6569,12 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -6636,12 +6632,12 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="71"/>
-      <c r="BG54" s="71"/>
-      <c r="BH54" s="71"/>
-      <c r="BI54" s="71"/>
-      <c r="BJ54" s="71"/>
-      <c r="BK54" s="71"/>
+      <c r="BF54" s="74"/>
+      <c r="BG54" s="74"/>
+      <c r="BH54" s="74"/>
+      <c r="BI54" s="74"/>
+      <c r="BJ54" s="74"/>
+      <c r="BK54" s="74"/>
       <c r="BL54" s="6"/>
       <c r="BM54" s="6"/>
       <c r="BN54" s="6"/>
@@ -6708,12 +6704,12 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="71"/>
-      <c r="BG55" s="71"/>
-      <c r="BH55" s="71"/>
-      <c r="BI55" s="71"/>
-      <c r="BJ55" s="71"/>
-      <c r="BK55" s="71"/>
+      <c r="BF55" s="74"/>
+      <c r="BG55" s="74"/>
+      <c r="BH55" s="74"/>
+      <c r="BI55" s="74"/>
+      <c r="BJ55" s="74"/>
+      <c r="BK55" s="74"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
@@ -6725,12 +6721,12 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -6799,12 +6795,12 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -6868,12 +6864,12 @@
       <c r="C58" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -6924,12 +6920,12 @@
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="71"/>
-      <c r="BA58" s="71"/>
-      <c r="BB58" s="71"/>
-      <c r="BC58" s="71"/>
-      <c r="BD58" s="71"/>
-      <c r="BE58" s="71"/>
+      <c r="AZ58" s="74"/>
+      <c r="BA58" s="74"/>
+      <c r="BB58" s="74"/>
+      <c r="BC58" s="74"/>
+      <c r="BD58" s="74"/>
+      <c r="BE58" s="74"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
@@ -6948,12 +6944,12 @@
       <c r="C59" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -7004,18 +7000,18 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
-      <c r="AZ59" s="71"/>
-      <c r="BA59" s="71"/>
-      <c r="BB59" s="71"/>
-      <c r="BC59" s="71"/>
-      <c r="BD59" s="71"/>
-      <c r="BE59" s="71"/>
-      <c r="BF59" s="71"/>
-      <c r="BG59" s="71"/>
-      <c r="BH59" s="71"/>
-      <c r="BI59" s="71"/>
-      <c r="BJ59" s="71"/>
-      <c r="BK59" s="71"/>
+      <c r="AZ59" s="74"/>
+      <c r="BA59" s="74"/>
+      <c r="BB59" s="74"/>
+      <c r="BC59" s="74"/>
+      <c r="BD59" s="74"/>
+      <c r="BE59" s="74"/>
+      <c r="BF59" s="74"/>
+      <c r="BG59" s="74"/>
+      <c r="BH59" s="74"/>
+      <c r="BI59" s="74"/>
+      <c r="BJ59" s="74"/>
+      <c r="BK59" s="74"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
       <c r="BN59" s="6"/>
@@ -7086,12 +7082,12 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="71"/>
-      <c r="BG60" s="71"/>
-      <c r="BH60" s="71"/>
-      <c r="BI60" s="71"/>
-      <c r="BJ60" s="71"/>
-      <c r="BK60" s="71"/>
+      <c r="BF60" s="74"/>
+      <c r="BG60" s="74"/>
+      <c r="BH60" s="74"/>
+      <c r="BI60" s="74"/>
+      <c r="BJ60" s="74"/>
+      <c r="BK60" s="74"/>
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
@@ -7177,12 +7173,12 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -7228,12 +7224,12 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="71"/>
-      <c r="BG62" s="71"/>
-      <c r="BH62" s="71"/>
-      <c r="BI62" s="71"/>
-      <c r="BJ62" s="71"/>
-      <c r="BK62" s="71"/>
+      <c r="BF62" s="74"/>
+      <c r="BG62" s="74"/>
+      <c r="BH62" s="74"/>
+      <c r="BI62" s="74"/>
+      <c r="BJ62" s="74"/>
+      <c r="BK62" s="74"/>
       <c r="BL62" s="6"/>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
@@ -7249,12 +7245,12 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -7308,12 +7304,12 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="71"/>
-      <c r="BG63" s="71"/>
-      <c r="BH63" s="71"/>
-      <c r="BI63" s="71"/>
-      <c r="BJ63" s="71"/>
-      <c r="BK63" s="71"/>
+      <c r="BF63" s="74"/>
+      <c r="BG63" s="74"/>
+      <c r="BH63" s="74"/>
+      <c r="BI63" s="74"/>
+      <c r="BJ63" s="74"/>
+      <c r="BK63" s="74"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
@@ -7326,12 +7322,12 @@
       <c r="C64" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -7384,12 +7380,12 @@
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="71"/>
-      <c r="BG64" s="71"/>
-      <c r="BH64" s="71"/>
-      <c r="BI64" s="71"/>
-      <c r="BJ64" s="71"/>
-      <c r="BK64" s="71"/>
+      <c r="BF64" s="74"/>
+      <c r="BG64" s="74"/>
+      <c r="BH64" s="74"/>
+      <c r="BI64" s="74"/>
+      <c r="BJ64" s="74"/>
+      <c r="BK64" s="74"/>
       <c r="BL64" s="6"/>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
@@ -7456,12 +7452,12 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
       <c r="BE65" s="6"/>
-      <c r="BF65" s="71"/>
-      <c r="BG65" s="71"/>
-      <c r="BH65" s="71"/>
-      <c r="BI65" s="71"/>
-      <c r="BJ65" s="71"/>
-      <c r="BK65" s="71"/>
+      <c r="BF65" s="74"/>
+      <c r="BG65" s="74"/>
+      <c r="BH65" s="74"/>
+      <c r="BI65" s="74"/>
+      <c r="BJ65" s="74"/>
+      <c r="BK65" s="74"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
@@ -7548,12 +7544,12 @@
       <c r="C67" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -7596,12 +7592,12 @@
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
       <c r="AY67" s="6"/>
-      <c r="AZ67" s="71"/>
-      <c r="BA67" s="71"/>
-      <c r="BB67" s="71"/>
-      <c r="BC67" s="71"/>
-      <c r="BD67" s="71"/>
-      <c r="BE67" s="71"/>
+      <c r="AZ67" s="74"/>
+      <c r="BA67" s="74"/>
+      <c r="BB67" s="74"/>
+      <c r="BC67" s="74"/>
+      <c r="BD67" s="74"/>
+      <c r="BE67" s="74"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
       <c r="BH67" s="6"/>
@@ -7623,12 +7619,12 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -7695,12 +7691,12 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="71"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -7746,12 +7742,12 @@
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
       <c r="BE69" s="6"/>
-      <c r="BF69" s="74"/>
-      <c r="BG69" s="74"/>
-      <c r="BH69" s="74"/>
-      <c r="BI69" s="74"/>
-      <c r="BJ69" s="74"/>
-      <c r="BK69" s="74"/>
+      <c r="BF69" s="87"/>
+      <c r="BG69" s="87"/>
+      <c r="BH69" s="87"/>
+      <c r="BI69" s="87"/>
+      <c r="BJ69" s="87"/>
+      <c r="BK69" s="87"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
@@ -7882,12 +7878,12 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="6"/>
-      <c r="AZ71" s="74"/>
-      <c r="BA71" s="74"/>
-      <c r="BB71" s="74"/>
-      <c r="BC71" s="74"/>
-      <c r="BD71" s="74"/>
-      <c r="BE71" s="74"/>
+      <c r="AZ71" s="87"/>
+      <c r="BA71" s="87"/>
+      <c r="BB71" s="87"/>
+      <c r="BC71" s="87"/>
+      <c r="BD71" s="87"/>
+      <c r="BE71" s="87"/>
       <c r="BF71" s="6"/>
       <c r="BG71" s="6"/>
       <c r="BH71" s="6"/>
@@ -7906,12 +7902,12 @@
       <c r="C72" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -7978,12 +7974,12 @@
       <c r="C73" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -8032,12 +8028,12 @@
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
       <c r="BE73" s="6"/>
-      <c r="BF73" s="71"/>
-      <c r="BG73" s="71"/>
-      <c r="BH73" s="71"/>
-      <c r="BI73" s="71"/>
-      <c r="BJ73" s="71"/>
-      <c r="BK73" s="71"/>
+      <c r="BF73" s="74"/>
+      <c r="BG73" s="74"/>
+      <c r="BH73" s="74"/>
+      <c r="BI73" s="74"/>
+      <c r="BJ73" s="74"/>
+      <c r="BK73" s="74"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
       <c r="BN73" s="6"/>
@@ -8050,12 +8046,12 @@
       <c r="C74" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -8104,23 +8100,23 @@
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
       <c r="BE74" s="6"/>
-      <c r="BF74" s="71"/>
-      <c r="BG74" s="71"/>
-      <c r="BH74" s="71"/>
-      <c r="BI74" s="71"/>
-      <c r="BJ74" s="71"/>
-      <c r="BK74" s="71"/>
+      <c r="BF74" s="74"/>
+      <c r="BG74" s="74"/>
+      <c r="BH74" s="74"/>
+      <c r="BI74" s="74"/>
+      <c r="BJ74" s="74"/>
+      <c r="BK74" s="74"/>
       <c r="BL74" s="6"/>
       <c r="BM74" s="6"/>
       <c r="BN74" s="6"/>
     </row>
     <row r="75" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -8169,12 +8165,12 @@
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
       <c r="BE75" s="6"/>
-      <c r="BF75" s="71"/>
-      <c r="BG75" s="71"/>
-      <c r="BH75" s="71"/>
-      <c r="BI75" s="71"/>
-      <c r="BJ75" s="71"/>
-      <c r="BK75" s="71"/>
+      <c r="BF75" s="74"/>
+      <c r="BG75" s="74"/>
+      <c r="BH75" s="74"/>
+      <c r="BI75" s="74"/>
+      <c r="BJ75" s="74"/>
+      <c r="BK75" s="74"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
       <c r="BN75" s="6"/>
@@ -8251,12 +8247,12 @@
       <c r="A77" s="68"/>
       <c r="B77" s="68"/>
       <c r="C77" s="68"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -8305,12 +8301,12 @@
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
       <c r="BE77" s="6"/>
-      <c r="BF77" s="71"/>
-      <c r="BG77" s="71"/>
-      <c r="BH77" s="71"/>
-      <c r="BI77" s="71"/>
-      <c r="BJ77" s="71"/>
-      <c r="BK77" s="71"/>
+      <c r="BF77" s="74"/>
+      <c r="BG77" s="74"/>
+      <c r="BH77" s="74"/>
+      <c r="BI77" s="74"/>
+      <c r="BJ77" s="74"/>
+      <c r="BK77" s="74"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
       <c r="BN77" s="6"/>
@@ -8319,12 +8315,12 @@
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
       <c r="C78" s="68"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="78"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -8373,12 +8369,12 @@
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
       <c r="BE78" s="6"/>
-      <c r="BF78" s="71"/>
-      <c r="BG78" s="71"/>
-      <c r="BH78" s="71"/>
-      <c r="BI78" s="71"/>
-      <c r="BJ78" s="71"/>
-      <c r="BK78" s="71"/>
+      <c r="BF78" s="74"/>
+      <c r="BG78" s="74"/>
+      <c r="BH78" s="74"/>
+      <c r="BI78" s="74"/>
+      <c r="BJ78" s="74"/>
+      <c r="BK78" s="74"/>
       <c r="BL78" s="6"/>
       <c r="BM78" s="6"/>
       <c r="BN78" s="6"/>
@@ -8387,12 +8383,12 @@
       <c r="A79" s="68"/>
       <c r="B79" s="68"/>
       <c r="C79" s="68"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="78"/>
-      <c r="I79" s="78"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -8441,23 +8437,23 @@
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
       <c r="BE79" s="6"/>
-      <c r="BF79" s="71"/>
-      <c r="BG79" s="71"/>
-      <c r="BH79" s="71"/>
-      <c r="BI79" s="71"/>
-      <c r="BJ79" s="71"/>
-      <c r="BK79" s="71"/>
+      <c r="BF79" s="74"/>
+      <c r="BG79" s="74"/>
+      <c r="BH79" s="74"/>
+      <c r="BI79" s="74"/>
+      <c r="BJ79" s="74"/>
+      <c r="BK79" s="74"/>
       <c r="BL79" s="6"/>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
     </row>
     <row r="80" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -8588,12 +8584,12 @@
       <c r="A82" s="68"/>
       <c r="B82" s="68"/>
       <c r="C82" s="68"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="78"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="92"/>
+      <c r="H82" s="92"/>
+      <c r="I82" s="92"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -8642,12 +8638,12 @@
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
       <c r="BE82" s="6"/>
-      <c r="BF82" s="71"/>
-      <c r="BG82" s="71"/>
-      <c r="BH82" s="71"/>
-      <c r="BI82" s="71"/>
-      <c r="BJ82" s="71"/>
-      <c r="BK82" s="71"/>
+      <c r="BF82" s="74"/>
+      <c r="BG82" s="74"/>
+      <c r="BH82" s="74"/>
+      <c r="BI82" s="74"/>
+      <c r="BJ82" s="74"/>
+      <c r="BK82" s="74"/>
       <c r="BL82" s="6"/>
       <c r="BM82" s="6"/>
       <c r="BN82" s="6"/>
@@ -8656,12 +8652,12 @@
       <c r="A83" s="68"/>
       <c r="B83" s="68"/>
       <c r="C83" s="68"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -8724,12 +8720,12 @@
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
       <c r="C84" s="68"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -8792,12 +8788,12 @@
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="92"/>
+      <c r="I85" s="92"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -8846,12 +8842,12 @@
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
       <c r="BE85" s="6"/>
-      <c r="BF85" s="71"/>
-      <c r="BG85" s="71"/>
-      <c r="BH85" s="71"/>
-      <c r="BI85" s="71"/>
-      <c r="BJ85" s="71"/>
-      <c r="BK85" s="71"/>
+      <c r="BF85" s="74"/>
+      <c r="BG85" s="74"/>
+      <c r="BH85" s="74"/>
+      <c r="BI85" s="74"/>
+      <c r="BJ85" s="74"/>
+      <c r="BK85" s="74"/>
       <c r="BL85" s="6"/>
       <c r="BM85" s="6"/>
       <c r="BN85" s="6"/>
@@ -9269,6 +9265,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="AK53:AP53"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="P18:X18"/>
+    <mergeCell ref="P19:X19"/>
+    <mergeCell ref="P33:X33"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="BF85:BK85"/>
+    <mergeCell ref="BF75:BK75"/>
+    <mergeCell ref="BF74:BK74"/>
+    <mergeCell ref="BF59:BK59"/>
+    <mergeCell ref="BF60:BK60"/>
+    <mergeCell ref="BF65:BK65"/>
+    <mergeCell ref="BF55:BK55"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AZ71:BE71"/>
+    <mergeCell ref="AZ67:BE67"/>
+    <mergeCell ref="AZ58:BE58"/>
+    <mergeCell ref="AZ59:BE59"/>
+    <mergeCell ref="AZ52:BE52"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BF52:BK52"/>
+    <mergeCell ref="BF82:BK82"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BF79:BK79"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF78:BK78"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF64:BK64"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF54:BK54"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="D8:O8"/>
     <mergeCell ref="P9:X9"/>
@@ -9293,127 +9410,6 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:O4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BF79:BK79"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF78:BK78"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF64:BK64"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF54:BK54"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="BF85:BK85"/>
-    <mergeCell ref="BF75:BK75"/>
-    <mergeCell ref="BF74:BK74"/>
-    <mergeCell ref="BF59:BK59"/>
-    <mergeCell ref="BF60:BK60"/>
-    <mergeCell ref="BF65:BK65"/>
-    <mergeCell ref="BF55:BK55"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AZ71:BE71"/>
-    <mergeCell ref="AZ67:BE67"/>
-    <mergeCell ref="AZ58:BE58"/>
-    <mergeCell ref="AZ59:BE59"/>
-    <mergeCell ref="AZ52:BE52"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="AT5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BF52:BK52"/>
-    <mergeCell ref="BF82:BK82"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="AK53:AP53"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="P18:X18"/>
-    <mergeCell ref="P19:X19"/>
-    <mergeCell ref="P33:X33"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_3zaizd.xlsx
+++ b/Rozklad_3zaizd.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="20730" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="V12" authorId="0">
+    <comment ref="V12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="267">
   <si>
     <t>І</t>
   </si>
@@ -745,12 +745,123 @@
   </si>
   <si>
     <t>Історія земельних відносин  та землеустрою</t>
+  </si>
+  <si>
+    <t>Супутникова геодезія та сферична астрономія</t>
+  </si>
+  <si>
+    <t>проф. Каблак Н.І.; ас. Ваш Я.І.</t>
+  </si>
+  <si>
+    <t>Заповідна справа</t>
+  </si>
+  <si>
+    <t>Заповідна справа (залік)</t>
+  </si>
+  <si>
+    <t>Основи екології</t>
+  </si>
+  <si>
+    <t>Садово-паркове будівництво</t>
+  </si>
+  <si>
+    <t>доц. Чепур С.С,</t>
+  </si>
+  <si>
+    <t>Садово-паркове будівництво (залік)</t>
+  </si>
+  <si>
+    <t>Озеленення населених місць (де)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основи лісоексплуатації </t>
+  </si>
+  <si>
+    <t>Основи лісоексплуатації (іспит)</t>
+  </si>
+  <si>
+    <t>Лісівництво в т.ч. рекреаційне (кп)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лісове деревинознавство </t>
+  </si>
+  <si>
+    <t>Лісова таксація (де)</t>
+  </si>
+  <si>
+    <t>Механізація лісогосподарських та садово-паркових робіт</t>
+  </si>
+  <si>
+    <t>Державний земельний кадастр</t>
+  </si>
+  <si>
+    <t>Державний земельний кадастр (іспит)</t>
+  </si>
+  <si>
+    <t>ст. викл. Машика Н.В.</t>
+  </si>
+  <si>
+    <t>Підготовчий курс з іноземної мови (залік)</t>
+  </si>
+  <si>
+    <t>Оцінка землі і нерухомого майна</t>
+  </si>
+  <si>
+    <t>доц. Перович І.Л.</t>
+  </si>
+  <si>
+    <t>Оцінка землі і нерухомого майна (залік)</t>
+  </si>
+  <si>
+    <t>Управління земельними ресурсами</t>
+  </si>
+  <si>
+    <t>Землевпорядне  проектування</t>
+  </si>
+  <si>
+    <t>доц. Пересоляк В.Ю.</t>
+  </si>
+  <si>
+    <t>Землевпорядне  проектування (іспит)</t>
+  </si>
+  <si>
+    <t>Управління земельними ресурсами (іспит)</t>
+  </si>
+  <si>
+    <t>ст.викл. Жиган М.В.</t>
+  </si>
+  <si>
+    <t>Аерокосмічні методи та лісовпорядкування</t>
+  </si>
+  <si>
+    <t>Аерокосмічні методи та лісовпорядкування (іспит)</t>
+  </si>
+  <si>
+    <t>Ландшафтна архітектура</t>
+  </si>
+  <si>
+    <t>Ландшафтна архітектура (залік)</t>
+  </si>
+  <si>
+    <t>Основи наукових досліджень (залік)</t>
+  </si>
+  <si>
+    <t>Лісівництво в т.ч. рекреаційне (іспит)</t>
+  </si>
+  <si>
+    <t>Лісова селекція</t>
+  </si>
+  <si>
+    <t>Лісова селекція (іспит)</t>
+  </si>
+  <si>
+    <t>Лісівництво в т.ч. рекреаційне</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1004,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1213,13 +1324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,43 +1333,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1276,23 +1363,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1566,7 +1680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1577,10 +1691,10 @@
   <dimension ref="A1:BT92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="AT20" sqref="AT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,373 +1775,373 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="88" t="s">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="88" t="s">
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="88" t="s">
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="88" t="s">
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="89" t="s">
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
-      <c r="BK1" s="89"/>
-      <c r="BL1" s="89"/>
-      <c r="BM1" s="89"/>
-      <c r="BN1" s="90"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="81"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="81"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="81"/>
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="82"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="76" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="76" t="s">
+      <c r="H2" s="84"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="77" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="79" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="77" t="s">
+      <c r="T2" s="84"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="77"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="79" t="s">
+      <c r="W2" s="84"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="76" t="s">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="77" t="s">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="79" t="s">
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="76" t="s">
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="77" t="s">
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="79" t="s">
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="76" t="s">
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="77" t="s">
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="79" t="s">
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="77"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="76" t="s">
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="77"/>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="77" t="s">
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="77"/>
-      <c r="BN2" s="86"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="88"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="79"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="79" t="s">
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="88"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="77" t="s">
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="85"/>
+      <c r="BC3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="76" t="s">
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="77"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="77" t="s">
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="85"/>
+      <c r="BI3" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="77"/>
-      <c r="BK3" s="80"/>
-      <c r="BL3" s="77" t="s">
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="77"/>
-      <c r="BN3" s="86"/>
-      <c r="BO3" s="91"/>
-      <c r="BP3" s="91"/>
-      <c r="BQ3" s="91"/>
-      <c r="BR3" s="91"/>
-      <c r="BS3" s="91"/>
-      <c r="BT3" s="91"/>
+      <c r="BM3" s="84"/>
+      <c r="BN3" s="88"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="90"/>
     </row>
     <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="79" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="79" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="79" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="77"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="79" t="s">
+      <c r="N4" s="84"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="79" t="s">
+      <c r="Q4" s="84"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="79" t="s">
+      <c r="T4" s="84"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="79" t="s">
+      <c r="W4" s="84"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="79" t="s">
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="79" t="s">
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="79" t="s">
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="79" t="s">
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="79" t="s">
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="79" t="s">
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="76" t="s">
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="86"/>
-      <c r="AZ4" s="79" t="s">
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="79" t="s">
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="76" t="s">
+      <c r="BD4" s="84"/>
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="78"/>
-      <c r="BI4" s="81" t="s">
+      <c r="BG4" s="84"/>
+      <c r="BH4" s="85"/>
+      <c r="BI4" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="83"/>
-      <c r="BL4" s="84" t="s">
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="BM4" s="77"/>
-      <c r="BN4" s="86"/>
+      <c r="BM4" s="84"/>
+      <c r="BN4" s="88"/>
       <c r="BO4" s="25"/>
       <c r="BP4" s="25"/>
       <c r="BQ4" s="25"/>
@@ -2036,103 +2150,103 @@
       <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85" t="s">
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="79" t="s">
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="79" t="s">
+      <c r="Q5" s="84"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="79" t="s">
+      <c r="T5" s="84"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="77"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="79" t="s">
+      <c r="W5" s="84"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="79" t="s">
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="79" t="s">
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="79" t="s">
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="79" t="s">
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="79" t="s">
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="79" t="s">
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="86"/>
-      <c r="AZ5" s="79" t="s">
+      <c r="AU5" s="84"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="87"/>
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" s="77"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="79" t="s">
+      <c r="BA5" s="84"/>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="76"/>
-      <c r="BG5" s="77"/>
-      <c r="BH5" s="78"/>
-      <c r="BI5" s="84"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="76" t="s">
+      <c r="BD5" s="84"/>
+      <c r="BE5" s="86"/>
+      <c r="BF5" s="87"/>
+      <c r="BG5" s="84"/>
+      <c r="BH5" s="85"/>
+      <c r="BI5" s="91"/>
+      <c r="BJ5" s="84"/>
+      <c r="BK5" s="86"/>
+      <c r="BL5" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="86"/>
+      <c r="BM5" s="84"/>
+      <c r="BN5" s="88"/>
       <c r="BO5" s="25"/>
       <c r="BP5" s="25"/>
       <c r="BQ5" s="25"/>
@@ -2353,20 +2467,20 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="72"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
       <c r="P7" s="44" t="s">
         <v>118</v>
       </c>
@@ -2433,11 +2547,19 @@
       <c r="AQ7" s="45"/>
       <c r="AR7" s="38"/>
       <c r="AS7" s="52"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="38"/>
+      <c r="AT7" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU7" s="38" t="s">
+        <v>254</v>
+      </c>
       <c r="AV7" s="52"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
+      <c r="AW7" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX7" s="37" t="s">
+        <v>195</v>
+      </c>
       <c r="AY7" s="43"/>
       <c r="AZ7" s="35"/>
       <c r="BA7" s="36"/>
@@ -2467,20 +2589,20 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="72"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
       <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
@@ -2547,11 +2669,19 @@
       <c r="AQ8" s="20"/>
       <c r="AR8" s="21"/>
       <c r="AS8" s="23"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="21"/>
+      <c r="AT8" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU8" s="21" t="s">
+        <v>254</v>
+      </c>
       <c r="AV8" s="23"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
+      <c r="AW8" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX8" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY8" s="22"/>
       <c r="AZ8" s="28"/>
       <c r="BA8" s="29"/>
@@ -2581,14 +2711,14 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="95"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="24"/>
       <c r="K9" s="21"/>
       <c r="L9" s="23"/>
@@ -2599,17 +2729,17 @@
         <v>104</v>
       </c>
       <c r="O9" s="22"/>
-      <c r="P9" s="70" t="s">
+      <c r="P9" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
       <c r="Y9" s="36"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="64"/>
@@ -2641,14 +2771,22 @@
         <v>201</v>
       </c>
       <c r="AM9" s="23"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
+      <c r="AN9" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO9" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="20"/>
       <c r="AR9" s="21"/>
       <c r="AS9" s="23"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="21"/>
+      <c r="AT9" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU9" s="21" t="s">
+        <v>254</v>
+      </c>
       <c r="AV9" s="23"/>
       <c r="AW9" s="21"/>
       <c r="AX9" s="21"/>
@@ -2677,14 +2815,14 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="31"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
@@ -2733,14 +2871,22 @@
         <v>201</v>
       </c>
       <c r="AM10" s="23"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="6"/>
+      <c r="AN10" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP10" s="22"/>
       <c r="AQ10" s="20"/>
       <c r="AR10" s="21"/>
       <c r="AS10" s="23"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="21"/>
+      <c r="AT10" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU10" s="21" t="s">
+        <v>247</v>
+      </c>
       <c r="AV10" s="23"/>
       <c r="AW10" s="21"/>
       <c r="AX10" s="21"/>
@@ -2761,7 +2907,7 @@
       <c r="BM10" s="6"/>
       <c r="BN10" s="9"/>
     </row>
-    <row r="11" spans="1:72" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="8"/>
@@ -2771,12 +2917,6 @@
       <c r="J11" s="10"/>
       <c r="K11" s="6"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="6"/>
@@ -2838,20 +2978,20 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="89"/>
       <c r="P12" s="7" t="s">
         <v>120</v>
       </c>
@@ -2906,8 +3046,12 @@
         <v>84</v>
       </c>
       <c r="AM12" s="8"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
+      <c r="AN12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="6"/>
@@ -2942,20 +3086,20 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="75"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="89"/>
       <c r="P13" s="7" t="s">
         <v>120</v>
       </c>
@@ -3014,14 +3158,22 @@
         <v>201</v>
       </c>
       <c r="AM13" s="8"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
+      <c r="AN13" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="8"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="6"/>
+      <c r="AT13" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="AV13" s="8"/>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6"/>
@@ -3050,14 +3202,14 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="95"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6"/>
       <c r="L14" s="8"/>
@@ -3126,8 +3278,12 @@
       <c r="AQ14" s="7"/>
       <c r="AR14" s="6"/>
       <c r="AS14" s="8"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="6"/>
+      <c r="AT14" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="AV14" s="8"/>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6"/>
@@ -3156,14 +3312,14 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="95"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="10"/>
       <c r="K15" s="6"/>
       <c r="L15" s="8"/>
@@ -3245,7 +3401,7 @@
       <c r="BM15" s="6"/>
       <c r="BN15" s="9"/>
     </row>
-    <row r="16" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
@@ -3276,12 +3432,8 @@
       <c r="AB16" s="10"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>185</v>
-      </c>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="6"/>
@@ -3331,14 +3483,14 @@
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="93"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="10"/>
       <c r="K17" s="6"/>
       <c r="L17" s="8"/>
@@ -3393,8 +3545,12 @@
       <c r="AQ17" s="7"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="8"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="6"/>
+      <c r="AT17" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="AV17" s="8"/>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6"/>
@@ -3427,14 +3583,14 @@
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="93"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="10" t="s">
         <v>73</v>
       </c>
@@ -3451,17 +3607,17 @@
       <c r="O18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="73" t="s">
+      <c r="P18" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="75"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="89"/>
       <c r="Y18" s="3" t="s">
         <v>151</v>
       </c>
@@ -3477,10 +3633,10 @@
       </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG18" s="9"/>
       <c r="AH18" s="7"/>
@@ -3495,17 +3651,29 @@
       <c r="AM18" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
+      <c r="AN18" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AP18" s="9"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="8"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="6"/>
+      <c r="AT18" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU18" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="AV18" s="8"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
+      <c r="AW18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX18" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="AY18" s="9"/>
       <c r="AZ18" s="7"/>
       <c r="BA18" s="6"/>
@@ -3548,20 +3716,24 @@
         <v>98</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="O19" s="9"/>
-      <c r="P19" s="73" t="s">
+      <c r="P19" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="75"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="89"/>
       <c r="Y19" s="3" t="s">
         <v>151</v>
       </c>
@@ -3593,8 +3765,12 @@
       <c r="AK19" s="10"/>
       <c r="AL19" s="6"/>
       <c r="AM19" s="8"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
+      <c r="AN19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO19" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AP19" s="9"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="6"/>
@@ -3602,8 +3778,12 @@
       <c r="AT19" s="10"/>
       <c r="AU19" s="6"/>
       <c r="AV19" s="8"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
+      <c r="AW19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX19" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY19" s="9"/>
       <c r="AZ19" s="7"/>
       <c r="BA19" s="6"/>
@@ -3662,12 +3842,6 @@
       </c>
       <c r="AA20" s="8"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="AG20" s="9"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="6"/>
@@ -3684,8 +3858,12 @@
       <c r="AT20" s="10"/>
       <c r="AU20" s="6"/>
       <c r="AV20" s="8"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
+      <c r="AW20" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX20" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY20" s="9"/>
       <c r="AZ20" s="7"/>
       <c r="BA20" s="6"/>
@@ -3743,7 +3921,9 @@
       <c r="AK21" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AL21" s="6"/>
+      <c r="AL21" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="AM21" s="8"/>
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
@@ -3783,20 +3963,20 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="75"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="89"/>
       <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
@@ -3827,7 +4007,9 @@
       <c r="AK22" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="AL22" s="6"/>
+      <c r="AL22" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="AM22" s="8"/>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
@@ -3865,20 +4047,20 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="75"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="89"/>
       <c r="P23" s="7" t="s">
         <v>126</v>
       </c>
@@ -3928,17 +4110,29 @@
         <v>171</v>
       </c>
       <c r="AM23" s="8"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
+      <c r="AN23" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO23" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AP23" s="9"/>
       <c r="AQ23" s="7"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="8"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="6"/>
+      <c r="AT23" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU23" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="AV23" s="8"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
+      <c r="AW23" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX23" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY23" s="9"/>
       <c r="AZ23" s="7"/>
       <c r="BA23" s="6"/>
@@ -3964,14 +4158,14 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="96"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="10" t="s">
         <v>73</v>
       </c>
@@ -4028,8 +4222,12 @@
         <v>171</v>
       </c>
       <c r="AM24" s="8"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
+      <c r="AN24" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AP24" s="9"/>
       <c r="AQ24" s="7"/>
       <c r="AR24" s="6"/>
@@ -4037,8 +4235,12 @@
       <c r="AT24" s="10"/>
       <c r="AU24" s="6"/>
       <c r="AV24" s="8"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
+      <c r="AW24" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX24" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY24" s="9"/>
       <c r="AZ24" s="7"/>
       <c r="BA24" s="6"/>
@@ -4068,14 +4270,14 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="96"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="10"/>
       <c r="K25" s="6"/>
       <c r="L25" s="8"/>
@@ -4127,10 +4329,13 @@
       <c r="AR25" s="6"/>
       <c r="AS25" s="8"/>
       <c r="AT25" s="10"/>
-      <c r="AU25" s="6"/>
       <c r="AV25" s="8"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
+      <c r="AW25" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX25" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY25" s="9"/>
       <c r="AZ25" s="7"/>
       <c r="BA25" s="6"/>
@@ -4395,8 +4600,12 @@
         <v>68</v>
       </c>
       <c r="AM28" s="8"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
+      <c r="AN28" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="AP28" s="9"/>
       <c r="AQ28" s="7"/>
       <c r="AR28" s="6"/>
@@ -4404,8 +4613,12 @@
       <c r="AT28" s="10"/>
       <c r="AU28" s="6"/>
       <c r="AV28" s="8"/>
-      <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
+      <c r="AW28" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX28" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="AY28" s="9"/>
       <c r="AZ28" s="7"/>
       <c r="BA28" s="6"/>
@@ -4423,7 +4636,7 @@
       <c r="BM28" s="6"/>
       <c r="BN28" s="9"/>
     </row>
-    <row r="29" spans="1:66" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -4471,7 +4684,7 @@
         <v>98</v>
       </c>
       <c r="U29" s="8"/>
-      <c r="V29" s="6" t="s">
+      <c r="V29" s="10" t="s">
         <v>135</v>
       </c>
       <c r="W29" s="6" t="s">
@@ -4513,8 +4726,12 @@
         <v>68</v>
       </c>
       <c r="AM29" s="8"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
+      <c r="AN29" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO29" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP29" s="9"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="6"/>
@@ -4522,8 +4739,12 @@
       <c r="AT29" s="10"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="8"/>
-      <c r="AW29" s="6"/>
-      <c r="AX29" s="6"/>
+      <c r="AW29" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX29" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="AY29" s="9"/>
       <c r="AZ29" s="7"/>
       <c r="BA29" s="6"/>
@@ -4541,7 +4762,7 @@
       <c r="BM29" s="6"/>
       <c r="BN29" s="9"/>
     </row>
-    <row r="30" spans="1:66" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>3</v>
@@ -4570,11 +4791,11 @@
       <c r="R30" s="8"/>
       <c r="S30" s="10"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="65" t="s">
+      <c r="U30" s="6"/>
+      <c r="V30" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="W30" s="65" t="s">
+      <c r="W30" s="70" t="s">
         <v>140</v>
       </c>
       <c r="X30" s="9"/>
@@ -4595,8 +4816,12 @@
       <c r="AK30" s="10"/>
       <c r="AL30" s="6"/>
       <c r="AM30" s="8"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
+      <c r="AN30" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO30" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP30" s="9"/>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="6"/>
@@ -4799,17 +5024,17 @@
         <v>78</v>
       </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="73" t="s">
+      <c r="P33" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="75"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="89"/>
       <c r="Y33" s="20" t="s">
         <v>81</v>
       </c>
@@ -4824,6 +5049,12 @@
         <v>171</v>
       </c>
       <c r="AD33" s="8"/>
+      <c r="AE33" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="AG33" s="9"/>
       <c r="AH33" s="7" t="s">
         <v>203</v>
@@ -4839,17 +5070,29 @@
         <v>68</v>
       </c>
       <c r="AM33" s="8"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
+      <c r="AN33" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO33" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP33" s="9"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="8"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="6"/>
+      <c r="AT33" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU33" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="AV33" s="8"/>
-      <c r="AW33" s="6"/>
-      <c r="AX33" s="6"/>
+      <c r="AW33" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AX33" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AY33" s="9"/>
       <c r="AZ33" s="7"/>
       <c r="BA33" s="6"/>
@@ -4918,8 +5161,12 @@
         <v>112</v>
       </c>
       <c r="AD34" s="8"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
+      <c r="AE34" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="AG34" s="9"/>
       <c r="AH34" s="7" t="s">
         <v>203</v>
@@ -4935,17 +5182,29 @@
         <v>68</v>
       </c>
       <c r="AM34" s="8"/>
-      <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
+      <c r="AN34" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO34" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP34" s="9"/>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="8"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="6"/>
+      <c r="AT34" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU34" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="AV34" s="8"/>
-      <c r="AW34" s="6"/>
-      <c r="AX34" s="6"/>
+      <c r="AW34" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AX34" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="AY34" s="9"/>
       <c r="AZ34" s="7"/>
       <c r="BA34" s="6"/>
@@ -5028,8 +5287,12 @@
       <c r="AT35" s="10"/>
       <c r="AU35" s="6"/>
       <c r="AV35" s="8"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
+      <c r="AW35" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX35" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY35" s="9"/>
       <c r="AZ35" s="7"/>
       <c r="BA35" s="6"/>
@@ -5125,20 +5388,20 @@
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="75"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="89"/>
       <c r="P37" s="7" t="s">
         <v>125</v>
       </c>
@@ -5211,14 +5474,14 @@
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="96"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="78"/>
       <c r="J38" s="10" t="s">
         <v>111</v>
       </c>
@@ -5277,8 +5540,12 @@
         <v>171</v>
       </c>
       <c r="AM38" s="8"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
+      <c r="AN38" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO38" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP38" s="9"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="6"/>
@@ -5286,8 +5553,12 @@
       <c r="AT38" s="10"/>
       <c r="AU38" s="6"/>
       <c r="AV38" s="8"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="6"/>
+      <c r="AW38" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX38" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="AY38" s="9"/>
       <c r="AZ38" s="7"/>
       <c r="BA38" s="6"/>
@@ -5313,14 +5584,14 @@
       <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="96"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="10"/>
       <c r="K39" s="6"/>
       <c r="L39" s="8"/>
@@ -5369,8 +5640,12 @@
         <v>171</v>
       </c>
       <c r="AM39" s="8"/>
-      <c r="AN39" s="21"/>
-      <c r="AO39" s="21"/>
+      <c r="AN39" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO39" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP39" s="9"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="6"/>
@@ -5378,8 +5653,12 @@
       <c r="AT39" s="10"/>
       <c r="AU39" s="6"/>
       <c r="AV39" s="8"/>
-      <c r="AW39" s="6"/>
-      <c r="AX39" s="6"/>
+      <c r="AW39" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX39" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="AY39" s="9"/>
       <c r="AZ39" s="7"/>
       <c r="BA39" s="6"/>
@@ -5449,8 +5728,6 @@
         <v>171</v>
       </c>
       <c r="AM40" s="8"/>
-      <c r="AN40" s="21"/>
-      <c r="AO40" s="21"/>
       <c r="AP40" s="9"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="6"/>
@@ -5458,8 +5735,12 @@
       <c r="AT40" s="10"/>
       <c r="AU40" s="6"/>
       <c r="AV40" s="8"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="6"/>
+      <c r="AW40" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX40" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY40" s="9"/>
       <c r="AZ40" s="7"/>
       <c r="BA40" s="6"/>
@@ -5568,17 +5849,17 @@
         <v>106</v>
       </c>
       <c r="O42" s="32"/>
-      <c r="P42" s="73" t="s">
+      <c r="P42" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="75"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="89"/>
       <c r="Y42" s="7" t="s">
         <v>162</v>
       </c>
@@ -5607,8 +5888,12 @@
         <v>209</v>
       </c>
       <c r="AJ42" s="8"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="6"/>
+      <c r="AK42" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL42" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="AM42" s="8"/>
       <c r="AN42" s="6"/>
       <c r="AO42" s="6"/>
@@ -5701,8 +5986,12 @@
         <v>209</v>
       </c>
       <c r="AJ43" s="8"/>
-      <c r="AK43" s="10"/>
-      <c r="AL43" s="6"/>
+      <c r="AK43" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL43" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="AM43" s="8"/>
       <c r="AN43" s="6"/>
       <c r="AO43" s="6"/>
@@ -5791,8 +6080,12 @@
         <v>217</v>
       </c>
       <c r="AJ44" s="8"/>
-      <c r="AK44" s="10"/>
-      <c r="AL44" s="6"/>
+      <c r="AK44" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL44" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="AM44" s="8"/>
       <c r="AN44" s="6"/>
       <c r="AO44" s="6"/>
@@ -5883,8 +6176,12 @@
       <c r="AT45" s="10"/>
       <c r="AU45" s="6"/>
       <c r="AV45" s="8"/>
-      <c r="AW45" s="6"/>
-      <c r="AX45" s="6"/>
+      <c r="AW45" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX45" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="AY45" s="9"/>
       <c r="AZ45" s="7"/>
       <c r="BA45" s="6"/>
@@ -6034,8 +6331,12 @@
         <v>147</v>
       </c>
       <c r="AJ47" s="8"/>
-      <c r="AK47" s="10"/>
-      <c r="AL47" s="6"/>
+      <c r="AK47" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL47" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="AM47" s="8"/>
       <c r="AN47" s="6"/>
       <c r="AO47" s="6"/>
@@ -6130,8 +6431,12 @@
         <v>147</v>
       </c>
       <c r="AJ48" s="8"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="6"/>
+      <c r="AK48" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL48" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="AM48" s="8"/>
       <c r="AN48" s="6"/>
       <c r="AO48" s="6"/>
@@ -6226,12 +6531,19 @@
         <v>147</v>
       </c>
       <c r="AJ49" s="8"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="6"/>
+      <c r="AK49" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL49" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="AM49" s="8"/>
-      <c r="AN49" s="6"/>
-      <c r="AO49" s="6"/>
-      <c r="AP49" s="9"/>
+      <c r="AN49" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO49" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AQ49" s="7"/>
       <c r="AR49" s="6"/>
       <c r="AS49" s="8"/>
@@ -6313,9 +6625,12 @@
       <c r="AK50" s="53"/>
       <c r="AL50" s="16"/>
       <c r="AM50" s="17"/>
-      <c r="AN50" s="16"/>
-      <c r="AO50" s="16"/>
-      <c r="AP50" s="18"/>
+      <c r="AN50" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO50" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AQ50" s="15"/>
       <c r="AR50" s="16"/>
       <c r="AS50" s="17"/>
@@ -6458,21 +6773,25 @@
       <c r="AT52" s="6"/>
       <c r="AU52" s="6"/>
       <c r="AV52" s="6"/>
-      <c r="AW52" s="6"/>
-      <c r="AX52" s="6"/>
+      <c r="AW52" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX52" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="AY52" s="6"/>
-      <c r="AZ52" s="74"/>
-      <c r="BA52" s="74"/>
-      <c r="BB52" s="74"/>
-      <c r="BC52" s="74"/>
-      <c r="BD52" s="74"/>
-      <c r="BE52" s="74"/>
-      <c r="BF52" s="74"/>
-      <c r="BG52" s="74"/>
-      <c r="BH52" s="74"/>
-      <c r="BI52" s="74"/>
-      <c r="BJ52" s="74"/>
-      <c r="BK52" s="74"/>
+      <c r="AZ52" s="72"/>
+      <c r="BA52" s="72"/>
+      <c r="BB52" s="72"/>
+      <c r="BC52" s="72"/>
+      <c r="BD52" s="72"/>
+      <c r="BE52" s="72"/>
+      <c r="BF52" s="72"/>
+      <c r="BG52" s="72"/>
+      <c r="BH52" s="72"/>
+      <c r="BI52" s="72"/>
+      <c r="BJ52" s="72"/>
+      <c r="BK52" s="72"/>
       <c r="BL52" s="6"/>
       <c r="BM52" s="6"/>
       <c r="BN52" s="6"/>
@@ -6488,12 +6807,12 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -6527,20 +6846,28 @@
         <v>147</v>
       </c>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="74"/>
-      <c r="AL53" s="74"/>
-      <c r="AM53" s="74"/>
-      <c r="AN53" s="74"/>
-      <c r="AO53" s="74"/>
-      <c r="AP53" s="74"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP53" s="6"/>
       <c r="AQ53" s="6"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
       <c r="AT53" s="6"/>
       <c r="AU53" s="6"/>
       <c r="AV53" s="6"/>
-      <c r="AW53" s="6"/>
-      <c r="AX53" s="6"/>
+      <c r="AW53" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX53" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="AY53" s="6"/>
       <c r="AZ53" s="6"/>
       <c r="BA53" s="6"/>
@@ -6548,12 +6875,12 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="74"/>
-      <c r="BG53" s="74"/>
-      <c r="BH53" s="74"/>
-      <c r="BI53" s="74"/>
-      <c r="BJ53" s="74"/>
-      <c r="BK53" s="74"/>
+      <c r="BF53" s="72"/>
+      <c r="BG53" s="72"/>
+      <c r="BH53" s="72"/>
+      <c r="BI53" s="72"/>
+      <c r="BJ53" s="72"/>
+      <c r="BK53" s="72"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
@@ -6569,12 +6896,12 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
-      <c r="L54" s="74"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -6614,8 +6941,12 @@
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
       <c r="AM54" s="6"/>
-      <c r="AN54" s="6"/>
-      <c r="AO54" s="6"/>
+      <c r="AN54" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO54" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="AP54" s="6"/>
       <c r="AQ54" s="6"/>
       <c r="AR54" s="6"/>
@@ -6632,12 +6963,12 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="74"/>
-      <c r="BG54" s="74"/>
-      <c r="BH54" s="74"/>
-      <c r="BI54" s="74"/>
-      <c r="BJ54" s="74"/>
-      <c r="BK54" s="74"/>
+      <c r="BF54" s="72"/>
+      <c r="BG54" s="72"/>
+      <c r="BH54" s="72"/>
+      <c r="BI54" s="72"/>
+      <c r="BJ54" s="72"/>
+      <c r="BK54" s="72"/>
       <c r="BL54" s="6"/>
       <c r="BM54" s="6"/>
       <c r="BN54" s="6"/>
@@ -6704,12 +7035,12 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="74"/>
-      <c r="BG55" s="74"/>
-      <c r="BH55" s="74"/>
-      <c r="BI55" s="74"/>
-      <c r="BJ55" s="74"/>
-      <c r="BK55" s="74"/>
+      <c r="BF55" s="72"/>
+      <c r="BG55" s="72"/>
+      <c r="BH55" s="72"/>
+      <c r="BI55" s="72"/>
+      <c r="BJ55" s="72"/>
+      <c r="BK55" s="72"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
@@ -6721,12 +7052,12 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="74"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -6795,12 +7126,12 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -6864,12 +7195,12 @@
       <c r="C58" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -6909,7 +7240,6 @@
       <c r="AL58" s="6"/>
       <c r="AM58" s="6"/>
       <c r="AN58" s="6"/>
-      <c r="AO58" s="6"/>
       <c r="AP58" s="6"/>
       <c r="AQ58" s="6"/>
       <c r="AR58" s="6"/>
@@ -6917,15 +7247,19 @@
       <c r="AT58" s="6"/>
       <c r="AU58" s="6"/>
       <c r="AV58" s="6"/>
-      <c r="AW58" s="6"/>
-      <c r="AX58" s="6"/>
+      <c r="AW58" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX58" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="74"/>
-      <c r="BA58" s="74"/>
-      <c r="BB58" s="74"/>
-      <c r="BC58" s="74"/>
-      <c r="BD58" s="74"/>
-      <c r="BE58" s="74"/>
+      <c r="AZ58" s="72"/>
+      <c r="BA58" s="72"/>
+      <c r="BB58" s="72"/>
+      <c r="BC58" s="72"/>
+      <c r="BD58" s="72"/>
+      <c r="BE58" s="72"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
@@ -6944,12 +7278,12 @@
       <c r="C59" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -6988,8 +7322,12 @@
       <c r="AK59" s="6"/>
       <c r="AL59" s="6"/>
       <c r="AM59" s="6"/>
-      <c r="AN59" s="6"/>
-      <c r="AO59" s="6"/>
+      <c r="AN59" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO59" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP59" s="6"/>
       <c r="AQ59" s="6"/>
       <c r="AR59" s="6"/>
@@ -7000,18 +7338,18 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
-      <c r="AZ59" s="74"/>
-      <c r="BA59" s="74"/>
-      <c r="BB59" s="74"/>
-      <c r="BC59" s="74"/>
-      <c r="BD59" s="74"/>
-      <c r="BE59" s="74"/>
-      <c r="BF59" s="74"/>
-      <c r="BG59" s="74"/>
-      <c r="BH59" s="74"/>
-      <c r="BI59" s="74"/>
-      <c r="BJ59" s="74"/>
-      <c r="BK59" s="74"/>
+      <c r="AZ59" s="72"/>
+      <c r="BA59" s="72"/>
+      <c r="BB59" s="72"/>
+      <c r="BC59" s="72"/>
+      <c r="BD59" s="72"/>
+      <c r="BE59" s="72"/>
+      <c r="BF59" s="72"/>
+      <c r="BG59" s="72"/>
+      <c r="BH59" s="72"/>
+      <c r="BI59" s="72"/>
+      <c r="BJ59" s="72"/>
+      <c r="BK59" s="72"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
       <c r="BN59" s="6"/>
@@ -7064,8 +7402,12 @@
       <c r="AK60" s="6"/>
       <c r="AL60" s="6"/>
       <c r="AM60" s="6"/>
-      <c r="AN60" s="6"/>
-      <c r="AO60" s="6"/>
+      <c r="AN60" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO60" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP60" s="6"/>
       <c r="AQ60" s="6"/>
       <c r="AR60" s="6"/>
@@ -7082,12 +7424,12 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="74"/>
-      <c r="BG60" s="74"/>
-      <c r="BH60" s="74"/>
-      <c r="BI60" s="74"/>
-      <c r="BJ60" s="74"/>
-      <c r="BK60" s="74"/>
+      <c r="BF60" s="72"/>
+      <c r="BG60" s="72"/>
+      <c r="BH60" s="72"/>
+      <c r="BI60" s="72"/>
+      <c r="BJ60" s="72"/>
+      <c r="BK60" s="72"/>
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
@@ -7173,12 +7515,12 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="74"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -7224,12 +7566,12 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="74"/>
-      <c r="BG62" s="74"/>
-      <c r="BH62" s="74"/>
-      <c r="BI62" s="74"/>
-      <c r="BJ62" s="74"/>
-      <c r="BK62" s="74"/>
+      <c r="BF62" s="72"/>
+      <c r="BG62" s="72"/>
+      <c r="BH62" s="72"/>
+      <c r="BI62" s="72"/>
+      <c r="BJ62" s="72"/>
+      <c r="BK62" s="72"/>
       <c r="BL62" s="6"/>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
@@ -7245,12 +7587,12 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -7286,8 +7628,12 @@
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
       <c r="AM63" s="6"/>
-      <c r="AN63" s="6"/>
-      <c r="AO63" s="6"/>
+      <c r="AN63" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO63" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP63" s="6"/>
       <c r="AQ63" s="6"/>
       <c r="AR63" s="6"/>
@@ -7304,12 +7650,12 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="74"/>
-      <c r="BG63" s="74"/>
-      <c r="BH63" s="74"/>
-      <c r="BI63" s="74"/>
-      <c r="BJ63" s="74"/>
-      <c r="BK63" s="74"/>
+      <c r="BF63" s="72"/>
+      <c r="BG63" s="72"/>
+      <c r="BH63" s="72"/>
+      <c r="BI63" s="72"/>
+      <c r="BJ63" s="72"/>
+      <c r="BK63" s="72"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
@@ -7322,12 +7668,12 @@
       <c r="C64" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -7362,8 +7708,12 @@
       <c r="AK64" s="6"/>
       <c r="AL64" s="6"/>
       <c r="AM64" s="6"/>
-      <c r="AN64" s="6"/>
-      <c r="AO64" s="6"/>
+      <c r="AN64" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO64" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AP64" s="6"/>
       <c r="AQ64" s="6"/>
       <c r="AR64" s="6"/>
@@ -7380,12 +7730,12 @@
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="74"/>
-      <c r="BG64" s="74"/>
-      <c r="BH64" s="74"/>
-      <c r="BI64" s="74"/>
-      <c r="BJ64" s="74"/>
-      <c r="BK64" s="74"/>
+      <c r="BF64" s="72"/>
+      <c r="BG64" s="72"/>
+      <c r="BH64" s="72"/>
+      <c r="BI64" s="72"/>
+      <c r="BJ64" s="72"/>
+      <c r="BK64" s="72"/>
       <c r="BL64" s="6"/>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
@@ -7443,8 +7793,12 @@
       <c r="AT65" s="6"/>
       <c r="AU65" s="6"/>
       <c r="AV65" s="6"/>
-      <c r="AW65" s="6"/>
-      <c r="AX65" s="6"/>
+      <c r="AW65" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX65" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY65" s="6"/>
       <c r="AZ65" s="6"/>
       <c r="BA65" s="6"/>
@@ -7452,12 +7806,12 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
       <c r="BE65" s="6"/>
-      <c r="BF65" s="74"/>
-      <c r="BG65" s="74"/>
-      <c r="BH65" s="74"/>
-      <c r="BI65" s="74"/>
-      <c r="BJ65" s="74"/>
-      <c r="BK65" s="74"/>
+      <c r="BF65" s="72"/>
+      <c r="BG65" s="72"/>
+      <c r="BH65" s="72"/>
+      <c r="BI65" s="72"/>
+      <c r="BJ65" s="72"/>
+      <c r="BK65" s="72"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
@@ -7544,12 +7898,12 @@
       <c r="C67" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -7589,15 +7943,19 @@
       <c r="AT67" s="6"/>
       <c r="AU67" s="6"/>
       <c r="AV67" s="6"/>
-      <c r="AW67" s="6"/>
-      <c r="AX67" s="6"/>
+      <c r="AW67" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX67" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY67" s="6"/>
-      <c r="AZ67" s="74"/>
-      <c r="BA67" s="74"/>
-      <c r="BB67" s="74"/>
-      <c r="BC67" s="74"/>
-      <c r="BD67" s="74"/>
-      <c r="BE67" s="74"/>
+      <c r="AZ67" s="72"/>
+      <c r="BA67" s="72"/>
+      <c r="BB67" s="72"/>
+      <c r="BC67" s="72"/>
+      <c r="BD67" s="72"/>
+      <c r="BE67" s="72"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
       <c r="BH67" s="6"/>
@@ -7619,12 +7977,12 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -7661,8 +8019,12 @@
       <c r="AT68" s="6"/>
       <c r="AU68" s="6"/>
       <c r="AV68" s="6"/>
-      <c r="AW68" s="6"/>
-      <c r="AX68" s="6"/>
+      <c r="AW68" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX68" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AY68" s="6"/>
       <c r="AZ68" s="6"/>
       <c r="BA68" s="6"/>
@@ -7691,12 +8053,12 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="74"/>
-      <c r="L69" s="74"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="72"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -7742,12 +8104,12 @@
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
       <c r="BE69" s="6"/>
-      <c r="BF69" s="87"/>
-      <c r="BG69" s="87"/>
-      <c r="BH69" s="87"/>
-      <c r="BI69" s="87"/>
-      <c r="BJ69" s="87"/>
-      <c r="BK69" s="87"/>
+      <c r="BF69" s="75"/>
+      <c r="BG69" s="75"/>
+      <c r="BH69" s="75"/>
+      <c r="BI69" s="75"/>
+      <c r="BJ69" s="75"/>
+      <c r="BK69" s="75"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
@@ -7878,12 +8240,12 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="6"/>
-      <c r="AZ71" s="87"/>
-      <c r="BA71" s="87"/>
-      <c r="BB71" s="87"/>
-      <c r="BC71" s="87"/>
-      <c r="BD71" s="87"/>
-      <c r="BE71" s="87"/>
+      <c r="AZ71" s="75"/>
+      <c r="BA71" s="75"/>
+      <c r="BB71" s="75"/>
+      <c r="BC71" s="75"/>
+      <c r="BD71" s="75"/>
+      <c r="BE71" s="75"/>
       <c r="BF71" s="6"/>
       <c r="BG71" s="6"/>
       <c r="BH71" s="6"/>
@@ -7902,12 +8264,12 @@
       <c r="C72" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -7974,12 +8336,12 @@
       <c r="C73" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -8028,12 +8390,12 @@
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
       <c r="BE73" s="6"/>
-      <c r="BF73" s="74"/>
-      <c r="BG73" s="74"/>
-      <c r="BH73" s="74"/>
-      <c r="BI73" s="74"/>
-      <c r="BJ73" s="74"/>
-      <c r="BK73" s="74"/>
+      <c r="BF73" s="72"/>
+      <c r="BG73" s="72"/>
+      <c r="BH73" s="72"/>
+      <c r="BI73" s="72"/>
+      <c r="BJ73" s="72"/>
+      <c r="BK73" s="72"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
       <c r="BN73" s="6"/>
@@ -8046,12 +8408,12 @@
       <c r="C74" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -8100,23 +8462,23 @@
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
       <c r="BE74" s="6"/>
-      <c r="BF74" s="74"/>
-      <c r="BG74" s="74"/>
-      <c r="BH74" s="74"/>
-      <c r="BI74" s="74"/>
-      <c r="BJ74" s="74"/>
-      <c r="BK74" s="74"/>
+      <c r="BF74" s="72"/>
+      <c r="BG74" s="72"/>
+      <c r="BH74" s="72"/>
+      <c r="BI74" s="72"/>
+      <c r="BJ74" s="72"/>
+      <c r="BK74" s="72"/>
       <c r="BL74" s="6"/>
       <c r="BM74" s="6"/>
       <c r="BN74" s="6"/>
     </row>
     <row r="75" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -8165,12 +8527,12 @@
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
       <c r="BE75" s="6"/>
-      <c r="BF75" s="74"/>
-      <c r="BG75" s="74"/>
-      <c r="BH75" s="74"/>
-      <c r="BI75" s="74"/>
-      <c r="BJ75" s="74"/>
-      <c r="BK75" s="74"/>
+      <c r="BF75" s="72"/>
+      <c r="BG75" s="72"/>
+      <c r="BH75" s="72"/>
+      <c r="BI75" s="72"/>
+      <c r="BJ75" s="72"/>
+      <c r="BK75" s="72"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
       <c r="BN75" s="6"/>
@@ -8247,12 +8609,12 @@
       <c r="A77" s="68"/>
       <c r="B77" s="68"/>
       <c r="C77" s="68"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -8301,12 +8663,12 @@
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
       <c r="BE77" s="6"/>
-      <c r="BF77" s="74"/>
-      <c r="BG77" s="74"/>
-      <c r="BH77" s="74"/>
-      <c r="BI77" s="74"/>
-      <c r="BJ77" s="74"/>
-      <c r="BK77" s="74"/>
+      <c r="BF77" s="72"/>
+      <c r="BG77" s="72"/>
+      <c r="BH77" s="72"/>
+      <c r="BI77" s="72"/>
+      <c r="BJ77" s="72"/>
+      <c r="BK77" s="72"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
       <c r="BN77" s="6"/>
@@ -8315,12 +8677,12 @@
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
       <c r="C78" s="68"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -8369,12 +8731,12 @@
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
       <c r="BE78" s="6"/>
-      <c r="BF78" s="74"/>
-      <c r="BG78" s="74"/>
-      <c r="BH78" s="74"/>
-      <c r="BI78" s="74"/>
-      <c r="BJ78" s="74"/>
-      <c r="BK78" s="74"/>
+      <c r="BF78" s="72"/>
+      <c r="BG78" s="72"/>
+      <c r="BH78" s="72"/>
+      <c r="BI78" s="72"/>
+      <c r="BJ78" s="72"/>
+      <c r="BK78" s="72"/>
       <c r="BL78" s="6"/>
       <c r="BM78" s="6"/>
       <c r="BN78" s="6"/>
@@ -8383,12 +8745,12 @@
       <c r="A79" s="68"/>
       <c r="B79" s="68"/>
       <c r="C79" s="68"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -8437,23 +8799,23 @@
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
       <c r="BE79" s="6"/>
-      <c r="BF79" s="74"/>
-      <c r="BG79" s="74"/>
-      <c r="BH79" s="74"/>
-      <c r="BI79" s="74"/>
-      <c r="BJ79" s="74"/>
-      <c r="BK79" s="74"/>
+      <c r="BF79" s="72"/>
+      <c r="BG79" s="72"/>
+      <c r="BH79" s="72"/>
+      <c r="BI79" s="72"/>
+      <c r="BJ79" s="72"/>
+      <c r="BK79" s="72"/>
       <c r="BL79" s="6"/>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
     </row>
     <row r="80" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="74"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -8584,12 +8946,12 @@
       <c r="A82" s="68"/>
       <c r="B82" s="68"/>
       <c r="C82" s="68"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="92"/>
-      <c r="G82" s="92"/>
-      <c r="H82" s="92"/>
-      <c r="I82" s="92"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -8638,12 +9000,12 @@
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
       <c r="BE82" s="6"/>
-      <c r="BF82" s="74"/>
-      <c r="BG82" s="74"/>
-      <c r="BH82" s="74"/>
-      <c r="BI82" s="74"/>
-      <c r="BJ82" s="74"/>
-      <c r="BK82" s="74"/>
+      <c r="BF82" s="72"/>
+      <c r="BG82" s="72"/>
+      <c r="BH82" s="72"/>
+      <c r="BI82" s="72"/>
+      <c r="BJ82" s="72"/>
+      <c r="BK82" s="72"/>
       <c r="BL82" s="6"/>
       <c r="BM82" s="6"/>
       <c r="BN82" s="6"/>
@@ -8652,12 +9014,12 @@
       <c r="A83" s="68"/>
       <c r="B83" s="68"/>
       <c r="C83" s="68"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="74"/>
-      <c r="H83" s="74"/>
-      <c r="I83" s="74"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -8720,12 +9082,12 @@
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
       <c r="C84" s="68"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="74"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -8788,12 +9150,12 @@
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="92"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -8842,12 +9204,12 @@
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
       <c r="BE85" s="6"/>
-      <c r="BF85" s="74"/>
-      <c r="BG85" s="74"/>
-      <c r="BH85" s="74"/>
-      <c r="BI85" s="74"/>
-      <c r="BJ85" s="74"/>
-      <c r="BK85" s="74"/>
+      <c r="BF85" s="72"/>
+      <c r="BG85" s="72"/>
+      <c r="BH85" s="72"/>
+      <c r="BI85" s="72"/>
+      <c r="BJ85" s="72"/>
+      <c r="BK85" s="72"/>
       <c r="BL85" s="6"/>
       <c r="BM85" s="6"/>
       <c r="BN85" s="6"/>
@@ -9264,79 +9626,56 @@
       <c r="AB92" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="AK53:AP53"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="P18:X18"/>
-    <mergeCell ref="P19:X19"/>
-    <mergeCell ref="P33:X33"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
+  <mergeCells count="144">
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P9:X9"/>
+    <mergeCell ref="P42:X42"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BF79:BK79"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF78:BK78"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF64:BK64"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF54:BK54"/>
+    <mergeCell ref="BL5:BN5"/>
     <mergeCell ref="BF85:BK85"/>
     <mergeCell ref="BF75:BK75"/>
     <mergeCell ref="BF74:BK74"/>
@@ -9361,55 +9700,77 @@
     <mergeCell ref="BC5:BE5"/>
     <mergeCell ref="BF52:BK52"/>
     <mergeCell ref="BF82:BK82"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BF79:BK79"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF78:BK78"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF64:BK64"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF54:BK54"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P9:X9"/>
-    <mergeCell ref="P42:X42"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BK5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="P18:X18"/>
+    <mergeCell ref="P19:X19"/>
+    <mergeCell ref="P33:X33"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Rozklad_3zaizd.xlsx
+++ b/Rozklad_3zaizd.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="281">
   <si>
     <t>І</t>
   </si>
@@ -856,6 +856,48 @@
   </si>
   <si>
     <t>Лісівництво в т.ч. рекреаційне</t>
+  </si>
+  <si>
+    <t>Регіональна економічна та соціальна географія світу</t>
+  </si>
+  <si>
+    <t>Регіональна економічна та соціальна географія світу (іспит)</t>
+  </si>
+  <si>
+    <t>Інформаційні технології в географії (іспит)</t>
+  </si>
+  <si>
+    <t>Картографічне моделювання</t>
+  </si>
+  <si>
+    <t>Картографічне моделювання (іспит)</t>
+  </si>
+  <si>
+    <t>Моніторинг навколишнього природного середовища</t>
+  </si>
+  <si>
+    <t>Моніторинг навколишнього природного середовища (залік)</t>
+  </si>
+  <si>
+    <t>Управління природокористуванням</t>
+  </si>
+  <si>
+    <t>Управління природокористуванням (залік)</t>
+  </si>
+  <si>
+    <t>Галузеві кадастри</t>
+  </si>
+  <si>
+    <t>Галузеві кадастри (іспит)</t>
+  </si>
+  <si>
+    <t>проф. Перович Л.М.</t>
+  </si>
+  <si>
+    <t>Конструктивно-географічні основи раціонального природокористування</t>
+  </si>
+  <si>
+    <t>Конструктивно-географічні основи раціонального природокористування (залік)</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,9 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1327,86 +1366,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1468,7 +1528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1503,7 +1563,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1691,10 +1751,10 @@
   <dimension ref="A1:BT92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AT20" sqref="AT20"/>
+      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,372 +1835,372 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="80" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="80" t="s">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="80" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="80" t="s">
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="81" t="s">
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="82"/>
+      <c r="BA1" s="91"/>
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="91"/>
+      <c r="BJ1" s="91"/>
+      <c r="BK1" s="91"/>
+      <c r="BL1" s="91"/>
+      <c r="BM1" s="91"/>
+      <c r="BN1" s="92"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="84" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="84"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="88"/>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87" t="s">
+      <c r="Q2" s="79"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="84"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="84" t="s">
+      <c r="T2" s="79"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="84"/>
+      <c r="W2" s="79"/>
       <c r="X2" s="88"/>
-      <c r="Y2" s="83" t="s">
+      <c r="Y2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="87" t="s">
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="84" t="s">
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="84"/>
+      <c r="AF2" s="79"/>
       <c r="AG2" s="88"/>
-      <c r="AH2" s="83" t="s">
+      <c r="AH2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="87" t="s">
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="84" t="s">
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="84"/>
+      <c r="AO2" s="79"/>
       <c r="AP2" s="88"/>
-      <c r="AQ2" s="83" t="s">
+      <c r="AQ2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="87" t="s">
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="84" t="s">
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="AX2" s="84"/>
+      <c r="AX2" s="79"/>
       <c r="AY2" s="88"/>
-      <c r="AZ2" s="83" t="s">
+      <c r="AZ2" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="87" t="s">
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="84" t="s">
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="79"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="84"/>
+      <c r="BM2" s="79"/>
       <c r="BN2" s="88"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="88"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
       <c r="X3" s="88"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
       <c r="AG3" s="88"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
       <c r="AP3" s="88"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="79"/>
       <c r="AY3" s="88"/>
-      <c r="AZ3" s="83" t="s">
+      <c r="AZ3" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="84" t="s">
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="BD3" s="84"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="87" t="s">
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="82"/>
+      <c r="BF3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="85"/>
-      <c r="BI3" s="84" t="s">
+      <c r="BG3" s="79"/>
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="86"/>
-      <c r="BL3" s="84" t="s">
+      <c r="BJ3" s="79"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="84"/>
+      <c r="BM3" s="79"/>
       <c r="BN3" s="88"/>
-      <c r="BO3" s="90"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BR3" s="90"/>
-      <c r="BS3" s="90"/>
-      <c r="BT3" s="90"/>
+      <c r="BO3" s="93"/>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="93"/>
+      <c r="BT3" s="93"/>
     </row>
     <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="83" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="83" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="83" t="s">
+      <c r="N4" s="79"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="83" t="s">
+      <c r="Q4" s="79"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="84"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="83" t="s">
+      <c r="T4" s="79"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="84"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="83" t="s">
+      <c r="W4" s="79"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="83" t="s">
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="83" t="s">
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="83" t="s">
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="83" t="s">
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="83" t="s">
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="83" t="s">
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="87" t="s">
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" s="84"/>
+      <c r="AX4" s="79"/>
       <c r="AY4" s="88"/>
-      <c r="AZ4" s="83" t="s">
+      <c r="AZ4" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="83" t="s">
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="87" t="s">
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="95" t="s">
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="91" t="s">
+      <c r="BJ4" s="84"/>
+      <c r="BK4" s="85"/>
+      <c r="BL4" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="BM4" s="84"/>
+      <c r="BM4" s="79"/>
       <c r="BN4" s="88"/>
       <c r="BO4" s="25"/>
       <c r="BP4" s="25"/>
@@ -2150,102 +2210,102 @@
       <c r="BT4" s="25"/>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77" t="s">
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="83" t="s">
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="83" t="s">
+      <c r="Q5" s="79"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="84"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="83" t="s">
+      <c r="T5" s="79"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="84"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="83" t="s">
+      <c r="W5" s="79"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="83" t="s">
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="83" t="s">
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="83" t="s">
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="83" t="s">
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="83" t="s">
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="83" t="s">
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="87"/>
-      <c r="AX5" s="84"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="79"/>
       <c r="AY5" s="88"/>
-      <c r="AZ5" s="83" t="s">
+      <c r="AZ5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="86"/>
-      <c r="BC5" s="83" t="s">
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="82"/>
+      <c r="BC5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="BD5" s="84"/>
-      <c r="BE5" s="86"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="84"/>
-      <c r="BH5" s="85"/>
-      <c r="BI5" s="91"/>
-      <c r="BJ5" s="84"/>
-      <c r="BK5" s="86"/>
-      <c r="BL5" s="87" t="s">
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="82"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="86"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="82"/>
+      <c r="BL5" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="BM5" s="84"/>
+      <c r="BM5" s="79"/>
       <c r="BN5" s="88"/>
       <c r="BO5" s="25"/>
       <c r="BP5" s="25"/>
@@ -2467,119 +2527,114 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="44" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="52"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="10" t="s">
         <v>73</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="52"/>
+      <c r="U7" s="51"/>
       <c r="V7" s="6" t="s">
         <v>138</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="45" t="s">
+      <c r="X7" s="42"/>
+      <c r="Y7" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="Z7" s="38" t="s">
+      <c r="Z7" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="54" t="s">
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="AC7" s="38" t="s">
+      <c r="AC7" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="57" t="s">
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="AF7" s="57" t="s">
+      <c r="AF7" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="45" t="s">
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="AI7" s="63" t="s">
+      <c r="AI7" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="57" t="s">
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="AL7" s="57" t="s">
+      <c r="AL7" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="63" t="s">
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="AO7" s="63" t="s">
+      <c r="AO7" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="51" t="s">
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="AU7" s="38" t="s">
+      <c r="AU7" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="37" t="s">
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="AX7" s="37" t="s">
+      <c r="AX7" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="55"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="37" t="s">
+      <c r="AY7" s="42"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="54"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="45"/>
+      <c r="BL7" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="BM7" s="37" t="s">
+      <c r="BM7" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="BN7" s="39"/>
+      <c r="BN7" s="38"/>
     </row>
     <row r="8" spans="1:72" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -2589,20 +2644,20 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
@@ -2627,42 +2682,42 @@
       <c r="Y8" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="Z8" s="65" t="s">
+      <c r="Z8" s="64" t="s">
         <v>158</v>
       </c>
       <c r="AA8" s="23"/>
       <c r="AB8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="AC8" s="65" t="s">
+      <c r="AC8" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57" t="s">
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="AF8" s="57" t="s">
+      <c r="AF8" s="56" t="s">
         <v>84</v>
       </c>
       <c r="AG8" s="22"/>
       <c r="AH8" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AI8" s="63" t="s">
+      <c r="AI8" s="62" t="s">
         <v>87</v>
       </c>
       <c r="AJ8" s="23"/>
-      <c r="AK8" s="57" t="s">
+      <c r="AK8" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="AL8" s="57" t="s">
+      <c r="AL8" s="56" t="s">
         <v>84</v>
       </c>
       <c r="AM8" s="23"/>
-      <c r="AN8" s="63" t="s">
+      <c r="AN8" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="AO8" s="63" t="s">
+      <c r="AO8" s="62" t="s">
         <v>101</v>
       </c>
       <c r="AP8" s="22"/>
@@ -2683,15 +2738,19 @@
         <v>195</v>
       </c>
       <c r="AY8" s="22"/>
-      <c r="AZ8" s="28"/>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29"/>
+      <c r="AZ8" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="87"/>
+      <c r="BC8" s="87"/>
+      <c r="BD8" s="71" t="s">
+        <v>211</v>
+      </c>
       <c r="BE8" s="30"/>
       <c r="BF8" s="31"/>
       <c r="BG8" s="29"/>
-      <c r="BH8" s="56"/>
+      <c r="BH8" s="55"/>
       <c r="BI8" s="29"/>
       <c r="BJ8" s="29"/>
       <c r="BK8" s="30"/>
@@ -2711,14 +2770,14 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="76"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="97"/>
       <c r="J9" s="24"/>
       <c r="K9" s="21"/>
       <c r="L9" s="23"/>
@@ -2729,38 +2788,38 @@
         <v>104</v>
       </c>
       <c r="O9" s="22"/>
-      <c r="P9" s="92" t="s">
+      <c r="P9" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="64"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="63"/>
       <c r="AB9" s="24" t="s">
         <v>169</v>
       </c>
       <c r="AC9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57" t="s">
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="AF9" s="57" t="s">
+      <c r="AF9" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AI9" s="63" t="s">
+      <c r="AI9" s="62" t="s">
         <v>87</v>
       </c>
       <c r="AJ9" s="23"/>
@@ -2791,15 +2850,19 @@
       <c r="AW9" s="21"/>
       <c r="AX9" s="21"/>
       <c r="AY9" s="22"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="56"/>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
+      <c r="AZ9" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA9" s="87"/>
+      <c r="BB9" s="87"/>
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="71" t="s">
+        <v>211</v>
+      </c>
       <c r="BE9" s="30"/>
       <c r="BF9" s="31"/>
       <c r="BG9" s="29"/>
-      <c r="BH9" s="56"/>
+      <c r="BH9" s="55"/>
       <c r="BI9" s="29"/>
       <c r="BJ9" s="29"/>
       <c r="BK9" s="30"/>
@@ -2815,14 +2878,14 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="31"/>
       <c r="K10" s="29"/>
       <c r="L10" s="30"/>
@@ -2841,23 +2904,23 @@
       <c r="U10" s="23"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="36"/>
+      <c r="Z10" s="35"/>
       <c r="AA10" s="23"/>
       <c r="AB10" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="AC10" s="67" t="s">
+      <c r="AC10" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57" t="s">
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="AF10" s="57" t="s">
+      <c r="AF10" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AG10" s="22"/>
-      <c r="AH10" s="69" t="s">
+      <c r="AH10" s="68" t="s">
         <v>210</v>
       </c>
       <c r="AI10" s="21" t="s">
@@ -2867,7 +2930,7 @@
       <c r="AK10" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="AL10" s="67" t="s">
+      <c r="AL10" s="66" t="s">
         <v>201</v>
       </c>
       <c r="AM10" s="23"/>
@@ -2893,13 +2956,13 @@
       <c r="AY10" s="22"/>
       <c r="AZ10" s="28"/>
       <c r="BA10" s="29"/>
-      <c r="BB10" s="56"/>
+      <c r="BB10" s="55"/>
       <c r="BC10" s="29"/>
       <c r="BD10" s="29"/>
       <c r="BE10" s="30"/>
       <c r="BF10" s="31"/>
       <c r="BG10" s="29"/>
-      <c r="BH10" s="56"/>
+      <c r="BH10" s="55"/>
       <c r="BI10" s="29"/>
       <c r="BJ10" s="29"/>
       <c r="BK10" s="30"/>
@@ -2978,20 +3041,20 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="89"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
       <c r="P12" s="7" t="s">
         <v>120</v>
       </c>
@@ -3025,10 +3088,10 @@
         <v>98</v>
       </c>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="57" t="s">
+      <c r="AE12" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="AF12" s="57" t="s">
+      <c r="AF12" s="56" t="s">
         <v>84</v>
       </c>
       <c r="AG12" s="9"/>
@@ -3039,10 +3102,10 @@
         <v>149</v>
       </c>
       <c r="AJ12" s="8"/>
-      <c r="AK12" s="57" t="s">
+      <c r="AK12" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="AL12" s="57" t="s">
+      <c r="AL12" s="56" t="s">
         <v>84</v>
       </c>
       <c r="AM12" s="8"/>
@@ -3062,15 +3125,15 @@
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
       <c r="AY12" s="9"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="6"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
       <c r="BD12" s="6"/>
       <c r="BE12" s="8"/>
       <c r="BF12" s="31"/>
       <c r="BG12" s="29"/>
-      <c r="BH12" s="56"/>
+      <c r="BH12" s="55"/>
       <c r="BI12" s="29"/>
       <c r="BJ12" s="29"/>
       <c r="BK12" s="30"/>
@@ -3086,20 +3149,20 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="89"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="77"/>
       <c r="P13" s="7" t="s">
         <v>120</v>
       </c>
@@ -3154,7 +3217,7 @@
       <c r="AK13" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="AL13" s="67" t="s">
+      <c r="AL13" s="66" t="s">
         <v>201</v>
       </c>
       <c r="AM13" s="8"/>
@@ -3178,15 +3241,15 @@
       <c r="AW13" s="6"/>
       <c r="AX13" s="6"/>
       <c r="AY13" s="9"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="13"/>
-      <c r="BC13" s="6"/>
+      <c r="AZ13" s="75"/>
+      <c r="BA13" s="76"/>
+      <c r="BB13" s="76"/>
+      <c r="BC13" s="76"/>
       <c r="BD13" s="6"/>
       <c r="BE13" s="8"/>
       <c r="BF13" s="31"/>
       <c r="BG13" s="29"/>
-      <c r="BH13" s="56"/>
+      <c r="BH13" s="55"/>
       <c r="BI13" s="29"/>
       <c r="BJ13" s="29"/>
       <c r="BK13" s="30"/>
@@ -3202,14 +3265,14 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="97"/>
       <c r="J14" s="10"/>
       <c r="K14" s="6"/>
       <c r="L14" s="8"/>
@@ -3288,11 +3351,11 @@
       <c r="AW14" s="6"/>
       <c r="AX14" s="6"/>
       <c r="AY14" s="9"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="29"/>
-      <c r="BB14" s="56"/>
-      <c r="BC14" s="29"/>
-      <c r="BD14" s="29"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="76"/>
+      <c r="BB14" s="76"/>
+      <c r="BC14" s="76"/>
+      <c r="BD14" s="6"/>
       <c r="BE14" s="30"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="6"/>
@@ -3312,14 +3375,14 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="97"/>
       <c r="J15" s="10"/>
       <c r="K15" s="6"/>
       <c r="L15" s="8"/>
@@ -3388,7 +3451,7 @@
       <c r="AY15" s="9"/>
       <c r="AZ15" s="28"/>
       <c r="BA15" s="29"/>
-      <c r="BB15" s="56"/>
+      <c r="BB15" s="55"/>
       <c r="BC15" s="29"/>
       <c r="BD15" s="29"/>
       <c r="BE15" s="30"/>
@@ -3483,14 +3546,14 @@
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="10"/>
       <c r="K17" s="6"/>
       <c r="L17" s="8"/>
@@ -3583,14 +3646,14 @@
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="10" t="s">
         <v>73</v>
       </c>
@@ -3607,17 +3670,17 @@
       <c r="O18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="71" t="s">
+      <c r="P18" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="89"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="77"/>
       <c r="Y18" s="3" t="s">
         <v>151</v>
       </c>
@@ -3675,11 +3738,15 @@
         <v>140</v>
       </c>
       <c r="AY18" s="9"/>
-      <c r="AZ18" s="7"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
+      <c r="AZ18" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA18" s="76"/>
+      <c r="BB18" s="76"/>
+      <c r="BC18" s="76"/>
+      <c r="BD18" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="BE18" s="8"/>
       <c r="BF18" s="10"/>
       <c r="BG18" s="6"/>
@@ -3723,17 +3790,17 @@
         <v>104</v>
       </c>
       <c r="O19" s="9"/>
-      <c r="P19" s="71" t="s">
+      <c r="P19" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="89"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="77"/>
       <c r="Y19" s="3" t="s">
         <v>151</v>
       </c>
@@ -3963,20 +4030,20 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="89"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
       <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
@@ -4047,20 +4114,20 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="89"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="77"/>
       <c r="P23" s="7" t="s">
         <v>126</v>
       </c>
@@ -4134,11 +4201,15 @@
         <v>195</v>
       </c>
       <c r="AY23" s="9"/>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
+      <c r="AZ23" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA23" s="102"/>
+      <c r="BB23" s="102"/>
+      <c r="BC23" s="102"/>
+      <c r="BD23" s="103" t="s">
+        <v>78</v>
+      </c>
       <c r="BE23" s="8"/>
       <c r="BF23" s="10"/>
       <c r="BG23" s="6"/>
@@ -4158,14 +4229,14 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="98"/>
       <c r="J24" s="10" t="s">
         <v>73</v>
       </c>
@@ -4270,14 +4341,14 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="98"/>
       <c r="J25" s="10"/>
       <c r="K25" s="6"/>
       <c r="L25" s="8"/>
@@ -4620,11 +4691,15 @@
         <v>140</v>
       </c>
       <c r="AY28" s="9"/>
-      <c r="AZ28" s="7"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="13"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
+      <c r="AZ28" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="87"/>
+      <c r="BD28" s="71" t="s">
+        <v>211</v>
+      </c>
       <c r="BE28" s="8"/>
       <c r="BF28" s="10"/>
       <c r="BG28" s="6"/>
@@ -4712,10 +4787,10 @@
         <v>145</v>
       </c>
       <c r="AG29" s="9"/>
-      <c r="AH29" s="69" t="s">
+      <c r="AH29" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="AI29" s="67" t="s">
+      <c r="AI29" s="66" t="s">
         <v>211</v>
       </c>
       <c r="AJ29" s="8"/>
@@ -4792,10 +4867,10 @@
       <c r="S30" s="10"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="70" t="s">
+      <c r="V30" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="W30" s="70" t="s">
+      <c r="W30" s="69" t="s">
         <v>140</v>
       </c>
       <c r="X30" s="9"/>
@@ -4849,19 +4924,19 @@
       <c r="BN30" s="9"/>
     </row>
     <row r="31" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
       <c r="J31" s="10"/>
@@ -4951,7 +5026,7 @@
       </c>
       <c r="L32" s="8"/>
       <c r="O32" s="9"/>
-      <c r="Q32" s="62"/>
+      <c r="Q32" s="61"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="8"/>
@@ -5024,17 +5099,17 @@
         <v>78</v>
       </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="71" t="s">
+      <c r="P33" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="89"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="77"/>
       <c r="Y33" s="20" t="s">
         <v>81</v>
       </c>
@@ -5094,17 +5169,25 @@
         <v>145</v>
       </c>
       <c r="AY33" s="9"/>
-      <c r="AZ33" s="7"/>
-      <c r="BA33" s="6"/>
-      <c r="BB33" s="13"/>
-      <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
+      <c r="AZ33" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA33" s="76"/>
+      <c r="BB33" s="76"/>
+      <c r="BC33" s="76"/>
+      <c r="BD33" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="BE33" s="8"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="6"/>
-      <c r="BH33" s="13"/>
-      <c r="BI33" s="6"/>
-      <c r="BJ33" s="6"/>
+      <c r="BF33" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="BG33" s="76"/>
+      <c r="BH33" s="76"/>
+      <c r="BI33" s="76"/>
+      <c r="BJ33" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="BK33" s="8"/>
       <c r="BL33" s="6"/>
       <c r="BM33" s="6"/>
@@ -5206,17 +5289,25 @@
         <v>145</v>
       </c>
       <c r="AY34" s="9"/>
-      <c r="AZ34" s="7"/>
-      <c r="BA34" s="6"/>
-      <c r="BB34" s="13"/>
-      <c r="BC34" s="6"/>
-      <c r="BD34" s="6"/>
+      <c r="AZ34" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA34" s="76"/>
+      <c r="BB34" s="76"/>
+      <c r="BC34" s="76"/>
+      <c r="BD34" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="BE34" s="8"/>
-      <c r="BF34" s="10"/>
-      <c r="BG34" s="6"/>
-      <c r="BH34" s="13"/>
-      <c r="BI34" s="6"/>
-      <c r="BJ34" s="6"/>
+      <c r="BF34" s="100" t="s">
+        <v>277</v>
+      </c>
+      <c r="BG34" s="76"/>
+      <c r="BH34" s="76"/>
+      <c r="BI34" s="76"/>
+      <c r="BJ34" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="BK34" s="8"/>
       <c r="BL34" s="6"/>
       <c r="BM34" s="6"/>
@@ -5388,20 +5479,20 @@
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="89"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="77"/>
       <c r="P37" s="7" t="s">
         <v>125</v>
       </c>
@@ -5474,14 +5565,14 @@
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="78"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="10" t="s">
         <v>111</v>
       </c>
@@ -5560,11 +5651,15 @@
         <v>257</v>
       </c>
       <c r="AY38" s="9"/>
-      <c r="AZ38" s="7"/>
-      <c r="BA38" s="6"/>
-      <c r="BB38" s="13"/>
-      <c r="BC38" s="6"/>
-      <c r="BD38" s="6"/>
+      <c r="AZ38" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA38" s="76"/>
+      <c r="BB38" s="76"/>
+      <c r="BC38" s="76"/>
+      <c r="BD38" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="BE38" s="8"/>
       <c r="BF38" s="10"/>
       <c r="BG38" s="6"/>
@@ -5584,14 +5679,14 @@
       <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="78"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="98"/>
       <c r="J39" s="10"/>
       <c r="K39" s="6"/>
       <c r="L39" s="8"/>
@@ -5660,11 +5755,15 @@
         <v>257</v>
       </c>
       <c r="AY39" s="9"/>
-      <c r="AZ39" s="7"/>
-      <c r="BA39" s="6"/>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="6"/>
-      <c r="BD39" s="6"/>
+      <c r="AZ39" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA39" s="76"/>
+      <c r="BB39" s="76"/>
+      <c r="BC39" s="76"/>
+      <c r="BD39" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="BE39" s="8"/>
       <c r="BF39" s="10"/>
       <c r="BG39" s="6"/>
@@ -5849,17 +5948,17 @@
         <v>106</v>
       </c>
       <c r="O42" s="32"/>
-      <c r="P42" s="71" t="s">
+      <c r="P42" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="89"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="77"/>
       <c r="Y42" s="7" t="s">
         <v>162</v>
       </c>
@@ -5915,7 +6014,7 @@
       <c r="BE42" s="8"/>
       <c r="BF42" s="31"/>
       <c r="BG42" s="29"/>
-      <c r="BH42" s="56"/>
+      <c r="BH42" s="55"/>
       <c r="BI42" s="29"/>
       <c r="BJ42" s="29"/>
       <c r="BK42" s="30"/>
@@ -5951,10 +6050,10 @@
       </c>
       <c r="R43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="38" t="s">
+      <c r="V43" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="W43" s="38" t="s">
+      <c r="W43" s="37" t="s">
         <v>140</v>
       </c>
       <c r="X43" s="9"/>
@@ -6007,7 +6106,7 @@
       <c r="AY43" s="9"/>
       <c r="AZ43" s="28"/>
       <c r="BA43" s="29"/>
-      <c r="BB43" s="56"/>
+      <c r="BB43" s="55"/>
       <c r="BC43" s="29"/>
       <c r="BD43" s="29"/>
       <c r="BE43" s="30"/>
@@ -6099,15 +6198,19 @@
       <c r="AW44" s="6"/>
       <c r="AX44" s="6"/>
       <c r="AY44" s="9"/>
-      <c r="AZ44" s="7"/>
-      <c r="BA44" s="6"/>
-      <c r="BB44" s="13"/>
-      <c r="BC44" s="6"/>
-      <c r="BD44" s="6"/>
+      <c r="AZ44" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA44" s="76"/>
+      <c r="BB44" s="76"/>
+      <c r="BC44" s="76"/>
+      <c r="BD44" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="BE44" s="8"/>
       <c r="BF44" s="31"/>
       <c r="BG44" s="29"/>
-      <c r="BH44" s="56"/>
+      <c r="BH44" s="55"/>
       <c r="BI44" s="29"/>
       <c r="BJ44" s="29"/>
       <c r="BK44" s="30"/>
@@ -6183,15 +6286,19 @@
         <v>140</v>
       </c>
       <c r="AY45" s="9"/>
-      <c r="AZ45" s="7"/>
-      <c r="BA45" s="6"/>
-      <c r="BB45" s="13"/>
-      <c r="BC45" s="6"/>
-      <c r="BD45" s="6"/>
+      <c r="AZ45" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="BA45" s="76"/>
+      <c r="BB45" s="76"/>
+      <c r="BC45" s="76"/>
+      <c r="BD45" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="BE45" s="8"/>
       <c r="BF45" s="31"/>
       <c r="BG45" s="29"/>
-      <c r="BH45" s="56"/>
+      <c r="BH45" s="55"/>
       <c r="BI45" s="29"/>
       <c r="BJ45" s="29"/>
       <c r="BK45" s="30"/>
@@ -6274,10 +6381,10 @@
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="40"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="33"/>
       <c r="F47" s="34"/>
-      <c r="G47" s="49"/>
+      <c r="G47" s="48"/>
       <c r="H47" s="33"/>
       <c r="I47" s="34"/>
       <c r="J47" s="10"/>
@@ -6350,11 +6457,19 @@
       <c r="AW47" s="6"/>
       <c r="AX47" s="6"/>
       <c r="AY47" s="9"/>
-      <c r="AZ47" s="7"/>
-      <c r="BA47" s="6"/>
+      <c r="AZ47" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA47" s="71" t="s">
+        <v>211</v>
+      </c>
       <c r="BB47" s="13"/>
-      <c r="BC47" s="6"/>
-      <c r="BD47" s="6"/>
+      <c r="BC47" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD47" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="BE47" s="8"/>
       <c r="BF47" s="10"/>
       <c r="BG47" s="6"/>
@@ -6374,10 +6489,10 @@
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="40"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="33"/>
       <c r="F48" s="34"/>
-      <c r="G48" s="49"/>
+      <c r="G48" s="48"/>
       <c r="H48" s="33"/>
       <c r="I48" s="34"/>
       <c r="J48" s="10"/>
@@ -6450,11 +6565,19 @@
       <c r="AW48" s="6"/>
       <c r="AX48" s="6"/>
       <c r="AY48" s="9"/>
-      <c r="AZ48" s="28"/>
-      <c r="BA48" s="29"/>
-      <c r="BB48" s="56"/>
-      <c r="BC48" s="29"/>
-      <c r="BD48" s="29"/>
+      <c r="AZ48" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA48" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="BB48" s="55"/>
+      <c r="BC48" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD48" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="BE48" s="30"/>
       <c r="BF48" s="10"/>
       <c r="BG48" s="6"/>
@@ -6474,10 +6597,10 @@
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="33"/>
       <c r="F49" s="34"/>
-      <c r="G49" s="49"/>
+      <c r="G49" s="48"/>
       <c r="H49" s="33"/>
       <c r="I49" s="34"/>
       <c r="J49" s="10"/>
@@ -6553,11 +6676,15 @@
       <c r="AW49" s="6"/>
       <c r="AX49" s="6"/>
       <c r="AY49" s="9"/>
-      <c r="AZ49" s="7"/>
-      <c r="BA49" s="6"/>
-      <c r="BB49" s="13"/>
-      <c r="BC49" s="6"/>
-      <c r="BD49" s="6"/>
+      <c r="AZ49" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA49" s="87"/>
+      <c r="BB49" s="87"/>
+      <c r="BC49" s="87"/>
+      <c r="BD49" s="71" t="s">
+        <v>211</v>
+      </c>
       <c r="BE49" s="8"/>
       <c r="BF49" s="10"/>
       <c r="BG49" s="6"/>
@@ -6577,13 +6704,13 @@
       <c r="C50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="53"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="16"/>
       <c r="L50" s="17"/>
       <c r="M50" s="16"/>
@@ -6592,7 +6719,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="17"/>
-      <c r="S50" s="53"/>
+      <c r="S50" s="52"/>
       <c r="T50" s="16"/>
       <c r="U50" s="17"/>
       <c r="V50" s="6" t="s">
@@ -6622,7 +6749,7 @@
         <v>147</v>
       </c>
       <c r="AJ50" s="17"/>
-      <c r="AK50" s="53"/>
+      <c r="AK50" s="52"/>
       <c r="AL50" s="16"/>
       <c r="AM50" s="17"/>
       <c r="AN50" s="6" t="s">
@@ -6634,7 +6761,7 @@
       <c r="AQ50" s="15"/>
       <c r="AR50" s="16"/>
       <c r="AS50" s="17"/>
-      <c r="AT50" s="53"/>
+      <c r="AT50" s="52"/>
       <c r="AU50" s="16"/>
       <c r="AV50" s="17"/>
       <c r="AW50" s="16"/>
@@ -6646,7 +6773,7 @@
       <c r="BC50" s="16"/>
       <c r="BD50" s="16"/>
       <c r="BE50" s="17"/>
-      <c r="BF50" s="53"/>
+      <c r="BF50" s="52"/>
       <c r="BG50" s="16"/>
       <c r="BH50" s="19"/>
       <c r="BI50" s="16"/>
@@ -6725,13 +6852,13 @@
       <c r="BN51" s="6"/>
     </row>
     <row r="52" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="6"/>
@@ -6780,39 +6907,39 @@
         <v>257</v>
       </c>
       <c r="AY52" s="6"/>
-      <c r="AZ52" s="72"/>
-      <c r="BA52" s="72"/>
-      <c r="BB52" s="72"/>
-      <c r="BC52" s="72"/>
-      <c r="BD52" s="72"/>
-      <c r="BE52" s="72"/>
-      <c r="BF52" s="72"/>
-      <c r="BG52" s="72"/>
-      <c r="BH52" s="72"/>
-      <c r="BI52" s="72"/>
-      <c r="BJ52" s="72"/>
-      <c r="BK52" s="72"/>
+      <c r="AZ52" s="76"/>
+      <c r="BA52" s="76"/>
+      <c r="BB52" s="76"/>
+      <c r="BC52" s="76"/>
+      <c r="BD52" s="76"/>
+      <c r="BE52" s="76"/>
+      <c r="BF52" s="76"/>
+      <c r="BG52" s="76"/>
+      <c r="BH52" s="76"/>
+      <c r="BI52" s="76"/>
+      <c r="BJ52" s="76"/>
+      <c r="BK52" s="76"/>
       <c r="BL52" s="6"/>
       <c r="BM52" s="6"/>
       <c r="BN52" s="6"/>
     </row>
     <row r="53" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -6875,33 +7002,33 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
       <c r="BE53" s="6"/>
-      <c r="BF53" s="72"/>
-      <c r="BG53" s="72"/>
-      <c r="BH53" s="72"/>
-      <c r="BI53" s="72"/>
-      <c r="BJ53" s="72"/>
-      <c r="BK53" s="72"/>
+      <c r="BF53" s="76"/>
+      <c r="BG53" s="76"/>
+      <c r="BH53" s="76"/>
+      <c r="BI53" s="76"/>
+      <c r="BJ53" s="76"/>
+      <c r="BK53" s="76"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
       <c r="BN53" s="6"/>
     </row>
     <row r="54" spans="1:66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="C54" s="67" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -6963,22 +7090,22 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
-      <c r="BF54" s="72"/>
-      <c r="BG54" s="72"/>
-      <c r="BH54" s="72"/>
-      <c r="BI54" s="72"/>
-      <c r="BJ54" s="72"/>
-      <c r="BK54" s="72"/>
+      <c r="BF54" s="76"/>
+      <c r="BG54" s="76"/>
+      <c r="BH54" s="76"/>
+      <c r="BI54" s="76"/>
+      <c r="BJ54" s="76"/>
+      <c r="BK54" s="76"/>
       <c r="BL54" s="6"/>
       <c r="BM54" s="6"/>
       <c r="BN54" s="6"/>
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="67" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="6"/>
@@ -7035,29 +7162,29 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
       <c r="BE55" s="6"/>
-      <c r="BF55" s="72"/>
-      <c r="BG55" s="72"/>
-      <c r="BH55" s="72"/>
-      <c r="BI55" s="72"/>
-      <c r="BJ55" s="72"/>
-      <c r="BK55" s="72"/>
+      <c r="BF55" s="76"/>
+      <c r="BG55" s="76"/>
+      <c r="BH55" s="76"/>
+      <c r="BI55" s="76"/>
+      <c r="BJ55" s="76"/>
+      <c r="BK55" s="76"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="67" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -7114,24 +7241,24 @@
       <c r="BN56" s="6"/>
     </row>
     <row r="57" spans="1:66" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -7188,19 +7315,19 @@
       <c r="BN57" s="6"/>
     </row>
     <row r="58" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="68" t="s">
+      <c r="C58" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -7254,12 +7381,13 @@
         <v>80</v>
       </c>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="72"/>
-      <c r="BA58" s="72"/>
-      <c r="BB58" s="72"/>
-      <c r="BC58" s="72"/>
-      <c r="BD58" s="72"/>
-      <c r="BE58" s="72"/>
+      <c r="BC58" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="BD58" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE58" s="6"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
       <c r="BH58" s="6"/>
@@ -7271,19 +7399,19 @@
       <c r="BN58" s="6"/>
     </row>
     <row r="59" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -7338,28 +7466,32 @@
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
-      <c r="AZ59" s="72"/>
-      <c r="BA59" s="72"/>
-      <c r="BB59" s="72"/>
-      <c r="BC59" s="72"/>
-      <c r="BD59" s="72"/>
-      <c r="BE59" s="72"/>
-      <c r="BF59" s="72"/>
-      <c r="BG59" s="72"/>
-      <c r="BH59" s="72"/>
-      <c r="BI59" s="72"/>
-      <c r="BJ59" s="72"/>
-      <c r="BK59" s="72"/>
+      <c r="AZ59" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="BA59" s="76"/>
+      <c r="BB59" s="76"/>
+      <c r="BC59" s="76"/>
+      <c r="BD59" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE59" s="70"/>
+      <c r="BF59" s="76"/>
+      <c r="BG59" s="76"/>
+      <c r="BH59" s="76"/>
+      <c r="BI59" s="76"/>
+      <c r="BJ59" s="76"/>
+      <c r="BK59" s="76"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
       <c r="BN59" s="6"/>
     </row>
     <row r="60" spans="1:66" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="67" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="6"/>
@@ -7424,12 +7556,12 @@
       <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
-      <c r="BF60" s="72"/>
-      <c r="BG60" s="72"/>
-      <c r="BH60" s="72"/>
-      <c r="BI60" s="72"/>
-      <c r="BJ60" s="72"/>
-      <c r="BK60" s="72"/>
+      <c r="BF60" s="76"/>
+      <c r="BG60" s="76"/>
+      <c r="BH60" s="76"/>
+      <c r="BI60" s="76"/>
+      <c r="BJ60" s="76"/>
+      <c r="BK60" s="76"/>
       <c r="BL60" s="6"/>
       <c r="BM60" s="6"/>
       <c r="BN60" s="6"/>
@@ -7503,24 +7635,24 @@
       <c r="BN61" s="6"/>
     </row>
     <row r="62" spans="1:66" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
@@ -7566,33 +7698,33 @@
       <c r="BC62" s="6"/>
       <c r="BD62" s="6"/>
       <c r="BE62" s="6"/>
-      <c r="BF62" s="72"/>
-      <c r="BG62" s="72"/>
-      <c r="BH62" s="72"/>
-      <c r="BI62" s="72"/>
-      <c r="BJ62" s="72"/>
-      <c r="BK62" s="72"/>
+      <c r="BF62" s="76"/>
+      <c r="BG62" s="76"/>
+      <c r="BH62" s="76"/>
+      <c r="BI62" s="76"/>
+      <c r="BJ62" s="76"/>
+      <c r="BK62" s="76"/>
       <c r="BL62" s="6"/>
       <c r="BM62" s="6"/>
       <c r="BN62" s="6"/>
     </row>
     <row r="63" spans="1:66" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
-      <c r="B63" s="68" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="68" t="s">
+      <c r="C63" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -7650,30 +7782,30 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
       <c r="BE63" s="6"/>
-      <c r="BF63" s="72"/>
-      <c r="BG63" s="72"/>
-      <c r="BH63" s="72"/>
-      <c r="BI63" s="72"/>
-      <c r="BJ63" s="72"/>
-      <c r="BK63" s="72"/>
+      <c r="BF63" s="76"/>
+      <c r="BG63" s="76"/>
+      <c r="BH63" s="76"/>
+      <c r="BI63" s="76"/>
+      <c r="BJ63" s="76"/>
+      <c r="BK63" s="76"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
       <c r="BN63" s="6"/>
     </row>
     <row r="64" spans="1:66" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
-      <c r="B64" s="68" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -7724,28 +7856,32 @@
       <c r="AW64" s="6"/>
       <c r="AX64" s="6"/>
       <c r="AY64" s="6"/>
-      <c r="AZ64" s="6"/>
-      <c r="BA64" s="6"/>
+      <c r="AZ64" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="BA64" s="71" t="s">
+        <v>211</v>
+      </c>
       <c r="BB64" s="6"/>
       <c r="BC64" s="6"/>
       <c r="BD64" s="6"/>
       <c r="BE64" s="6"/>
-      <c r="BF64" s="72"/>
-      <c r="BG64" s="72"/>
-      <c r="BH64" s="72"/>
-      <c r="BI64" s="72"/>
-      <c r="BJ64" s="72"/>
-      <c r="BK64" s="72"/>
+      <c r="BF64" s="76"/>
+      <c r="BG64" s="76"/>
+      <c r="BH64" s="76"/>
+      <c r="BI64" s="76"/>
+      <c r="BJ64" s="76"/>
+      <c r="BK64" s="76"/>
       <c r="BL64" s="6"/>
       <c r="BM64" s="6"/>
       <c r="BN64" s="6"/>
     </row>
     <row r="65" spans="1:66" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="68" t="s">
+      <c r="C65" s="67" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="6"/>
@@ -7806,24 +7942,24 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
       <c r="BE65" s="6"/>
-      <c r="BF65" s="72"/>
-      <c r="BG65" s="72"/>
-      <c r="BH65" s="72"/>
-      <c r="BI65" s="72"/>
-      <c r="BJ65" s="72"/>
-      <c r="BK65" s="72"/>
+      <c r="BF65" s="76"/>
+      <c r="BG65" s="76"/>
+      <c r="BH65" s="76"/>
+      <c r="BI65" s="76"/>
+      <c r="BJ65" s="76"/>
+      <c r="BK65" s="76"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
       <c r="BN65" s="6"/>
     </row>
     <row r="66" spans="1:66" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="68" t="s">
+      <c r="A66" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="6"/>
@@ -7891,19 +8027,19 @@
       <c r="BN66" s="6"/>
     </row>
     <row r="67" spans="1:66" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -7950,12 +8086,12 @@
         <v>195</v>
       </c>
       <c r="AY67" s="6"/>
-      <c r="AZ67" s="72"/>
-      <c r="BA67" s="72"/>
-      <c r="BB67" s="72"/>
-      <c r="BC67" s="72"/>
-      <c r="BD67" s="72"/>
-      <c r="BE67" s="72"/>
+      <c r="AZ67" s="76"/>
+      <c r="BA67" s="76"/>
+      <c r="BB67" s="76"/>
+      <c r="BC67" s="76"/>
+      <c r="BD67" s="76"/>
+      <c r="BE67" s="76"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
       <c r="BH67" s="6"/>
@@ -7967,22 +8103,22 @@
       <c r="BN67" s="6"/>
     </row>
     <row r="68" spans="1:66" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68" t="s">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="68" t="s">
+      <c r="C68" s="67" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="76"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -8043,22 +8179,22 @@
       <c r="BN68" s="6"/>
     </row>
     <row r="69" spans="1:66" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
-      <c r="B69" s="68" t="s">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="67" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="72"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="76"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -8104,18 +8240,18 @@
       <c r="BC69" s="6"/>
       <c r="BD69" s="6"/>
       <c r="BE69" s="6"/>
-      <c r="BF69" s="75"/>
-      <c r="BG69" s="75"/>
-      <c r="BH69" s="75"/>
-      <c r="BI69" s="75"/>
-      <c r="BJ69" s="75"/>
-      <c r="BK69" s="75"/>
+      <c r="BF69" s="89"/>
+      <c r="BG69" s="89"/>
+      <c r="BH69" s="89"/>
+      <c r="BI69" s="89"/>
+      <c r="BJ69" s="89"/>
+      <c r="BK69" s="89"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
       <c r="BN69" s="6"/>
     </row>
     <row r="70" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="65" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="6"/>
@@ -8183,13 +8319,13 @@
       <c r="BN70" s="6"/>
     </row>
     <row r="71" spans="1:66" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="68" t="s">
+      <c r="C71" s="67" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="6"/>
@@ -8240,12 +8376,12 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="6"/>
-      <c r="AZ71" s="75"/>
-      <c r="BA71" s="75"/>
-      <c r="BB71" s="75"/>
-      <c r="BC71" s="75"/>
-      <c r="BD71" s="75"/>
-      <c r="BE71" s="75"/>
+      <c r="AZ71" s="89"/>
+      <c r="BA71" s="89"/>
+      <c r="BB71" s="89"/>
+      <c r="BC71" s="89"/>
+      <c r="BD71" s="89"/>
+      <c r="BE71" s="89"/>
       <c r="BF71" s="6"/>
       <c r="BG71" s="6"/>
       <c r="BH71" s="6"/>
@@ -8257,19 +8393,19 @@
       <c r="BN71" s="6"/>
     </row>
     <row r="72" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
-      <c r="B72" s="68" t="s">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="68" t="s">
+      <c r="C72" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -8329,19 +8465,19 @@
       <c r="BN72" s="6"/>
     </row>
     <row r="73" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="68" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -8390,30 +8526,30 @@
       <c r="BC73" s="6"/>
       <c r="BD73" s="6"/>
       <c r="BE73" s="6"/>
-      <c r="BF73" s="72"/>
-      <c r="BG73" s="72"/>
-      <c r="BH73" s="72"/>
-      <c r="BI73" s="72"/>
-      <c r="BJ73" s="72"/>
-      <c r="BK73" s="72"/>
+      <c r="BF73" s="76"/>
+      <c r="BG73" s="76"/>
+      <c r="BH73" s="76"/>
+      <c r="BI73" s="76"/>
+      <c r="BJ73" s="76"/>
+      <c r="BK73" s="76"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
       <c r="BN73" s="6"/>
     </row>
     <row r="74" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -8462,23 +8598,23 @@
       <c r="BC74" s="6"/>
       <c r="BD74" s="6"/>
       <c r="BE74" s="6"/>
-      <c r="BF74" s="72"/>
-      <c r="BG74" s="72"/>
-      <c r="BH74" s="72"/>
-      <c r="BI74" s="72"/>
-      <c r="BJ74" s="72"/>
-      <c r="BK74" s="72"/>
+      <c r="BF74" s="76"/>
+      <c r="BG74" s="76"/>
+      <c r="BH74" s="76"/>
+      <c r="BI74" s="76"/>
+      <c r="BJ74" s="76"/>
+      <c r="BK74" s="76"/>
       <c r="BL74" s="6"/>
       <c r="BM74" s="6"/>
       <c r="BN74" s="6"/>
     </row>
     <row r="75" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="94"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -8527,20 +8663,20 @@
       <c r="BC75" s="6"/>
       <c r="BD75" s="6"/>
       <c r="BE75" s="6"/>
-      <c r="BF75" s="72"/>
-      <c r="BG75" s="72"/>
-      <c r="BH75" s="72"/>
-      <c r="BI75" s="72"/>
-      <c r="BJ75" s="72"/>
-      <c r="BK75" s="72"/>
+      <c r="BF75" s="76"/>
+      <c r="BG75" s="76"/>
+      <c r="BH75" s="76"/>
+      <c r="BI75" s="76"/>
+      <c r="BJ75" s="76"/>
+      <c r="BK75" s="76"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
       <c r="BN75" s="6"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -8606,15 +8742,15 @@
       <c r="BN76" s="6"/>
     </row>
     <row r="77" spans="1:66" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="79"/>
-      <c r="H77" s="79"/>
-      <c r="I77" s="79"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="94"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -8663,26 +8799,26 @@
       <c r="BC77" s="6"/>
       <c r="BD77" s="6"/>
       <c r="BE77" s="6"/>
-      <c r="BF77" s="72"/>
-      <c r="BG77" s="72"/>
-      <c r="BH77" s="72"/>
-      <c r="BI77" s="72"/>
-      <c r="BJ77" s="72"/>
-      <c r="BK77" s="72"/>
+      <c r="BF77" s="76"/>
+      <c r="BG77" s="76"/>
+      <c r="BH77" s="76"/>
+      <c r="BI77" s="76"/>
+      <c r="BJ77" s="76"/>
+      <c r="BK77" s="76"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
       <c r="BN77" s="6"/>
     </row>
     <row r="78" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="68"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="79"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="94"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -8731,26 +8867,26 @@
       <c r="BC78" s="6"/>
       <c r="BD78" s="6"/>
       <c r="BE78" s="6"/>
-      <c r="BF78" s="72"/>
-      <c r="BG78" s="72"/>
-      <c r="BH78" s="72"/>
-      <c r="BI78" s="72"/>
-      <c r="BJ78" s="72"/>
-      <c r="BK78" s="72"/>
+      <c r="BF78" s="76"/>
+      <c r="BG78" s="76"/>
+      <c r="BH78" s="76"/>
+      <c r="BI78" s="76"/>
+      <c r="BJ78" s="76"/>
+      <c r="BK78" s="76"/>
       <c r="BL78" s="6"/>
       <c r="BM78" s="6"/>
       <c r="BN78" s="6"/>
     </row>
     <row r="79" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="94"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="94"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="94"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -8799,23 +8935,23 @@
       <c r="BC79" s="6"/>
       <c r="BD79" s="6"/>
       <c r="BE79" s="6"/>
-      <c r="BF79" s="72"/>
-      <c r="BG79" s="72"/>
-      <c r="BH79" s="72"/>
-      <c r="BI79" s="72"/>
-      <c r="BJ79" s="72"/>
-      <c r="BK79" s="72"/>
+      <c r="BF79" s="76"/>
+      <c r="BG79" s="76"/>
+      <c r="BH79" s="76"/>
+      <c r="BI79" s="76"/>
+      <c r="BJ79" s="76"/>
+      <c r="BK79" s="76"/>
       <c r="BL79" s="6"/>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
     </row>
     <row r="80" spans="1:66" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -8875,9 +9011,9 @@
       <c r="BN80" s="6"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -8943,15 +9079,15 @@
       <c r="BN81" s="6"/>
     </row>
     <row r="82" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="94"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -9000,26 +9136,26 @@
       <c r="BC82" s="6"/>
       <c r="BD82" s="6"/>
       <c r="BE82" s="6"/>
-      <c r="BF82" s="72"/>
-      <c r="BG82" s="72"/>
-      <c r="BH82" s="72"/>
-      <c r="BI82" s="72"/>
-      <c r="BJ82" s="72"/>
-      <c r="BK82" s="72"/>
+      <c r="BF82" s="76"/>
+      <c r="BG82" s="76"/>
+      <c r="BH82" s="76"/>
+      <c r="BI82" s="76"/>
+      <c r="BJ82" s="76"/>
+      <c r="BK82" s="76"/>
       <c r="BL82" s="6"/>
       <c r="BM82" s="6"/>
       <c r="BN82" s="6"/>
     </row>
     <row r="83" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="76"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -9079,15 +9215,15 @@
       <c r="BN83" s="6"/>
     </row>
     <row r="84" spans="1:66" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -9150,12 +9286,12 @@
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="79"/>
-      <c r="I85" s="79"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -9204,12 +9340,12 @@
       <c r="BC85" s="6"/>
       <c r="BD85" s="6"/>
       <c r="BE85" s="6"/>
-      <c r="BF85" s="72"/>
-      <c r="BG85" s="72"/>
-      <c r="BH85" s="72"/>
-      <c r="BI85" s="72"/>
-      <c r="BJ85" s="72"/>
-      <c r="BK85" s="72"/>
+      <c r="BF85" s="76"/>
+      <c r="BG85" s="76"/>
+      <c r="BH85" s="76"/>
+      <c r="BI85" s="76"/>
+      <c r="BJ85" s="76"/>
+      <c r="BK85" s="76"/>
       <c r="BL85" s="6"/>
       <c r="BM85" s="6"/>
       <c r="BN85" s="6"/>
@@ -9626,7 +9762,143 @@
       <c r="AB92" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="160">
+    <mergeCell ref="AZ45:BC45"/>
+    <mergeCell ref="AZ44:BC44"/>
+    <mergeCell ref="AZ33:BC33"/>
+    <mergeCell ref="AZ34:BC34"/>
+    <mergeCell ref="AZ8:BC8"/>
+    <mergeCell ref="AZ9:BC9"/>
+    <mergeCell ref="AZ28:BC28"/>
+    <mergeCell ref="AZ49:BC49"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BF34:BI34"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="AQ1:AY1"/>
+    <mergeCell ref="AZ1:BN1"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="AQ2:AS3"/>
+    <mergeCell ref="AT2:AV3"/>
+    <mergeCell ref="AE2:AG3"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="P18:X18"/>
+    <mergeCell ref="P19:X19"/>
+    <mergeCell ref="P33:X33"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="Y2:AA3"/>
+    <mergeCell ref="AB2:AD3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AP3"/>
+    <mergeCell ref="BF85:BK85"/>
+    <mergeCell ref="BF75:BK75"/>
+    <mergeCell ref="BF74:BK74"/>
+    <mergeCell ref="BF59:BK59"/>
+    <mergeCell ref="BF60:BK60"/>
+    <mergeCell ref="BF65:BK65"/>
+    <mergeCell ref="BF55:BK55"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="Y1:AG1"/>
+    <mergeCell ref="AH1:AP1"/>
+    <mergeCell ref="AZ71:BE71"/>
+    <mergeCell ref="AZ67:BE67"/>
+    <mergeCell ref="AZ52:BE52"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BF52:BK52"/>
+    <mergeCell ref="BF82:BK82"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BF79:BK79"/>
+    <mergeCell ref="BF77:BK77"/>
+    <mergeCell ref="BF78:BK78"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="BF53:BK53"/>
+    <mergeCell ref="BF64:BK64"/>
+    <mergeCell ref="BF73:BK73"/>
+    <mergeCell ref="BF63:BK63"/>
+    <mergeCell ref="BF62:BK62"/>
+    <mergeCell ref="BF54:BK54"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="AZ23:BC23"/>
+    <mergeCell ref="AZ18:BC18"/>
+    <mergeCell ref="AZ38:BC38"/>
+    <mergeCell ref="AZ39:BC39"/>
+    <mergeCell ref="AZ59:BC59"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="D8:O8"/>
     <mergeCell ref="P9:X9"/>
@@ -9651,126 +9923,6 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:O4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BF79:BK79"/>
-    <mergeCell ref="BF77:BK77"/>
-    <mergeCell ref="BF78:BK78"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="BF53:BK53"/>
-    <mergeCell ref="BF64:BK64"/>
-    <mergeCell ref="BF73:BK73"/>
-    <mergeCell ref="BF63:BK63"/>
-    <mergeCell ref="BF62:BK62"/>
-    <mergeCell ref="BF54:BK54"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="BF85:BK85"/>
-    <mergeCell ref="BF75:BK75"/>
-    <mergeCell ref="BF74:BK74"/>
-    <mergeCell ref="BF59:BK59"/>
-    <mergeCell ref="BF60:BK60"/>
-    <mergeCell ref="BF65:BK65"/>
-    <mergeCell ref="BF55:BK55"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AZ71:BE71"/>
-    <mergeCell ref="AZ67:BE67"/>
-    <mergeCell ref="AZ58:BE58"/>
-    <mergeCell ref="AZ59:BE59"/>
-    <mergeCell ref="AZ52:BE52"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="AT5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BF52:BK52"/>
-    <mergeCell ref="BF82:BK82"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="Y2:AA3"/>
-    <mergeCell ref="AB2:AD3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AP3"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BN1"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="AQ2:AS3"/>
-    <mergeCell ref="AT2:AV3"/>
-    <mergeCell ref="AE2:AG3"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="P18:X18"/>
-    <mergeCell ref="P19:X19"/>
-    <mergeCell ref="P33:X33"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
